--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\gitrepos\pokemonData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kayla/dev/pokemonData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F2BDD-0E9F-AB45-B129-21FEE080A807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1185" windowWidth="24960" windowHeight="13605" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -2807,7 +2808,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3118,17 +3119,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>16</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>18</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>18</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>22</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
@@ -4336,13 +4337,13 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F31">
         <v>60</v>
       </c>
       <c r="G31">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H31">
         <v>69</v>
@@ -4363,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>25</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>26</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>27</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>28</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>29</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>30</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>31</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>33</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>34</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>35</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>36</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>37</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>38</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>39</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>40</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>41</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>42</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>43</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>44</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>45</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>46</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>47</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>48</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>49</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>50</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>51</v>
       </c>
@@ -5401,13 +5402,13 @@
         <v>55</v>
       </c>
       <c r="E58">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="F58">
         <v>35</v>
       </c>
       <c r="G58">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H58">
         <v>50</v>
@@ -5428,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>52</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>53</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>54</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>55</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>56</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>57</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>58</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>59</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>60</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>61</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>62</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>63</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>64</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>65</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>65</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>94</v>
       </c>
       <c r="E73">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F73">
         <v>55</v>
@@ -5989,7 +5990,7 @@
         <v>175</v>
       </c>
       <c r="J73">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K73">
         <v>150</v>
@@ -6001,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>66</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>67</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>68</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>69</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>70</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>71</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>72</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>73</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>74</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>75</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>76</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>77</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>78</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>79</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>80</v>
       </c>
@@ -6601,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>80</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>81</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>82</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>83</v>
       </c>
@@ -6738,13 +6739,13 @@
         <v>23</v>
       </c>
       <c r="E92">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="F92">
         <v>52</v>
       </c>
       <c r="G92">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H92">
         <v>55</v>
@@ -6765,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>84</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>85</v>
       </c>
@@ -6820,7 +6821,7 @@
         <v>23</v>
       </c>
       <c r="E94">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F94">
         <v>60</v>
@@ -6838,7 +6839,7 @@
         <v>60</v>
       </c>
       <c r="K94">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -6847,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>86</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>87</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>88</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>89</v>
       </c>
@@ -7002,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>90</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>91</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>92</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>93</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>94</v>
       </c>
@@ -7204,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>94</v>
       </c>
@@ -7245,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>95</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>96</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>97</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>98</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>99</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>100</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>101</v>
       </c>
@@ -7487,7 +7488,7 @@
         <v>52</v>
       </c>
       <c r="E111">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F111">
         <v>60</v>
@@ -7505,7 +7506,7 @@
         <v>80</v>
       </c>
       <c r="K111">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -7514,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>102</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>103</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>94</v>
       </c>
       <c r="E113">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="F113">
         <v>95</v>
@@ -7584,7 +7585,7 @@
         <v>125</v>
       </c>
       <c r="J113">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K113">
         <v>55</v>
@@ -7596,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>104</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>105</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>106</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>107</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>108</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>109</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>110</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>111</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>112</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>113</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>114</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>115</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>115</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>116</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>117</v>
       </c>
@@ -8172,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>118</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>119</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>120</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>121</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>122</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>123</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>124</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>125</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>126</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>127</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>127</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>128</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>129</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>130</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>130</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>131</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>132</v>
       </c>
@@ -8842,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>133</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>134</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>135</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>136</v>
       </c>
@@ -8994,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>137</v>
       </c>
@@ -9032,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>138</v>
       </c>
@@ -9073,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>139</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>140</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>141</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>142</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>142</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>143</v>
       </c>
@@ -9316,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>144</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>145</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>146</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>147</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>148</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>149</v>
       </c>
@@ -9556,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>150</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>150</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>150</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>151</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>152</v>
       </c>
@@ -9749,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>153</v>
       </c>
@@ -9787,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>154</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>155</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>156</v>
       </c>
@@ -9901,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>157</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>158</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>159</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>160</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>161</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>162</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>163</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>164</v>
       </c>
@@ -10184,7 +10185,7 @@
         <v>23</v>
       </c>
       <c r="E180">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="F180">
         <v>100</v>
@@ -10196,7 +10197,7 @@
         <v>50</v>
       </c>
       <c r="I180">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J180">
         <v>96</v>
@@ -10211,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>165</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>166</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>167</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>168</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>15</v>
       </c>
       <c r="E184">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F184">
         <v>70</v>
@@ -10363,7 +10364,7 @@
         <v>60</v>
       </c>
       <c r="J184">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K184">
         <v>40</v>
@@ -10375,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>169</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>170</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>171</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>172</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>173</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>174</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>175</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>176</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>177</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>178</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>179</v>
       </c>
@@ -10814,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>180</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>181</v>
       </c>
@@ -10890,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>181</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>182</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>183</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>184</v>
       </c>
@@ -11051,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>185</v>
       </c>
@@ -11089,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>186</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>187</v>
       </c>
@@ -11168,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>188</v>
       </c>
@@ -11209,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>189</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>190</v>
       </c>
@@ -11288,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>191</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>192</v>
       </c>
@@ -11364,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>193</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>194</v>
       </c>
@@ -11446,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>195</v>
       </c>
@@ -11487,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>196</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>197</v>
       </c>
@@ -11563,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>198</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>199</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>200</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>201</v>
       </c>
@@ -11721,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>202</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>203</v>
       </c>
@@ -11800,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>204</v>
       </c>
@@ -11838,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>205</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>206</v>
       </c>
@@ -11917,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>207</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>208</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>208</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>209</v>
       </c>
@@ -12078,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>210</v>
       </c>
@@ -12116,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>211</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>15</v>
       </c>
       <c r="E229">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F229">
         <v>65</v>
@@ -12139,7 +12140,7 @@
         <v>95</v>
       </c>
       <c r="H229">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I229">
         <v>55</v>
@@ -12157,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>212</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>212</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>213</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>214</v>
       </c>
@@ -12321,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>214</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>215</v>
       </c>
@@ -12403,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>216</v>
       </c>
@@ -12441,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>217</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>218</v>
       </c>
@@ -12517,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>219</v>
       </c>
@@ -12531,10 +12532,10 @@
         <v>107</v>
       </c>
       <c r="E239">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="F239">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G239">
         <v>50</v>
@@ -12543,7 +12544,7 @@
         <v>120</v>
       </c>
       <c r="I239">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J239">
         <v>80</v>
@@ -12558,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>220</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>221</v>
       </c>
@@ -12640,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>222</v>
       </c>
@@ -12654,22 +12655,22 @@
         <v>107</v>
       </c>
       <c r="E242">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="F242">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G242">
         <v>55</v>
       </c>
       <c r="H242">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I242">
         <v>65</v>
       </c>
       <c r="J242">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K242">
         <v>35</v>
@@ -12681,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>223</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>224</v>
       </c>
@@ -12757,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>225</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>226</v>
       </c>
@@ -12812,10 +12813,10 @@
         <v>23</v>
       </c>
       <c r="E246">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="F246">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G246">
         <v>40</v>
@@ -12839,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>227</v>
       </c>
@@ -12880,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>228</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>229</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>229</v>
       </c>
@@ -13003,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>230</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>231</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>232</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>233</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>234</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>235</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>236</v>
       </c>
@@ -13272,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>237</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>238</v>
       </c>
@@ -13351,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>239</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>240</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>241</v>
       </c>
@@ -13465,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>242</v>
       </c>
@@ -13503,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>243</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>244</v>
       </c>
@@ -13579,7 +13580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>245</v>
       </c>
@@ -13617,7 +13618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>246</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>247</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>248</v>
       </c>
@@ -13740,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>248</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>249</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>250</v>
       </c>
@@ -13863,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>251</v>
       </c>
@@ -13904,7 +13905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>252</v>
       </c>
@@ -13942,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>253</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>254</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>254</v>
       </c>
@@ -14059,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>255</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>256</v>
       </c>
@@ -14138,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>257</v>
       </c>
@@ -14179,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>257</v>
       </c>
@@ -14220,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>258</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>259</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>260</v>
       </c>
@@ -14340,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>260</v>
       </c>
@@ -14381,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>261</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>262</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>263</v>
       </c>
@@ -14495,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>264</v>
       </c>
@@ -14533,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>265</v>
       </c>
@@ -14571,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>266</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>267</v>
       </c>
@@ -14650,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>268</v>
       </c>
@@ -14688,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>269</v>
       </c>
@@ -14729,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>270</v>
       </c>
@@ -14770,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>271</v>
       </c>
@@ -14811,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>272</v>
       </c>
@@ -14852,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>273</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>274</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>275</v>
       </c>
@@ -14972,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>276</v>
       </c>
@@ -15013,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>277</v>
       </c>
@@ -15027,7 +15028,7 @@
         <v>23</v>
       </c>
       <c r="E302">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="F302">
         <v>60</v>
@@ -15039,7 +15040,7 @@
         <v>60</v>
       </c>
       <c r="I302">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J302">
         <v>50</v>
@@ -15054,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>278</v>
       </c>
@@ -15095,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>279</v>
       </c>
@@ -15109,7 +15110,7 @@
         <v>23</v>
       </c>
       <c r="E304">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F304">
         <v>60</v>
@@ -15121,7 +15122,7 @@
         <v>100</v>
       </c>
       <c r="I304">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J304">
         <v>70</v>
@@ -15136,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>280</v>
       </c>
@@ -15177,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>281</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>282</v>
       </c>
@@ -15259,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>282</v>
       </c>
@@ -15300,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>283</v>
       </c>
@@ -15341,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>284</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>23</v>
       </c>
       <c r="E310">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="F310">
         <v>70</v>
@@ -15367,13 +15368,13 @@
         <v>62</v>
       </c>
       <c r="I310">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J310">
         <v>82</v>
       </c>
       <c r="K310">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L310">
         <v>3</v>
@@ -15382,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>285</v>
       </c>
@@ -15420,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>286</v>
       </c>
@@ -15461,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>287</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>288</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>289</v>
       </c>
@@ -15575,7 +15576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>290</v>
       </c>
@@ -15616,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>291</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>292</v>
       </c>
@@ -15698,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>293</v>
       </c>
@@ -15736,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>294</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>295</v>
       </c>
@@ -15812,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>296</v>
       </c>
@@ -15850,7 +15851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>297</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>298</v>
       </c>
@@ -15929,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>299</v>
       </c>
@@ -15967,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>300</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>301</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>41</v>
       </c>
       <c r="E327">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F327">
         <v>70</v>
@@ -16034,7 +16035,7 @@
         <v>55</v>
       </c>
       <c r="K327">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L327">
         <v>3</v>
@@ -16043,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>302</v>
       </c>
@@ -16084,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>302</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>303</v>
       </c>
@@ -16166,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>303</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>304</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>305</v>
       </c>
@@ -16289,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>306</v>
       </c>
@@ -16330,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>306</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>307</v>
       </c>
@@ -16409,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>308</v>
       </c>
@@ -16450,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>308</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>309</v>
       </c>
@@ -16529,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>310</v>
       </c>
@@ -16567,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>310</v>
       </c>
@@ -16605,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>311</v>
       </c>
@@ -16643,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>312</v>
       </c>
@@ -16681,7 +16682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>313</v>
       </c>
@@ -16692,7 +16693,7 @@
         <v>33</v>
       </c>
       <c r="E344">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="F344">
         <v>65</v>
@@ -16701,13 +16702,13 @@
         <v>73</v>
       </c>
       <c r="H344">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I344">
         <v>47</v>
       </c>
       <c r="J344">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K344">
         <v>85</v>
@@ -16719,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>314</v>
       </c>
@@ -16730,7 +16731,7 @@
         <v>33</v>
       </c>
       <c r="E345">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="F345">
         <v>65</v>
@@ -16739,13 +16740,13 @@
         <v>47</v>
       </c>
       <c r="H345">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I345">
         <v>73</v>
       </c>
       <c r="J345">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K345">
         <v>85</v>
@@ -16757,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>315</v>
       </c>
@@ -16798,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>316</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>317</v>
       </c>
@@ -16874,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>318</v>
       </c>
@@ -16915,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>319</v>
       </c>
@@ -16956,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>319</v>
       </c>
@@ -16997,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>320</v>
       </c>
@@ -17035,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>321</v>
       </c>
@@ -17073,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>322</v>
       </c>
@@ -17114,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>323</v>
       </c>
@@ -17155,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>323</v>
       </c>
@@ -17196,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>324</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>325</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>326</v>
       </c>
@@ -17310,7 +17311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>327</v>
       </c>
@@ -17348,7 +17349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>328</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>329</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>330</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>331</v>
       </c>
@@ -17506,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>332</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>333</v>
       </c>
@@ -17588,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>334</v>
       </c>
@@ -17629,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>334</v>
       </c>
@@ -17670,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>335</v>
       </c>
@@ -17708,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>336</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>337</v>
       </c>
@@ -17760,10 +17761,10 @@
         <v>94</v>
       </c>
       <c r="E371">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F371">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G371">
         <v>55</v>
@@ -17787,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>338</v>
       </c>
@@ -17801,10 +17802,10 @@
         <v>94</v>
       </c>
       <c r="E372">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F372">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G372">
         <v>95</v>
@@ -17828,7 +17829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>339</v>
       </c>
@@ -17869,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>340</v>
       </c>
@@ -17910,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>341</v>
       </c>
@@ -17948,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>342</v>
       </c>
@@ -17989,7 +17990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>343</v>
       </c>
@@ -18030,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>344</v>
       </c>
@@ -18071,7 +18072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>345</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>346</v>
       </c>
@@ -18153,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>347</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>348</v>
       </c>
@@ -18235,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>349</v>
       </c>
@@ -18273,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>350</v>
       </c>
@@ -18311,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>351</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>352</v>
       </c>
@@ -18387,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>353</v>
       </c>
@@ -18425,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>354</v>
       </c>
@@ -18463,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>354</v>
       </c>
@@ -18501,7 +18502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>355</v>
       </c>
@@ -18539,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>356</v>
       </c>
@@ -18577,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>357</v>
       </c>
@@ -18618,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>358</v>
       </c>
@@ -18629,22 +18630,22 @@
         <v>94</v>
       </c>
       <c r="E393">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="F393">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G393">
         <v>50</v>
       </c>
       <c r="H393">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I393">
         <v>95</v>
       </c>
       <c r="J393">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K393">
         <v>65</v>
@@ -18656,7 +18657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>359</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>359</v>
       </c>
@@ -18732,7 +18733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>360</v>
       </c>
@@ -18770,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>361</v>
       </c>
@@ -18808,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>362</v>
       </c>
@@ -18846,7 +18847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>362</v>
       </c>
@@ -18884,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>363</v>
       </c>
@@ -18925,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>364</v>
       </c>
@@ -18966,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>365</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>366</v>
       </c>
@@ -19045,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>367</v>
       </c>
@@ -19083,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>368</v>
       </c>
@@ -19121,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>369</v>
       </c>
@@ -19162,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>370</v>
       </c>
@@ -19200,7 +19201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>371</v>
       </c>
@@ -19238,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>372</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>373</v>
       </c>
@@ -19317,7 +19318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>373</v>
       </c>
@@ -19358,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>374</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>375</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>376</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>376</v>
       </c>
@@ -19522,7 +19523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>377</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>378</v>
       </c>
@@ -19598,7 +19599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>379</v>
       </c>
@@ -19636,7 +19637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>380</v>
       </c>
@@ -19677,7 +19678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>380</v>
       </c>
@@ -19718,7 +19719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>381</v>
       </c>
@@ -19759,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>381</v>
       </c>
@@ -19800,7 +19801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>382</v>
       </c>
@@ -19838,7 +19839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>382</v>
       </c>
@@ -19876,7 +19877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>383</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>383</v>
       </c>
@@ -19955,7 +19956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>384</v>
       </c>
@@ -19996,7 +19997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>384</v>
       </c>
@@ -20037,7 +20038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>385</v>
       </c>
@@ -20078,7 +20079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>386</v>
       </c>
@@ -20116,7 +20117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>386</v>
       </c>
@@ -20154,7 +20155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>386</v>
       </c>
@@ -20192,7 +20193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>386</v>
       </c>
@@ -20230,7 +20231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>387</v>
       </c>
@@ -20268,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>388</v>
       </c>
@@ -20306,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>389</v>
       </c>
@@ -20347,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>390</v>
       </c>
@@ -20385,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>391</v>
       </c>
@@ -20426,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>392</v>
       </c>
@@ -20467,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>393</v>
       </c>
@@ -20505,7 +20506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>394</v>
       </c>
@@ -20543,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>395</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>396</v>
       </c>
@@ -20625,7 +20626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>397</v>
       </c>
@@ -20666,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>398</v>
       </c>
@@ -20707,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>399</v>
       </c>
@@ -20745,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>400</v>
       </c>
@@ -20786,7 +20787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>401</v>
       </c>
@@ -20824,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>402</v>
       </c>
@@ -20862,7 +20863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>403</v>
       </c>
@@ -20900,7 +20901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>404</v>
       </c>
@@ -20938,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>405</v>
       </c>
@@ -20976,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>406</v>
       </c>
@@ -21017,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>407</v>
       </c>
@@ -21058,7 +21059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>408</v>
       </c>
@@ -21096,7 +21097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>409</v>
       </c>
@@ -21134,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>410</v>
       </c>
@@ -21175,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>411</v>
       </c>
@@ -21216,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>412</v>
       </c>
@@ -21254,7 +21255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>413</v>
       </c>
@@ -21295,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>413</v>
       </c>
@@ -21336,7 +21337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>413</v>
       </c>
@@ -21377,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>414</v>
       </c>
@@ -21418,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>415</v>
       </c>
@@ -21459,7 +21460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>416</v>
       </c>
@@ -21500,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>417</v>
       </c>
@@ -21538,7 +21539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>418</v>
       </c>
@@ -21576,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>419</v>
       </c>
@@ -21614,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>420</v>
       </c>
@@ -21652,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>421</v>
       </c>
@@ -21690,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>422</v>
       </c>
@@ -21728,7 +21729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>423</v>
       </c>
@@ -21769,7 +21770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>424</v>
       </c>
@@ -21807,7 +21808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>425</v>
       </c>
@@ -21848,7 +21849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>426</v>
       </c>
@@ -21889,7 +21890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>427</v>
       </c>
@@ -21927,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>428</v>
       </c>
@@ -21965,7 +21966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>428</v>
       </c>
@@ -22006,7 +22007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>429</v>
       </c>
@@ -22044,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>430</v>
       </c>
@@ -22085,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>431</v>
       </c>
@@ -22123,7 +22124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>432</v>
       </c>
@@ -22161,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>433</v>
       </c>
@@ -22199,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>434</v>
       </c>
@@ -22240,7 +22241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>435</v>
       </c>
@@ -22281,7 +22282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>436</v>
       </c>
@@ -22322,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>437</v>
       </c>
@@ -22363,7 +22364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>438</v>
       </c>
@@ -22401,7 +22402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>439</v>
       </c>
@@ -22442,7 +22443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>440</v>
       </c>
@@ -22480,7 +22481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>441</v>
       </c>
@@ -22521,7 +22522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>442</v>
       </c>
@@ -22562,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>443</v>
       </c>
@@ -22603,7 +22604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>444</v>
       </c>
@@ -22644,7 +22645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>445</v>
       </c>
@@ -22685,7 +22686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>445</v>
       </c>
@@ -22726,7 +22727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>446</v>
       </c>
@@ -22764,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>447</v>
       </c>
@@ -22802,7 +22803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>448</v>
       </c>
@@ -22843,7 +22844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>448</v>
       </c>
@@ -22884,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>449</v>
       </c>
@@ -22922,7 +22923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>450</v>
       </c>
@@ -22960,7 +22961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>451</v>
       </c>
@@ -23001,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>452</v>
       </c>
@@ -23042,7 +23043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>453</v>
       </c>
@@ -23083,7 +23084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>454</v>
       </c>
@@ -23124,7 +23125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>455</v>
       </c>
@@ -23162,7 +23163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>456</v>
       </c>
@@ -23200,7 +23201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>457</v>
       </c>
@@ -23238,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>458</v>
       </c>
@@ -23279,7 +23280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>459</v>
       </c>
@@ -23320,7 +23321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>460</v>
       </c>
@@ -23361,7 +23362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>460</v>
       </c>
@@ -23402,7 +23403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>461</v>
       </c>
@@ -23443,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>462</v>
       </c>
@@ -23484,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>463</v>
       </c>
@@ -23522,7 +23523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>464</v>
       </c>
@@ -23563,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>465</v>
       </c>
@@ -23601,7 +23602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>466</v>
       </c>
@@ -23639,7 +23640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>467</v>
       </c>
@@ -23677,7 +23678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>468</v>
       </c>
@@ -23718,7 +23719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>469</v>
       </c>
@@ -23759,7 +23760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>470</v>
       </c>
@@ -23797,7 +23798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>471</v>
       </c>
@@ -23835,7 +23836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>472</v>
       </c>
@@ -23876,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>473</v>
       </c>
@@ -23917,7 +23918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>474</v>
       </c>
@@ -23955,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>475</v>
       </c>
@@ -23996,7 +23997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>475</v>
       </c>
@@ -24037,7 +24038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>476</v>
       </c>
@@ -24078,7 +24079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>477</v>
       </c>
@@ -24116,7 +24117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>478</v>
       </c>
@@ -24157,7 +24158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>479</v>
       </c>
@@ -24198,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>479</v>
       </c>
@@ -24239,7 +24240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>479</v>
       </c>
@@ -24280,7 +24281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>479</v>
       </c>
@@ -24321,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>479</v>
       </c>
@@ -24362,7 +24363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>479</v>
       </c>
@@ -24403,7 +24404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>480</v>
       </c>
@@ -24441,7 +24442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>481</v>
       </c>
@@ -24479,7 +24480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>482</v>
       </c>
@@ -24517,7 +24518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>483</v>
       </c>
@@ -24558,7 +24559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>484</v>
       </c>
@@ -24599,7 +24600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>485</v>
       </c>
@@ -24640,7 +24641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>486</v>
       </c>
@@ -24678,7 +24679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>487</v>
       </c>
@@ -24719,7 +24720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>487</v>
       </c>
@@ -24760,7 +24761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>488</v>
       </c>
@@ -24798,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>489</v>
       </c>
@@ -24836,7 +24837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>490</v>
       </c>
@@ -24874,7 +24875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>491</v>
       </c>
@@ -24912,7 +24913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>492</v>
       </c>
@@ -24950,7 +24951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>492</v>
       </c>
@@ -24991,7 +24992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>493</v>
       </c>
@@ -25029,7 +25030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>494</v>
       </c>
@@ -25070,7 +25071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>495</v>
       </c>
@@ -25108,7 +25109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>496</v>
       </c>
@@ -25146,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>497</v>
       </c>
@@ -25184,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>498</v>
       </c>
@@ -25222,7 +25223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>499</v>
       </c>
@@ -25263,7 +25264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>500</v>
       </c>
@@ -25304,7 +25305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>501</v>
       </c>
@@ -25342,7 +25343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>502</v>
       </c>
@@ -25380,7 +25381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>503</v>
       </c>
@@ -25418,7 +25419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>504</v>
       </c>
@@ -25456,7 +25457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>505</v>
       </c>
@@ -25494,7 +25495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>506</v>
       </c>
@@ -25532,7 +25533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>507</v>
       </c>
@@ -25570,7 +25571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>508</v>
       </c>
@@ -25608,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>509</v>
       </c>
@@ -25646,7 +25647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>510</v>
       </c>
@@ -25684,7 +25685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>511</v>
       </c>
@@ -25722,7 +25723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>512</v>
       </c>
@@ -25760,7 +25761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>513</v>
       </c>
@@ -25798,7 +25799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>514</v>
       </c>
@@ -25836,7 +25837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>515</v>
       </c>
@@ -25874,7 +25875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>516</v>
       </c>
@@ -25912,7 +25913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>517</v>
       </c>
@@ -25950,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>518</v>
       </c>
@@ -25988,7 +25989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>519</v>
       </c>
@@ -26029,7 +26030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>520</v>
       </c>
@@ -26070,7 +26071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>521</v>
       </c>
@@ -26111,7 +26112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>522</v>
       </c>
@@ -26149,7 +26150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>523</v>
       </c>
@@ -26187,7 +26188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>524</v>
       </c>
@@ -26225,7 +26226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>525</v>
       </c>
@@ -26263,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>526</v>
       </c>
@@ -26301,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>527</v>
       </c>
@@ -26315,10 +26316,10 @@
         <v>23</v>
       </c>
       <c r="E588">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F588">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G588">
         <v>45</v>
@@ -26342,7 +26343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>528</v>
       </c>
@@ -26383,7 +26384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>529</v>
       </c>
@@ -26421,7 +26422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>530</v>
       </c>
@@ -26462,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>531</v>
       </c>
@@ -26500,7 +26501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>531</v>
       </c>
@@ -26541,7 +26542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>532</v>
       </c>
@@ -26579,7 +26580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>533</v>
       </c>
@@ -26617,7 +26618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>534</v>
       </c>
@@ -26655,7 +26656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>535</v>
       </c>
@@ -26693,7 +26694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>536</v>
       </c>
@@ -26734,7 +26735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>537</v>
       </c>
@@ -26775,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>538</v>
       </c>
@@ -26813,7 +26814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>539</v>
       </c>
@@ -26851,7 +26852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>540</v>
       </c>
@@ -26892,7 +26893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>541</v>
       </c>
@@ -26933,7 +26934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>542</v>
       </c>
@@ -26974,7 +26975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>543</v>
       </c>
@@ -27015,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>544</v>
       </c>
@@ -27056,7 +27057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>545</v>
       </c>
@@ -27097,7 +27098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>546</v>
       </c>
@@ -27138,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>547</v>
       </c>
@@ -27179,7 +27180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>548</v>
       </c>
@@ -27217,7 +27218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>549</v>
       </c>
@@ -27255,7 +27256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>550</v>
       </c>
@@ -27293,7 +27294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>551</v>
       </c>
@@ -27334,7 +27335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>552</v>
       </c>
@@ -27375,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>553</v>
       </c>
@@ -27416,7 +27417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>554</v>
       </c>
@@ -27454,7 +27455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>555</v>
       </c>
@@ -27492,7 +27493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>555</v>
       </c>
@@ -27533,7 +27534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>556</v>
       </c>
@@ -27571,7 +27572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>557</v>
       </c>
@@ -27612,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>558</v>
       </c>
@@ -27626,13 +27627,13 @@
         <v>107</v>
       </c>
       <c r="E621">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="F621">
         <v>70</v>
       </c>
       <c r="G621">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H621">
         <v>125</v>
@@ -27653,7 +27654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>559</v>
       </c>
@@ -27694,7 +27695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>560</v>
       </c>
@@ -27735,7 +27736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>561</v>
       </c>
@@ -27776,7 +27777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>562</v>
       </c>
@@ -27814,7 +27815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>563</v>
       </c>
@@ -27852,7 +27853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>564</v>
       </c>
@@ -27893,7 +27894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>565</v>
       </c>
@@ -27934,7 +27935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>566</v>
       </c>
@@ -27975,7 +27976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>567</v>
       </c>
@@ -28016,7 +28017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>568</v>
       </c>
@@ -28054,7 +28055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>569</v>
       </c>
@@ -28092,7 +28093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>570</v>
       </c>
@@ -28130,7 +28131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>571</v>
       </c>
@@ -28168,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>572</v>
       </c>
@@ -28206,7 +28207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>573</v>
       </c>
@@ -28244,7 +28245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>574</v>
       </c>
@@ -28282,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>575</v>
       </c>
@@ -28320,7 +28321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>576</v>
       </c>
@@ -28358,7 +28359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>577</v>
       </c>
@@ -28396,7 +28397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>578</v>
       </c>
@@ -28434,7 +28435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>579</v>
       </c>
@@ -28472,7 +28473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>580</v>
       </c>
@@ -28513,7 +28514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>581</v>
       </c>
@@ -28554,7 +28555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>582</v>
       </c>
@@ -28592,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>583</v>
       </c>
@@ -28630,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>584</v>
       </c>
@@ -28668,7 +28669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>585</v>
       </c>
@@ -28709,7 +28710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>586</v>
       </c>
@@ -28750,7 +28751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>587</v>
       </c>
@@ -28791,7 +28792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>588</v>
       </c>
@@ -28829,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>589</v>
       </c>
@@ -28870,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>590</v>
       </c>
@@ -28911,7 +28912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>591</v>
       </c>
@@ -28952,7 +28953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>592</v>
       </c>
@@ -28993,7 +28994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>593</v>
       </c>
@@ -29034,7 +29035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>594</v>
       </c>
@@ -29072,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>595</v>
       </c>
@@ -29113,7 +29114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>596</v>
       </c>
@@ -29154,7 +29155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>597</v>
       </c>
@@ -29195,7 +29196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>598</v>
       </c>
@@ -29236,7 +29237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>599</v>
       </c>
@@ -29274,7 +29275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>600</v>
       </c>
@@ -29312,7 +29313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>601</v>
       </c>
@@ -29350,7 +29351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>602</v>
       </c>
@@ -29388,7 +29389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>603</v>
       </c>
@@ -29426,7 +29427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>604</v>
       </c>
@@ -29464,7 +29465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>605</v>
       </c>
@@ -29502,7 +29503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>606</v>
       </c>
@@ -29540,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>607</v>
       </c>
@@ -29581,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>608</v>
       </c>
@@ -29622,7 +29623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>609</v>
       </c>
@@ -29663,7 +29664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>610</v>
       </c>
@@ -29701,7 +29702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>611</v>
       </c>
@@ -29739,7 +29740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>612</v>
       </c>
@@ -29777,7 +29778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>613</v>
       </c>
@@ -29815,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>614</v>
       </c>
@@ -29826,13 +29827,13 @@
         <v>123</v>
       </c>
       <c r="E677">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="F677">
         <v>95</v>
       </c>
       <c r="G677">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H677">
         <v>80</v>
@@ -29853,7 +29854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>615</v>
       </c>
@@ -29864,16 +29865,16 @@
         <v>123</v>
       </c>
       <c r="E678">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="F678">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G678">
         <v>50</v>
       </c>
       <c r="H678">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I678">
         <v>95</v>
@@ -29891,7 +29892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>616</v>
       </c>
@@ -29929,7 +29930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>617</v>
       </c>
@@ -29967,7 +29968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>618</v>
       </c>
@@ -30008,7 +30009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>619</v>
       </c>
@@ -30046,7 +30047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>620</v>
       </c>
@@ -30084,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>621</v>
       </c>
@@ -30122,7 +30123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>622</v>
       </c>
@@ -30163,7 +30164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>623</v>
       </c>
@@ -30204,7 +30205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>624</v>
       </c>
@@ -30245,7 +30246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>625</v>
       </c>
@@ -30286,7 +30287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>626</v>
       </c>
@@ -30324,7 +30325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>627</v>
       </c>
@@ -30365,7 +30366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>628</v>
       </c>
@@ -30406,7 +30407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>629</v>
       </c>
@@ -30447,7 +30448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>630</v>
       </c>
@@ -30488,7 +30489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>631</v>
       </c>
@@ -30526,7 +30527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>632</v>
       </c>
@@ -30567,7 +30568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>633</v>
       </c>
@@ -30608,7 +30609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>634</v>
       </c>
@@ -30649,7 +30650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>635</v>
       </c>
@@ -30690,7 +30691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>636</v>
       </c>
@@ -30731,7 +30732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>637</v>
       </c>
@@ -30772,7 +30773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>638</v>
       </c>
@@ -30813,7 +30814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>639</v>
       </c>
@@ -30854,7 +30855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>640</v>
       </c>
@@ -30895,7 +30896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>641</v>
       </c>
@@ -30933,7 +30934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>641</v>
       </c>
@@ -30971,7 +30972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>642</v>
       </c>
@@ -31012,7 +31013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>642</v>
       </c>
@@ -31053,7 +31054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>643</v>
       </c>
@@ -31094,7 +31095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>644</v>
       </c>
@@ -31135,7 +31136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>645</v>
       </c>
@@ -31176,7 +31177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>645</v>
       </c>
@@ -31217,7 +31218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>646</v>
       </c>
@@ -31258,7 +31259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>646</v>
       </c>
@@ -31299,7 +31300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>646</v>
       </c>
@@ -31340,7 +31341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>647</v>
       </c>
@@ -31381,7 +31382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>647</v>
       </c>
@@ -31422,7 +31423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>648</v>
       </c>
@@ -31463,7 +31464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>648</v>
       </c>
@@ -31504,7 +31505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>649</v>
       </c>
@@ -31545,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>650</v>
       </c>
@@ -31583,7 +31584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>651</v>
       </c>
@@ -31621,7 +31622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>652</v>
       </c>
@@ -31662,7 +31663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>653</v>
       </c>
@@ -31700,7 +31701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>654</v>
       </c>
@@ -31738,7 +31739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>655</v>
       </c>
@@ -31779,7 +31780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>656</v>
       </c>
@@ -31817,7 +31818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>657</v>
       </c>
@@ -31855,7 +31856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>658</v>
       </c>
@@ -31896,7 +31897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>659</v>
       </c>
@@ -31934,7 +31935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>660</v>
       </c>
@@ -31975,7 +31976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>661</v>
       </c>
@@ -32016,7 +32017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>662</v>
       </c>
@@ -32057,7 +32058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>663</v>
       </c>
@@ -32098,7 +32099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>664</v>
       </c>
@@ -32136,7 +32137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>665</v>
       </c>
@@ -32174,7 +32175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>666</v>
       </c>
@@ -32215,7 +32216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>667</v>
       </c>
@@ -32256,7 +32257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>668</v>
       </c>
@@ -32297,7 +32298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>669</v>
       </c>
@@ -32335,7 +32336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>670</v>
       </c>
@@ -32373,7 +32374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>671</v>
       </c>
@@ -32411,7 +32412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>672</v>
       </c>
@@ -32449,7 +32450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>673</v>
       </c>
@@ -32487,7 +32488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>674</v>
       </c>
@@ -32525,7 +32526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>675</v>
       </c>
@@ -32566,7 +32567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>676</v>
       </c>
@@ -32604,7 +32605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>677</v>
       </c>
@@ -32642,7 +32643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>678</v>
       </c>
@@ -32680,7 +32681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>678</v>
       </c>
@@ -32718,7 +32719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>679</v>
       </c>
@@ -32759,7 +32760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>680</v>
       </c>
@@ -32800,7 +32801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>681</v>
       </c>
@@ -32841,7 +32842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>681</v>
       </c>
@@ -32882,7 +32883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>682</v>
       </c>
@@ -32920,7 +32921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>683</v>
       </c>
@@ -32958,7 +32959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>684</v>
       </c>
@@ -32996,7 +32997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>685</v>
       </c>
@@ -33034,7 +33035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>686</v>
       </c>
@@ -33075,7 +33076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>687</v>
       </c>
@@ -33116,7 +33117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>688</v>
       </c>
@@ -33157,7 +33158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>689</v>
       </c>
@@ -33198,7 +33199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>690</v>
       </c>
@@ -33239,7 +33240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>691</v>
       </c>
@@ -33280,7 +33281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>692</v>
       </c>
@@ -33318,7 +33319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>693</v>
       </c>
@@ -33356,7 +33357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>694</v>
       </c>
@@ -33397,7 +33398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>695</v>
       </c>
@@ -33438,7 +33439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>696</v>
       </c>
@@ -33479,7 +33480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>697</v>
       </c>
@@ -33520,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>698</v>
       </c>
@@ -33561,7 +33562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>699</v>
       </c>
@@ -33602,7 +33603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>700</v>
       </c>
@@ -33640,7 +33641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>701</v>
       </c>
@@ -33681,7 +33682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>702</v>
       </c>
@@ -33722,7 +33723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>703</v>
       </c>
@@ -33763,7 +33764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>704</v>
       </c>
@@ -33801,7 +33802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>705</v>
       </c>
@@ -33839,7 +33840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>706</v>
       </c>
@@ -33877,7 +33878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>707</v>
       </c>
@@ -33918,7 +33919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>708</v>
       </c>
@@ -33959,7 +33960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>709</v>
       </c>
@@ -34000,7 +34001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>710</v>
       </c>
@@ -34041,7 +34042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>710</v>
       </c>
@@ -34082,7 +34083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>710</v>
       </c>
@@ -34123,7 +34124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>710</v>
       </c>
@@ -34164,7 +34165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>711</v>
       </c>
@@ -34205,7 +34206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>711</v>
       </c>
@@ -34246,7 +34247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>711</v>
       </c>
@@ -34287,7 +34288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>711</v>
       </c>
@@ -34328,7 +34329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>712</v>
       </c>
@@ -34366,7 +34367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>713</v>
       </c>
@@ -34404,7 +34405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>714</v>
       </c>
@@ -34445,7 +34446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>715</v>
       </c>
@@ -34486,7 +34487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>716</v>
       </c>
@@ -34524,7 +34525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>717</v>
       </c>
@@ -34565,7 +34566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>718</v>
       </c>
@@ -34606,7 +34607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>719</v>
       </c>
@@ -34647,7 +34648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>719</v>
       </c>
@@ -34688,7 +34689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>720</v>
       </c>
@@ -34729,7 +34730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>720</v>
       </c>
@@ -34770,7 +34771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>721</v>
       </c>
@@ -34811,7 +34812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>722</v>
       </c>
@@ -34852,7 +34853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>723</v>
       </c>
@@ -34893,7 +34894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>724</v>
       </c>
@@ -34934,7 +34935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>725</v>
       </c>
@@ -34972,7 +34973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>726</v>
       </c>
@@ -35010,7 +35011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>727</v>
       </c>
@@ -35048,7 +35049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>728</v>
       </c>
@@ -35086,7 +35087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>729</v>
       </c>
@@ -35124,7 +35125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>730</v>
       </c>
@@ -35162,7 +35163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>731</v>
       </c>
@@ -35203,7 +35204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>732</v>
       </c>
@@ -35244,7 +35245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>733</v>
       </c>
@@ -35285,7 +35286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>734</v>
       </c>
@@ -35323,7 +35324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>735</v>
       </c>
@@ -35361,7 +35362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>736</v>
       </c>
@@ -35399,7 +35400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>737</v>
       </c>
@@ -35440,7 +35441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>738</v>
       </c>
@@ -35481,7 +35482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>739</v>
       </c>
@@ -35519,7 +35520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>740</v>
       </c>
@@ -35560,7 +35561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>741</v>
       </c>
@@ -35601,7 +35602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>741</v>
       </c>
@@ -35642,7 +35643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>741</v>
       </c>
@@ -35683,7 +35684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>742</v>
       </c>
@@ -35724,7 +35725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>743</v>
       </c>
@@ -35765,7 +35766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>744</v>
       </c>
@@ -35803,7 +35804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>745</v>
       </c>
@@ -35841,7 +35842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>745</v>
       </c>
@@ -35879,7 +35880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>746</v>
       </c>
@@ -35917,7 +35918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>746</v>
       </c>
@@ -35955,7 +35956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>747</v>
       </c>
@@ -35996,7 +35997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>748</v>
       </c>
@@ -36037,7 +36038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>749</v>
       </c>
@@ -36075,7 +36076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>750</v>
       </c>
@@ -36113,7 +36114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>751</v>
       </c>
@@ -36154,7 +36155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>752</v>
       </c>
@@ -36195,7 +36196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>753</v>
       </c>
@@ -36233,7 +36234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>754</v>
       </c>
@@ -36271,7 +36272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>755</v>
       </c>
@@ -36312,7 +36313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>756</v>
       </c>
@@ -36353,7 +36354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>757</v>
       </c>
@@ -36394,7 +36395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>758</v>
       </c>
@@ -36435,7 +36436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>759</v>
       </c>
@@ -36476,7 +36477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>760</v>
       </c>
@@ -36517,7 +36518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>761</v>
       </c>
@@ -36555,7 +36556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>762</v>
       </c>
@@ -36593,7 +36594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>763</v>
       </c>
@@ -36631,7 +36632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>764</v>
       </c>
@@ -36669,7 +36670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>765</v>
       </c>
@@ -36710,7 +36711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>766</v>
       </c>
@@ -36748,7 +36749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>767</v>
       </c>
@@ -36789,7 +36790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>768</v>
       </c>
@@ -36830,7 +36831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>769</v>
       </c>
@@ -36871,7 +36872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>770</v>
       </c>
@@ -36912,7 +36913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>771</v>
       </c>
@@ -36950,7 +36951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>772</v>
       </c>
@@ -36988,7 +36989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>773</v>
       </c>
@@ -37026,7 +37027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>774</v>
       </c>
@@ -37067,7 +37068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>774</v>
       </c>
@@ -37108,7 +37109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>775</v>
       </c>
@@ -37146,7 +37147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>776</v>
       </c>
@@ -37187,7 +37188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>777</v>
       </c>
@@ -37228,7 +37229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>778</v>
       </c>
@@ -37269,7 +37270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>779</v>
       </c>
@@ -37310,7 +37311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>780</v>
       </c>
@@ -37351,7 +37352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>781</v>
       </c>
@@ -37392,7 +37393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>782</v>
       </c>
@@ -37430,7 +37431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>783</v>
       </c>
@@ -37471,7 +37472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>784</v>
       </c>
@@ -37512,7 +37513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>785</v>
       </c>
@@ -37553,7 +37554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>786</v>
       </c>
@@ -37594,7 +37595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>787</v>
       </c>
@@ -37635,7 +37636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>788</v>
       </c>
@@ -37676,7 +37677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>789</v>
       </c>
@@ -37714,7 +37715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>790</v>
       </c>
@@ -37752,7 +37753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>791</v>
       </c>
@@ -37793,7 +37794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>792</v>
       </c>
@@ -37834,7 +37835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>793</v>
       </c>
@@ -37875,7 +37876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>794</v>
       </c>
@@ -37916,7 +37917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>795</v>
       </c>
@@ -37957,7 +37958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>796</v>
       </c>
@@ -37995,7 +37996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>797</v>
       </c>
@@ -38036,7 +38037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>798</v>
       </c>
@@ -38077,7 +38078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>799</v>
       </c>
@@ -38118,7 +38119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>800</v>
       </c>
@@ -38156,7 +38157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>800</v>
       </c>
@@ -38197,7 +38198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>800</v>
       </c>
@@ -38238,7 +38239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>800</v>
       </c>
@@ -38279,7 +38280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>801</v>
       </c>
@@ -38320,7 +38321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>802</v>
       </c>
@@ -38361,7 +38362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>803</v>
       </c>
@@ -38399,7 +38400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>804</v>
       </c>
@@ -38440,7 +38441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>805</v>
       </c>
@@ -38481,7 +38482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>806</v>
       </c>
@@ -38522,7 +38523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>807</v>
       </c>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -420,7 +420,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>generation</t>
+          <t>Generation</t>
         </is>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1076"/>
+  <dimension ref="A1:M1191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33167,7 +33167,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Black Kyurem</t>
+          <t>White Kyurem</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -33187,16 +33187,16 @@
         <v>125</v>
       </c>
       <c r="H670">
+        <v>120</v>
+      </c>
+      <c r="I670">
+        <v>90</v>
+      </c>
+      <c r="J670">
         <v>170</v>
       </c>
-      <c r="I670">
+      <c r="K670">
         <v>100</v>
-      </c>
-      <c r="J670">
-        <v>120</v>
-      </c>
-      <c r="K670">
-        <v>90</v>
       </c>
       <c r="L670">
         <v>95</v>
@@ -33216,7 +33216,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>White Kyurem</t>
+          <t>Black Kyurem</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -33236,16 +33236,16 @@
         <v>125</v>
       </c>
       <c r="H671">
+        <v>170</v>
+      </c>
+      <c r="I671">
+        <v>100</v>
+      </c>
+      <c r="J671">
         <v>120</v>
       </c>
-      <c r="I671">
+      <c r="K671">
         <v>90</v>
-      </c>
-      <c r="J671">
-        <v>170</v>
-      </c>
-      <c r="K671">
-        <v>100</v>
       </c>
       <c r="L671">
         <v>95</v>
@@ -47627,12 +47627,12 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
           <t>Dragon</t>
-        </is>
-      </c>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>Steel</t>
         </is>
       </c>
       <c r="F965">
@@ -47676,12 +47676,12 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
           <t>Dragon</t>
-        </is>
-      </c>
-      <c r="E966" t="inlineStr">
-        <is>
-          <t>Steel</t>
         </is>
       </c>
       <c r="F966">
@@ -49729,7 +49729,7 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>Low Key Form</t>
+          <t>Amped Form</t>
         </is>
       </c>
       <c r="D1008" t="inlineStr">
@@ -49778,7 +49778,7 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>Amped Form</t>
+          <t>Low Key Form</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
@@ -51836,7 +51836,7 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>Crowned Sword</t>
+          <t>Hero of Many Battles</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
@@ -51846,17 +51846,17 @@
       </c>
       <c r="E1051" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1051">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="G1051">
         <v>92</v>
       </c>
       <c r="H1051">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="I1051">
         <v>115</v>
@@ -51868,7 +51868,7 @@
         <v>115</v>
       </c>
       <c r="L1051">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M1051">
         <v>8</v>
@@ -51885,7 +51885,7 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>Hero of Many Battles</t>
+          <t>Crowned Sword</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
@@ -51895,17 +51895,17 @@
       </c>
       <c r="E1052" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1052">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="G1052">
         <v>92</v>
       </c>
       <c r="H1052">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="I1052">
         <v>115</v>
@@ -51917,7 +51917,7 @@
         <v>115</v>
       </c>
       <c r="L1052">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M1052">
         <v>8</v>
@@ -51934,7 +51934,7 @@
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>Crowned Shield</t>
+          <t>Hero of Many Battles</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr">
@@ -51944,11 +51944,11 @@
       </c>
       <c r="E1053" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1053">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="G1053">
         <v>92</v>
@@ -51957,16 +51957,16 @@
         <v>130</v>
       </c>
       <c r="I1053">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="J1053">
         <v>80</v>
       </c>
       <c r="K1053">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="L1053">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M1053">
         <v>8</v>
@@ -51983,7 +51983,7 @@
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>Hero of Many Battles</t>
+          <t>Crowned Shield</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr">
@@ -51993,11 +51993,11 @@
       </c>
       <c r="E1054" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1054">
-        <v>670</v>
+        <v>720</v>
       </c>
       <c r="G1054">
         <v>92</v>
@@ -52006,16 +52006,16 @@
         <v>130</v>
       </c>
       <c r="I1054">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J1054">
         <v>80</v>
       </c>
       <c r="K1054">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="L1054">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M1054">
         <v>8</v>
@@ -52772,12 +52772,12 @@
       </c>
       <c r="D1070" t="inlineStr">
         <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
           <t>Normal</t>
-        </is>
-      </c>
-      <c r="E1070" t="inlineStr">
-        <is>
-          <t>Ground</t>
         </is>
       </c>
       <c r="F1070">
@@ -53097,6 +53097,5641 @@
       </c>
       <c r="M1076">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077">
+        <v>128</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Tauros</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Paldean Tauros</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1077">
+        <v>490</v>
+      </c>
+      <c r="G1077">
+        <v>75</v>
+      </c>
+      <c r="H1077">
+        <v>110</v>
+      </c>
+      <c r="I1077">
+        <v>105</v>
+      </c>
+      <c r="J1077">
+        <v>30</v>
+      </c>
+      <c r="K1077">
+        <v>70</v>
+      </c>
+      <c r="L1077">
+        <v>100</v>
+      </c>
+      <c r="M1077">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078">
+        <v>128</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Tauros</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Paldean Fire Tauros</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="F1078">
+        <v>490</v>
+      </c>
+      <c r="G1078">
+        <v>75</v>
+      </c>
+      <c r="H1078">
+        <v>110</v>
+      </c>
+      <c r="I1078">
+        <v>105</v>
+      </c>
+      <c r="J1078">
+        <v>30</v>
+      </c>
+      <c r="K1078">
+        <v>70</v>
+      </c>
+      <c r="L1078">
+        <v>100</v>
+      </c>
+      <c r="M1078">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079">
+        <v>128</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Tauros</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Paldean Water Tauros</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F1079">
+        <v>490</v>
+      </c>
+      <c r="G1079">
+        <v>75</v>
+      </c>
+      <c r="H1079">
+        <v>110</v>
+      </c>
+      <c r="I1079">
+        <v>105</v>
+      </c>
+      <c r="J1079">
+        <v>30</v>
+      </c>
+      <c r="K1079">
+        <v>70</v>
+      </c>
+      <c r="L1079">
+        <v>100</v>
+      </c>
+      <c r="M1079">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080">
+        <v>194</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Wooper</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>Paldean Wooper</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="F1080">
+        <v>210</v>
+      </c>
+      <c r="G1080">
+        <v>55</v>
+      </c>
+      <c r="H1080">
+        <v>45</v>
+      </c>
+      <c r="I1080">
+        <v>45</v>
+      </c>
+      <c r="J1080">
+        <v>25</v>
+      </c>
+      <c r="K1080">
+        <v>25</v>
+      </c>
+      <c r="L1080">
+        <v>15</v>
+      </c>
+      <c r="M1080">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081">
+        <v>906</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Sprigatito</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1081">
+        <v>310</v>
+      </c>
+      <c r="G1081">
+        <v>40</v>
+      </c>
+      <c r="H1081">
+        <v>61</v>
+      </c>
+      <c r="I1081">
+        <v>54</v>
+      </c>
+      <c r="J1081">
+        <v>45</v>
+      </c>
+      <c r="K1081">
+        <v>45</v>
+      </c>
+      <c r="L1081">
+        <v>65</v>
+      </c>
+      <c r="M1081">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082">
+        <v>907</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Floragato</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1082">
+        <v>410</v>
+      </c>
+      <c r="G1082">
+        <v>61</v>
+      </c>
+      <c r="H1082">
+        <v>80</v>
+      </c>
+      <c r="I1082">
+        <v>63</v>
+      </c>
+      <c r="J1082">
+        <v>60</v>
+      </c>
+      <c r="K1082">
+        <v>63</v>
+      </c>
+      <c r="L1082">
+        <v>83</v>
+      </c>
+      <c r="M1082">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083">
+        <v>908</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Meowscarada</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="F1083">
+        <v>530</v>
+      </c>
+      <c r="G1083">
+        <v>76</v>
+      </c>
+      <c r="H1083">
+        <v>110</v>
+      </c>
+      <c r="I1083">
+        <v>70</v>
+      </c>
+      <c r="J1083">
+        <v>81</v>
+      </c>
+      <c r="K1083">
+        <v>70</v>
+      </c>
+      <c r="L1083">
+        <v>123</v>
+      </c>
+      <c r="M1083">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084">
+        <v>909</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Fuecoco</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1084">
+        <v>310</v>
+      </c>
+      <c r="G1084">
+        <v>67</v>
+      </c>
+      <c r="H1084">
+        <v>45</v>
+      </c>
+      <c r="I1084">
+        <v>59</v>
+      </c>
+      <c r="J1084">
+        <v>63</v>
+      </c>
+      <c r="K1084">
+        <v>40</v>
+      </c>
+      <c r="L1084">
+        <v>36</v>
+      </c>
+      <c r="M1084">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085">
+        <v>910</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Crocalor</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1085">
+        <v>411</v>
+      </c>
+      <c r="G1085">
+        <v>81</v>
+      </c>
+      <c r="H1085">
+        <v>55</v>
+      </c>
+      <c r="I1085">
+        <v>78</v>
+      </c>
+      <c r="J1085">
+        <v>90</v>
+      </c>
+      <c r="K1085">
+        <v>58</v>
+      </c>
+      <c r="L1085">
+        <v>49</v>
+      </c>
+      <c r="M1085">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086">
+        <v>911</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Skeledirge</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1086">
+        <v>530</v>
+      </c>
+      <c r="G1086">
+        <v>104</v>
+      </c>
+      <c r="H1086">
+        <v>75</v>
+      </c>
+      <c r="I1086">
+        <v>100</v>
+      </c>
+      <c r="J1086">
+        <v>110</v>
+      </c>
+      <c r="K1086">
+        <v>75</v>
+      </c>
+      <c r="L1086">
+        <v>66</v>
+      </c>
+      <c r="M1086">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087">
+        <v>912</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Quaxly</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1087">
+        <v>310</v>
+      </c>
+      <c r="G1087">
+        <v>55</v>
+      </c>
+      <c r="H1087">
+        <v>65</v>
+      </c>
+      <c r="I1087">
+        <v>45</v>
+      </c>
+      <c r="J1087">
+        <v>50</v>
+      </c>
+      <c r="K1087">
+        <v>45</v>
+      </c>
+      <c r="L1087">
+        <v>50</v>
+      </c>
+      <c r="M1087">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088">
+        <v>913</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Quaxwell</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1088">
+        <v>410</v>
+      </c>
+      <c r="G1088">
+        <v>70</v>
+      </c>
+      <c r="H1088">
+        <v>85</v>
+      </c>
+      <c r="I1088">
+        <v>65</v>
+      </c>
+      <c r="J1088">
+        <v>65</v>
+      </c>
+      <c r="K1088">
+        <v>60</v>
+      </c>
+      <c r="L1088">
+        <v>65</v>
+      </c>
+      <c r="M1088">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089">
+        <v>914</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Quaquaval</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1089">
+        <v>530</v>
+      </c>
+      <c r="G1089">
+        <v>85</v>
+      </c>
+      <c r="H1089">
+        <v>120</v>
+      </c>
+      <c r="I1089">
+        <v>80</v>
+      </c>
+      <c r="J1089">
+        <v>85</v>
+      </c>
+      <c r="K1089">
+        <v>75</v>
+      </c>
+      <c r="L1089">
+        <v>85</v>
+      </c>
+      <c r="M1089">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090">
+        <v>915</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Lechonk</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1090">
+        <v>254</v>
+      </c>
+      <c r="G1090">
+        <v>54</v>
+      </c>
+      <c r="H1090">
+        <v>45</v>
+      </c>
+      <c r="I1090">
+        <v>40</v>
+      </c>
+      <c r="J1090">
+        <v>35</v>
+      </c>
+      <c r="K1090">
+        <v>45</v>
+      </c>
+      <c r="L1090">
+        <v>35</v>
+      </c>
+      <c r="M1090">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091">
+        <v>916</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Oinkologne</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1091">
+        <v>489</v>
+      </c>
+      <c r="G1091">
+        <v>110</v>
+      </c>
+      <c r="H1091">
+        <v>100</v>
+      </c>
+      <c r="I1091">
+        <v>75</v>
+      </c>
+      <c r="J1091">
+        <v>59</v>
+      </c>
+      <c r="K1091">
+        <v>80</v>
+      </c>
+      <c r="L1091">
+        <v>65</v>
+      </c>
+      <c r="M1091">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092">
+        <v>916</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Oinkologne</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1092">
+        <v>489</v>
+      </c>
+      <c r="G1092">
+        <v>115</v>
+      </c>
+      <c r="H1092">
+        <v>90</v>
+      </c>
+      <c r="I1092">
+        <v>70</v>
+      </c>
+      <c r="J1092">
+        <v>59</v>
+      </c>
+      <c r="K1092">
+        <v>90</v>
+      </c>
+      <c r="L1092">
+        <v>65</v>
+      </c>
+      <c r="M1092">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093">
+        <v>917</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Dudunsparce</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Two-Segment Form</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1093">
+        <v>520</v>
+      </c>
+      <c r="G1093">
+        <v>125</v>
+      </c>
+      <c r="H1093">
+        <v>100</v>
+      </c>
+      <c r="I1093">
+        <v>80</v>
+      </c>
+      <c r="J1093">
+        <v>85</v>
+      </c>
+      <c r="K1093">
+        <v>75</v>
+      </c>
+      <c r="L1093">
+        <v>55</v>
+      </c>
+      <c r="M1093">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094">
+        <v>917</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Dudunsparce</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Three-Segment Form</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1094">
+        <v>520</v>
+      </c>
+      <c r="G1094">
+        <v>125</v>
+      </c>
+      <c r="H1094">
+        <v>100</v>
+      </c>
+      <c r="I1094">
+        <v>80</v>
+      </c>
+      <c r="J1094">
+        <v>85</v>
+      </c>
+      <c r="K1094">
+        <v>75</v>
+      </c>
+      <c r="L1094">
+        <v>55</v>
+      </c>
+      <c r="M1094">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095">
+        <v>918</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Tarountula</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1095">
+        <v>210</v>
+      </c>
+      <c r="G1095">
+        <v>35</v>
+      </c>
+      <c r="H1095">
+        <v>41</v>
+      </c>
+      <c r="I1095">
+        <v>45</v>
+      </c>
+      <c r="J1095">
+        <v>29</v>
+      </c>
+      <c r="K1095">
+        <v>40</v>
+      </c>
+      <c r="L1095">
+        <v>20</v>
+      </c>
+      <c r="M1095">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096">
+        <v>919</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Spidops</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1096">
+        <v>404</v>
+      </c>
+      <c r="G1096">
+        <v>60</v>
+      </c>
+      <c r="H1096">
+        <v>79</v>
+      </c>
+      <c r="I1096">
+        <v>92</v>
+      </c>
+      <c r="J1096">
+        <v>52</v>
+      </c>
+      <c r="K1096">
+        <v>86</v>
+      </c>
+      <c r="L1096">
+        <v>35</v>
+      </c>
+      <c r="M1096">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097">
+        <v>920</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Nymble</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1097">
+        <v>210</v>
+      </c>
+      <c r="G1097">
+        <v>33</v>
+      </c>
+      <c r="H1097">
+        <v>46</v>
+      </c>
+      <c r="I1097">
+        <v>40</v>
+      </c>
+      <c r="J1097">
+        <v>21</v>
+      </c>
+      <c r="K1097">
+        <v>25</v>
+      </c>
+      <c r="L1097">
+        <v>45</v>
+      </c>
+      <c r="M1097">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098">
+        <v>921</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Lokix</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="F1098">
+        <v>450</v>
+      </c>
+      <c r="G1098">
+        <v>71</v>
+      </c>
+      <c r="H1098">
+        <v>102</v>
+      </c>
+      <c r="I1098">
+        <v>78</v>
+      </c>
+      <c r="J1098">
+        <v>52</v>
+      </c>
+      <c r="K1098">
+        <v>55</v>
+      </c>
+      <c r="L1098">
+        <v>92</v>
+      </c>
+      <c r="M1098">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099">
+        <v>922</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Rellor</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1099">
+        <v>270</v>
+      </c>
+      <c r="G1099">
+        <v>41</v>
+      </c>
+      <c r="H1099">
+        <v>50</v>
+      </c>
+      <c r="I1099">
+        <v>60</v>
+      </c>
+      <c r="J1099">
+        <v>31</v>
+      </c>
+      <c r="K1099">
+        <v>58</v>
+      </c>
+      <c r="L1099">
+        <v>30</v>
+      </c>
+      <c r="M1099">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100">
+        <v>923</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Rabsca</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1100">
+        <v>470</v>
+      </c>
+      <c r="G1100">
+        <v>75</v>
+      </c>
+      <c r="H1100">
+        <v>50</v>
+      </c>
+      <c r="I1100">
+        <v>85</v>
+      </c>
+      <c r="J1100">
+        <v>115</v>
+      </c>
+      <c r="K1100">
+        <v>100</v>
+      </c>
+      <c r="L1100">
+        <v>45</v>
+      </c>
+      <c r="M1100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101">
+        <v>924</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Greavard</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1101">
+        <v>290</v>
+      </c>
+      <c r="G1101">
+        <v>50</v>
+      </c>
+      <c r="H1101">
+        <v>61</v>
+      </c>
+      <c r="I1101">
+        <v>60</v>
+      </c>
+      <c r="J1101">
+        <v>30</v>
+      </c>
+      <c r="K1101">
+        <v>55</v>
+      </c>
+      <c r="L1101">
+        <v>34</v>
+      </c>
+      <c r="M1101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102">
+        <v>925</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Houndstone</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1102">
+        <v>488</v>
+      </c>
+      <c r="G1102">
+        <v>72</v>
+      </c>
+      <c r="H1102">
+        <v>101</v>
+      </c>
+      <c r="I1102">
+        <v>100</v>
+      </c>
+      <c r="J1102">
+        <v>50</v>
+      </c>
+      <c r="K1102">
+        <v>97</v>
+      </c>
+      <c r="L1102">
+        <v>68</v>
+      </c>
+      <c r="M1102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103">
+        <v>926</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Flittle</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1103">
+        <v>255</v>
+      </c>
+      <c r="G1103">
+        <v>30</v>
+      </c>
+      <c r="H1103">
+        <v>35</v>
+      </c>
+      <c r="I1103">
+        <v>30</v>
+      </c>
+      <c r="J1103">
+        <v>55</v>
+      </c>
+      <c r="K1103">
+        <v>30</v>
+      </c>
+      <c r="L1103">
+        <v>75</v>
+      </c>
+      <c r="M1103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104">
+        <v>927</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Espathra</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1104">
+        <v>481</v>
+      </c>
+      <c r="G1104">
+        <v>95</v>
+      </c>
+      <c r="H1104">
+        <v>60</v>
+      </c>
+      <c r="I1104">
+        <v>60</v>
+      </c>
+      <c r="J1104">
+        <v>101</v>
+      </c>
+      <c r="K1104">
+        <v>60</v>
+      </c>
+      <c r="L1104">
+        <v>105</v>
+      </c>
+      <c r="M1104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105">
+        <v>928</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Farigiraf</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1105">
+        <v>520</v>
+      </c>
+      <c r="G1105">
+        <v>120</v>
+      </c>
+      <c r="H1105">
+        <v>90</v>
+      </c>
+      <c r="I1105">
+        <v>70</v>
+      </c>
+      <c r="J1105">
+        <v>110</v>
+      </c>
+      <c r="K1105">
+        <v>70</v>
+      </c>
+      <c r="L1105">
+        <v>60</v>
+      </c>
+      <c r="M1105">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106">
+        <v>929</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Wiglett</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1106">
+        <v>245</v>
+      </c>
+      <c r="G1106">
+        <v>10</v>
+      </c>
+      <c r="H1106">
+        <v>55</v>
+      </c>
+      <c r="I1106">
+        <v>25</v>
+      </c>
+      <c r="J1106">
+        <v>35</v>
+      </c>
+      <c r="K1106">
+        <v>25</v>
+      </c>
+      <c r="L1106">
+        <v>95</v>
+      </c>
+      <c r="M1106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107">
+        <v>930</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Wugtrio</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1107">
+        <v>425</v>
+      </c>
+      <c r="G1107">
+        <v>35</v>
+      </c>
+      <c r="H1107">
+        <v>100</v>
+      </c>
+      <c r="I1107">
+        <v>50</v>
+      </c>
+      <c r="J1107">
+        <v>50</v>
+      </c>
+      <c r="K1107">
+        <v>70</v>
+      </c>
+      <c r="L1107">
+        <v>120</v>
+      </c>
+      <c r="M1107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108">
+        <v>931</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Dondozo</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1108">
+        <v>530</v>
+      </c>
+      <c r="G1108">
+        <v>150</v>
+      </c>
+      <c r="H1108">
+        <v>100</v>
+      </c>
+      <c r="I1108">
+        <v>115</v>
+      </c>
+      <c r="J1108">
+        <v>65</v>
+      </c>
+      <c r="K1108">
+        <v>65</v>
+      </c>
+      <c r="L1108">
+        <v>35</v>
+      </c>
+      <c r="M1108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109">
+        <v>932</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Veluza</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1109">
+        <v>478</v>
+      </c>
+      <c r="G1109">
+        <v>90</v>
+      </c>
+      <c r="H1109">
+        <v>102</v>
+      </c>
+      <c r="I1109">
+        <v>73</v>
+      </c>
+      <c r="J1109">
+        <v>78</v>
+      </c>
+      <c r="K1109">
+        <v>65</v>
+      </c>
+      <c r="L1109">
+        <v>70</v>
+      </c>
+      <c r="M1109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110">
+        <v>933</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Finizen</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1110">
+        <v>315</v>
+      </c>
+      <c r="G1110">
+        <v>70</v>
+      </c>
+      <c r="H1110">
+        <v>45</v>
+      </c>
+      <c r="I1110">
+        <v>40</v>
+      </c>
+      <c r="J1110">
+        <v>45</v>
+      </c>
+      <c r="K1110">
+        <v>40</v>
+      </c>
+      <c r="L1110">
+        <v>75</v>
+      </c>
+      <c r="M1110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111">
+        <v>934</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Zero Form</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1111">
+        <v>457</v>
+      </c>
+      <c r="G1111">
+        <v>100</v>
+      </c>
+      <c r="H1111">
+        <v>70</v>
+      </c>
+      <c r="I1111">
+        <v>72</v>
+      </c>
+      <c r="J1111">
+        <v>53</v>
+      </c>
+      <c r="K1111">
+        <v>62</v>
+      </c>
+      <c r="L1111">
+        <v>100</v>
+      </c>
+      <c r="M1111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112">
+        <v>934</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Hero Form</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1112">
+        <v>650</v>
+      </c>
+      <c r="G1112">
+        <v>100</v>
+      </c>
+      <c r="H1112">
+        <v>160</v>
+      </c>
+      <c r="I1112">
+        <v>97</v>
+      </c>
+      <c r="J1112">
+        <v>106</v>
+      </c>
+      <c r="K1112">
+        <v>87</v>
+      </c>
+      <c r="L1112">
+        <v>100</v>
+      </c>
+      <c r="M1112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113">
+        <v>935</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Smoliv</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F1113">
+        <v>260</v>
+      </c>
+      <c r="G1113">
+        <v>41</v>
+      </c>
+      <c r="H1113">
+        <v>35</v>
+      </c>
+      <c r="I1113">
+        <v>45</v>
+      </c>
+      <c r="J1113">
+        <v>58</v>
+      </c>
+      <c r="K1113">
+        <v>51</v>
+      </c>
+      <c r="L1113">
+        <v>30</v>
+      </c>
+      <c r="M1113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114">
+        <v>936</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Dolliv</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F1114">
+        <v>354</v>
+      </c>
+      <c r="G1114">
+        <v>52</v>
+      </c>
+      <c r="H1114">
+        <v>53</v>
+      </c>
+      <c r="I1114">
+        <v>60</v>
+      </c>
+      <c r="J1114">
+        <v>78</v>
+      </c>
+      <c r="K1114">
+        <v>78</v>
+      </c>
+      <c r="L1114">
+        <v>33</v>
+      </c>
+      <c r="M1114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115">
+        <v>937</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Arboliva</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F1115">
+        <v>510</v>
+      </c>
+      <c r="G1115">
+        <v>78</v>
+      </c>
+      <c r="H1115">
+        <v>69</v>
+      </c>
+      <c r="I1115">
+        <v>90</v>
+      </c>
+      <c r="J1115">
+        <v>125</v>
+      </c>
+      <c r="K1115">
+        <v>109</v>
+      </c>
+      <c r="L1115">
+        <v>39</v>
+      </c>
+      <c r="M1115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116">
+        <v>938</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Capsakid</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1116">
+        <v>304</v>
+      </c>
+      <c r="G1116">
+        <v>50</v>
+      </c>
+      <c r="H1116">
+        <v>62</v>
+      </c>
+      <c r="I1116">
+        <v>40</v>
+      </c>
+      <c r="J1116">
+        <v>62</v>
+      </c>
+      <c r="K1116">
+        <v>40</v>
+      </c>
+      <c r="L1116">
+        <v>50</v>
+      </c>
+      <c r="M1116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117">
+        <v>939</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Scovillain</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="F1117">
+        <v>486</v>
+      </c>
+      <c r="G1117">
+        <v>65</v>
+      </c>
+      <c r="H1117">
+        <v>108</v>
+      </c>
+      <c r="I1117">
+        <v>65</v>
+      </c>
+      <c r="J1117">
+        <v>108</v>
+      </c>
+      <c r="K1117">
+        <v>65</v>
+      </c>
+      <c r="L1117">
+        <v>75</v>
+      </c>
+      <c r="M1117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118">
+        <v>940</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Tadbulb</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1118">
+        <v>272</v>
+      </c>
+      <c r="G1118">
+        <v>61</v>
+      </c>
+      <c r="H1118">
+        <v>31</v>
+      </c>
+      <c r="I1118">
+        <v>41</v>
+      </c>
+      <c r="J1118">
+        <v>59</v>
+      </c>
+      <c r="K1118">
+        <v>35</v>
+      </c>
+      <c r="L1118">
+        <v>45</v>
+      </c>
+      <c r="M1118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119">
+        <v>941</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Bellibolt</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1119">
+        <v>495</v>
+      </c>
+      <c r="G1119">
+        <v>109</v>
+      </c>
+      <c r="H1119">
+        <v>64</v>
+      </c>
+      <c r="I1119">
+        <v>91</v>
+      </c>
+      <c r="J1119">
+        <v>103</v>
+      </c>
+      <c r="K1119">
+        <v>83</v>
+      </c>
+      <c r="L1119">
+        <v>45</v>
+      </c>
+      <c r="M1119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120">
+        <v>942</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Varoom</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="F1120">
+        <v>300</v>
+      </c>
+      <c r="G1120">
+        <v>45</v>
+      </c>
+      <c r="H1120">
+        <v>70</v>
+      </c>
+      <c r="I1120">
+        <v>63</v>
+      </c>
+      <c r="J1120">
+        <v>30</v>
+      </c>
+      <c r="K1120">
+        <v>45</v>
+      </c>
+      <c r="L1120">
+        <v>47</v>
+      </c>
+      <c r="M1120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121">
+        <v>943</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Revavroom</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="F1121">
+        <v>500</v>
+      </c>
+      <c r="G1121">
+        <v>80</v>
+      </c>
+      <c r="H1121">
+        <v>119</v>
+      </c>
+      <c r="I1121">
+        <v>90</v>
+      </c>
+      <c r="J1121">
+        <v>54</v>
+      </c>
+      <c r="K1121">
+        <v>67</v>
+      </c>
+      <c r="L1121">
+        <v>90</v>
+      </c>
+      <c r="M1121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122">
+        <v>944</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Orthworm</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1122">
+        <v>480</v>
+      </c>
+      <c r="G1122">
+        <v>70</v>
+      </c>
+      <c r="H1122">
+        <v>85</v>
+      </c>
+      <c r="I1122">
+        <v>145</v>
+      </c>
+      <c r="J1122">
+        <v>60</v>
+      </c>
+      <c r="K1122">
+        <v>55</v>
+      </c>
+      <c r="L1122">
+        <v>65</v>
+      </c>
+      <c r="M1122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123">
+        <v>945</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Tandemaus</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1123">
+        <v>305</v>
+      </c>
+      <c r="G1123">
+        <v>50</v>
+      </c>
+      <c r="H1123">
+        <v>50</v>
+      </c>
+      <c r="I1123">
+        <v>45</v>
+      </c>
+      <c r="J1123">
+        <v>40</v>
+      </c>
+      <c r="K1123">
+        <v>45</v>
+      </c>
+      <c r="L1123">
+        <v>75</v>
+      </c>
+      <c r="M1123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124">
+        <v>946</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Maushold</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>Family of Three</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1124">
+        <v>470</v>
+      </c>
+      <c r="G1124">
+        <v>74</v>
+      </c>
+      <c r="H1124">
+        <v>75</v>
+      </c>
+      <c r="I1124">
+        <v>70</v>
+      </c>
+      <c r="J1124">
+        <v>65</v>
+      </c>
+      <c r="K1124">
+        <v>75</v>
+      </c>
+      <c r="L1124">
+        <v>111</v>
+      </c>
+      <c r="M1124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125">
+        <v>946</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Maushold</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Family of Four</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1125">
+        <v>470</v>
+      </c>
+      <c r="G1125">
+        <v>74</v>
+      </c>
+      <c r="H1125">
+        <v>75</v>
+      </c>
+      <c r="I1125">
+        <v>70</v>
+      </c>
+      <c r="J1125">
+        <v>65</v>
+      </c>
+      <c r="K1125">
+        <v>75</v>
+      </c>
+      <c r="L1125">
+        <v>111</v>
+      </c>
+      <c r="M1125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126">
+        <v>947</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Cetoddle</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1126">
+        <v>334</v>
+      </c>
+      <c r="G1126">
+        <v>108</v>
+      </c>
+      <c r="H1126">
+        <v>68</v>
+      </c>
+      <c r="I1126">
+        <v>45</v>
+      </c>
+      <c r="J1126">
+        <v>30</v>
+      </c>
+      <c r="K1126">
+        <v>40</v>
+      </c>
+      <c r="L1126">
+        <v>43</v>
+      </c>
+      <c r="M1126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127">
+        <v>948</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Cetitan</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1127">
+        <v>521</v>
+      </c>
+      <c r="G1127">
+        <v>170</v>
+      </c>
+      <c r="H1127">
+        <v>113</v>
+      </c>
+      <c r="I1127">
+        <v>65</v>
+      </c>
+      <c r="J1127">
+        <v>45</v>
+      </c>
+      <c r="K1127">
+        <v>55</v>
+      </c>
+      <c r="L1127">
+        <v>73</v>
+      </c>
+      <c r="M1127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128">
+        <v>949</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Frigibax</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="F1128">
+        <v>320</v>
+      </c>
+      <c r="G1128">
+        <v>65</v>
+      </c>
+      <c r="H1128">
+        <v>75</v>
+      </c>
+      <c r="I1128">
+        <v>45</v>
+      </c>
+      <c r="J1128">
+        <v>35</v>
+      </c>
+      <c r="K1128">
+        <v>45</v>
+      </c>
+      <c r="L1128">
+        <v>55</v>
+      </c>
+      <c r="M1128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129">
+        <v>950</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Arctibax</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="F1129">
+        <v>423</v>
+      </c>
+      <c r="G1129">
+        <v>90</v>
+      </c>
+      <c r="H1129">
+        <v>95</v>
+      </c>
+      <c r="I1129">
+        <v>66</v>
+      </c>
+      <c r="J1129">
+        <v>45</v>
+      </c>
+      <c r="K1129">
+        <v>65</v>
+      </c>
+      <c r="L1129">
+        <v>62</v>
+      </c>
+      <c r="M1129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130">
+        <v>951</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="F1130">
+        <v>600</v>
+      </c>
+      <c r="G1130">
+        <v>115</v>
+      </c>
+      <c r="H1130">
+        <v>145</v>
+      </c>
+      <c r="I1130">
+        <v>92</v>
+      </c>
+      <c r="J1130">
+        <v>75</v>
+      </c>
+      <c r="K1130">
+        <v>86</v>
+      </c>
+      <c r="L1130">
+        <v>87</v>
+      </c>
+      <c r="M1130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131">
+        <v>952</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F1131">
+        <v>475</v>
+      </c>
+      <c r="G1131">
+        <v>68</v>
+      </c>
+      <c r="H1131">
+        <v>50</v>
+      </c>
+      <c r="I1131">
+        <v>60</v>
+      </c>
+      <c r="J1131">
+        <v>120</v>
+      </c>
+      <c r="K1131">
+        <v>95</v>
+      </c>
+      <c r="L1131">
+        <v>82</v>
+      </c>
+      <c r="M1131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132">
+        <v>953</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Cyclizar</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F1132">
+        <v>501</v>
+      </c>
+      <c r="G1132">
+        <v>70</v>
+      </c>
+      <c r="H1132">
+        <v>95</v>
+      </c>
+      <c r="I1132">
+        <v>65</v>
+      </c>
+      <c r="J1132">
+        <v>85</v>
+      </c>
+      <c r="K1132">
+        <v>65</v>
+      </c>
+      <c r="L1132">
+        <v>121</v>
+      </c>
+      <c r="M1132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133">
+        <v>954</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Pawmi</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1133">
+        <v>240</v>
+      </c>
+      <c r="G1133">
+        <v>45</v>
+      </c>
+      <c r="H1133">
+        <v>50</v>
+      </c>
+      <c r="I1133">
+        <v>20</v>
+      </c>
+      <c r="J1133">
+        <v>40</v>
+      </c>
+      <c r="K1133">
+        <v>25</v>
+      </c>
+      <c r="L1133">
+        <v>60</v>
+      </c>
+      <c r="M1133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134">
+        <v>955</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Pawmo</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1134">
+        <v>350</v>
+      </c>
+      <c r="G1134">
+        <v>60</v>
+      </c>
+      <c r="H1134">
+        <v>75</v>
+      </c>
+      <c r="I1134">
+        <v>40</v>
+      </c>
+      <c r="J1134">
+        <v>50</v>
+      </c>
+      <c r="K1134">
+        <v>40</v>
+      </c>
+      <c r="L1134">
+        <v>85</v>
+      </c>
+      <c r="M1134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135">
+        <v>956</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Pawmot</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1135">
+        <v>490</v>
+      </c>
+      <c r="G1135">
+        <v>70</v>
+      </c>
+      <c r="H1135">
+        <v>115</v>
+      </c>
+      <c r="I1135">
+        <v>70</v>
+      </c>
+      <c r="J1135">
+        <v>70</v>
+      </c>
+      <c r="K1135">
+        <v>60</v>
+      </c>
+      <c r="L1135">
+        <v>105</v>
+      </c>
+      <c r="M1135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136">
+        <v>957</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Wattrel</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="F1136">
+        <v>280</v>
+      </c>
+      <c r="G1136">
+        <v>40</v>
+      </c>
+      <c r="H1136">
+        <v>40</v>
+      </c>
+      <c r="I1136">
+        <v>35</v>
+      </c>
+      <c r="J1136">
+        <v>55</v>
+      </c>
+      <c r="K1136">
+        <v>40</v>
+      </c>
+      <c r="L1136">
+        <v>70</v>
+      </c>
+      <c r="M1136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137">
+        <v>958</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Kilowattrel</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="F1137">
+        <v>490</v>
+      </c>
+      <c r="G1137">
+        <v>70</v>
+      </c>
+      <c r="H1137">
+        <v>70</v>
+      </c>
+      <c r="I1137">
+        <v>60</v>
+      </c>
+      <c r="J1137">
+        <v>105</v>
+      </c>
+      <c r="K1137">
+        <v>60</v>
+      </c>
+      <c r="L1137">
+        <v>125</v>
+      </c>
+      <c r="M1137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138">
+        <v>959</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Bombirdier</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="F1138">
+        <v>485</v>
+      </c>
+      <c r="G1138">
+        <v>70</v>
+      </c>
+      <c r="H1138">
+        <v>103</v>
+      </c>
+      <c r="I1138">
+        <v>85</v>
+      </c>
+      <c r="J1138">
+        <v>60</v>
+      </c>
+      <c r="K1138">
+        <v>85</v>
+      </c>
+      <c r="L1138">
+        <v>82</v>
+      </c>
+      <c r="M1138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139">
+        <v>960</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Squawkabilly</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>White Plumage</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="F1139">
+        <v>417</v>
+      </c>
+      <c r="G1139">
+        <v>82</v>
+      </c>
+      <c r="H1139">
+        <v>96</v>
+      </c>
+      <c r="I1139">
+        <v>51</v>
+      </c>
+      <c r="J1139">
+        <v>45</v>
+      </c>
+      <c r="K1139">
+        <v>51</v>
+      </c>
+      <c r="L1139">
+        <v>92</v>
+      </c>
+      <c r="M1139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140">
+        <v>960</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Squawkabilly</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>Yellow Plumage</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="F1140">
+        <v>417</v>
+      </c>
+      <c r="G1140">
+        <v>82</v>
+      </c>
+      <c r="H1140">
+        <v>96</v>
+      </c>
+      <c r="I1140">
+        <v>51</v>
+      </c>
+      <c r="J1140">
+        <v>45</v>
+      </c>
+      <c r="K1140">
+        <v>51</v>
+      </c>
+      <c r="L1140">
+        <v>92</v>
+      </c>
+      <c r="M1140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141">
+        <v>960</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Squawkabilly</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Green Plumage</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="F1141">
+        <v>417</v>
+      </c>
+      <c r="G1141">
+        <v>82</v>
+      </c>
+      <c r="H1141">
+        <v>96</v>
+      </c>
+      <c r="I1141">
+        <v>51</v>
+      </c>
+      <c r="J1141">
+        <v>45</v>
+      </c>
+      <c r="K1141">
+        <v>51</v>
+      </c>
+      <c r="L1141">
+        <v>92</v>
+      </c>
+      <c r="M1141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142">
+        <v>960</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Squawkabilly</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Blue Plumage</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="F1142">
+        <v>417</v>
+      </c>
+      <c r="G1142">
+        <v>82</v>
+      </c>
+      <c r="H1142">
+        <v>96</v>
+      </c>
+      <c r="I1142">
+        <v>51</v>
+      </c>
+      <c r="J1142">
+        <v>45</v>
+      </c>
+      <c r="K1142">
+        <v>51</v>
+      </c>
+      <c r="L1142">
+        <v>92</v>
+      </c>
+      <c r="M1142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143">
+        <v>961</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Flamigo</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1143">
+        <v>500</v>
+      </c>
+      <c r="G1143">
+        <v>82</v>
+      </c>
+      <c r="H1143">
+        <v>115</v>
+      </c>
+      <c r="I1143">
+        <v>74</v>
+      </c>
+      <c r="J1143">
+        <v>75</v>
+      </c>
+      <c r="K1143">
+        <v>64</v>
+      </c>
+      <c r="L1143">
+        <v>90</v>
+      </c>
+      <c r="M1143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144">
+        <v>962</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Klawf</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1144">
+        <v>450</v>
+      </c>
+      <c r="G1144">
+        <v>70</v>
+      </c>
+      <c r="H1144">
+        <v>100</v>
+      </c>
+      <c r="I1144">
+        <v>115</v>
+      </c>
+      <c r="J1144">
+        <v>35</v>
+      </c>
+      <c r="K1144">
+        <v>55</v>
+      </c>
+      <c r="L1144">
+        <v>75</v>
+      </c>
+      <c r="M1144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145">
+        <v>963</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Nacli</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1145">
+        <v>280</v>
+      </c>
+      <c r="G1145">
+        <v>55</v>
+      </c>
+      <c r="H1145">
+        <v>55</v>
+      </c>
+      <c r="I1145">
+        <v>75</v>
+      </c>
+      <c r="J1145">
+        <v>35</v>
+      </c>
+      <c r="K1145">
+        <v>35</v>
+      </c>
+      <c r="L1145">
+        <v>25</v>
+      </c>
+      <c r="M1145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146">
+        <v>964</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Naclstack</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1146">
+        <v>355</v>
+      </c>
+      <c r="G1146">
+        <v>60</v>
+      </c>
+      <c r="H1146">
+        <v>60</v>
+      </c>
+      <c r="I1146">
+        <v>100</v>
+      </c>
+      <c r="J1146">
+        <v>35</v>
+      </c>
+      <c r="K1146">
+        <v>65</v>
+      </c>
+      <c r="L1146">
+        <v>35</v>
+      </c>
+      <c r="M1146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147">
+        <v>965</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Garganacl</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1147">
+        <v>500</v>
+      </c>
+      <c r="G1147">
+        <v>100</v>
+      </c>
+      <c r="H1147">
+        <v>100</v>
+      </c>
+      <c r="I1147">
+        <v>130</v>
+      </c>
+      <c r="J1147">
+        <v>45</v>
+      </c>
+      <c r="K1147">
+        <v>90</v>
+      </c>
+      <c r="L1147">
+        <v>35</v>
+      </c>
+      <c r="M1147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148">
+        <v>966</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Glimmet</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="F1148">
+        <v>350</v>
+      </c>
+      <c r="G1148">
+        <v>48</v>
+      </c>
+      <c r="H1148">
+        <v>35</v>
+      </c>
+      <c r="I1148">
+        <v>42</v>
+      </c>
+      <c r="J1148">
+        <v>105</v>
+      </c>
+      <c r="K1148">
+        <v>60</v>
+      </c>
+      <c r="L1148">
+        <v>60</v>
+      </c>
+      <c r="M1148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149">
+        <v>967</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Glimmora</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="F1149">
+        <v>525</v>
+      </c>
+      <c r="G1149">
+        <v>83</v>
+      </c>
+      <c r="H1149">
+        <v>55</v>
+      </c>
+      <c r="I1149">
+        <v>90</v>
+      </c>
+      <c r="J1149">
+        <v>130</v>
+      </c>
+      <c r="K1149">
+        <v>81</v>
+      </c>
+      <c r="L1149">
+        <v>86</v>
+      </c>
+      <c r="M1149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150">
+        <v>968</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Shroodle</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F1150">
+        <v>290</v>
+      </c>
+      <c r="G1150">
+        <v>40</v>
+      </c>
+      <c r="H1150">
+        <v>65</v>
+      </c>
+      <c r="I1150">
+        <v>35</v>
+      </c>
+      <c r="J1150">
+        <v>40</v>
+      </c>
+      <c r="K1150">
+        <v>35</v>
+      </c>
+      <c r="L1150">
+        <v>75</v>
+      </c>
+      <c r="M1150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151">
+        <v>969</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Grafaiai</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="F1151">
+        <v>485</v>
+      </c>
+      <c r="G1151">
+        <v>63</v>
+      </c>
+      <c r="H1151">
+        <v>95</v>
+      </c>
+      <c r="I1151">
+        <v>65</v>
+      </c>
+      <c r="J1151">
+        <v>80</v>
+      </c>
+      <c r="K1151">
+        <v>72</v>
+      </c>
+      <c r="L1151">
+        <v>110</v>
+      </c>
+      <c r="M1151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152">
+        <v>970</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Fidough</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1152">
+        <v>312</v>
+      </c>
+      <c r="G1152">
+        <v>37</v>
+      </c>
+      <c r="H1152">
+        <v>55</v>
+      </c>
+      <c r="I1152">
+        <v>70</v>
+      </c>
+      <c r="J1152">
+        <v>30</v>
+      </c>
+      <c r="K1152">
+        <v>55</v>
+      </c>
+      <c r="L1152">
+        <v>65</v>
+      </c>
+      <c r="M1152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153">
+        <v>971</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Dachsbun</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1153">
+        <v>477</v>
+      </c>
+      <c r="G1153">
+        <v>57</v>
+      </c>
+      <c r="H1153">
+        <v>80</v>
+      </c>
+      <c r="I1153">
+        <v>115</v>
+      </c>
+      <c r="J1153">
+        <v>50</v>
+      </c>
+      <c r="K1153">
+        <v>80</v>
+      </c>
+      <c r="L1153">
+        <v>95</v>
+      </c>
+      <c r="M1153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154">
+        <v>972</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Maschiff</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1154">
+        <v>340</v>
+      </c>
+      <c r="G1154">
+        <v>60</v>
+      </c>
+      <c r="H1154">
+        <v>78</v>
+      </c>
+      <c r="I1154">
+        <v>60</v>
+      </c>
+      <c r="J1154">
+        <v>40</v>
+      </c>
+      <c r="K1154">
+        <v>51</v>
+      </c>
+      <c r="L1154">
+        <v>51</v>
+      </c>
+      <c r="M1154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155">
+        <v>973</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Mabosstiff</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1155">
+        <v>505</v>
+      </c>
+      <c r="G1155">
+        <v>80</v>
+      </c>
+      <c r="H1155">
+        <v>120</v>
+      </c>
+      <c r="I1155">
+        <v>90</v>
+      </c>
+      <c r="J1155">
+        <v>60</v>
+      </c>
+      <c r="K1155">
+        <v>70</v>
+      </c>
+      <c r="L1155">
+        <v>85</v>
+      </c>
+      <c r="M1155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156">
+        <v>974</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Bramblin</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1156">
+        <v>275</v>
+      </c>
+      <c r="G1156">
+        <v>40</v>
+      </c>
+      <c r="H1156">
+        <v>65</v>
+      </c>
+      <c r="I1156">
+        <v>30</v>
+      </c>
+      <c r="J1156">
+        <v>45</v>
+      </c>
+      <c r="K1156">
+        <v>35</v>
+      </c>
+      <c r="L1156">
+        <v>60</v>
+      </c>
+      <c r="M1156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157">
+        <v>975</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Brambleghast</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1157">
+        <v>480</v>
+      </c>
+      <c r="G1157">
+        <v>55</v>
+      </c>
+      <c r="H1157">
+        <v>115</v>
+      </c>
+      <c r="I1157">
+        <v>70</v>
+      </c>
+      <c r="J1157">
+        <v>80</v>
+      </c>
+      <c r="K1157">
+        <v>70</v>
+      </c>
+      <c r="L1157">
+        <v>90</v>
+      </c>
+      <c r="M1157">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158">
+        <v>976</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Gimmighoul</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Chest Form</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1158">
+        <v>300</v>
+      </c>
+      <c r="G1158">
+        <v>45</v>
+      </c>
+      <c r="H1158">
+        <v>30</v>
+      </c>
+      <c r="I1158">
+        <v>70</v>
+      </c>
+      <c r="J1158">
+        <v>75</v>
+      </c>
+      <c r="K1158">
+        <v>70</v>
+      </c>
+      <c r="L1158">
+        <v>10</v>
+      </c>
+      <c r="M1158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159">
+        <v>976</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Gimmighoul</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Roaming Form</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1159">
+        <v>300</v>
+      </c>
+      <c r="G1159">
+        <v>45</v>
+      </c>
+      <c r="H1159">
+        <v>30</v>
+      </c>
+      <c r="I1159">
+        <v>25</v>
+      </c>
+      <c r="J1159">
+        <v>75</v>
+      </c>
+      <c r="K1159">
+        <v>45</v>
+      </c>
+      <c r="L1159">
+        <v>80</v>
+      </c>
+      <c r="M1159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160">
+        <v>977</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Gholdengo</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1160">
+        <v>550</v>
+      </c>
+      <c r="G1160">
+        <v>87</v>
+      </c>
+      <c r="H1160">
+        <v>60</v>
+      </c>
+      <c r="I1160">
+        <v>95</v>
+      </c>
+      <c r="J1160">
+        <v>133</v>
+      </c>
+      <c r="K1160">
+        <v>91</v>
+      </c>
+      <c r="L1160">
+        <v>84</v>
+      </c>
+      <c r="M1160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161">
+        <v>978</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Great Tusk</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1161">
+        <v>570</v>
+      </c>
+      <c r="G1161">
+        <v>115</v>
+      </c>
+      <c r="H1161">
+        <v>131</v>
+      </c>
+      <c r="I1161">
+        <v>131</v>
+      </c>
+      <c r="J1161">
+        <v>53</v>
+      </c>
+      <c r="K1161">
+        <v>53</v>
+      </c>
+      <c r="L1161">
+        <v>87</v>
+      </c>
+      <c r="M1161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162">
+        <v>979</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Brute Bonnet</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="F1162">
+        <v>570</v>
+      </c>
+      <c r="G1162">
+        <v>111</v>
+      </c>
+      <c r="H1162">
+        <v>127</v>
+      </c>
+      <c r="I1162">
+        <v>99</v>
+      </c>
+      <c r="J1162">
+        <v>79</v>
+      </c>
+      <c r="K1162">
+        <v>99</v>
+      </c>
+      <c r="L1162">
+        <v>55</v>
+      </c>
+      <c r="M1162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163">
+        <v>981</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Sandy Shocks</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="F1163">
+        <v>570</v>
+      </c>
+      <c r="G1163">
+        <v>85</v>
+      </c>
+      <c r="H1163">
+        <v>81</v>
+      </c>
+      <c r="I1163">
+        <v>97</v>
+      </c>
+      <c r="J1163">
+        <v>121</v>
+      </c>
+      <c r="K1163">
+        <v>85</v>
+      </c>
+      <c r="L1163">
+        <v>101</v>
+      </c>
+      <c r="M1163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164">
+        <v>982</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Scream Tail</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1164">
+        <v>570</v>
+      </c>
+      <c r="G1164">
+        <v>115</v>
+      </c>
+      <c r="H1164">
+        <v>65</v>
+      </c>
+      <c r="I1164">
+        <v>99</v>
+      </c>
+      <c r="J1164">
+        <v>65</v>
+      </c>
+      <c r="K1164">
+        <v>115</v>
+      </c>
+      <c r="L1164">
+        <v>111</v>
+      </c>
+      <c r="M1164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165">
+        <v>983</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Flutter Mane</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="F1165">
+        <v>570</v>
+      </c>
+      <c r="G1165">
+        <v>55</v>
+      </c>
+      <c r="H1165">
+        <v>55</v>
+      </c>
+      <c r="I1165">
+        <v>55</v>
+      </c>
+      <c r="J1165">
+        <v>135</v>
+      </c>
+      <c r="K1165">
+        <v>135</v>
+      </c>
+      <c r="L1165">
+        <v>135</v>
+      </c>
+      <c r="M1165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166">
+        <v>984</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Slither Wing</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1166">
+        <v>570</v>
+      </c>
+      <c r="G1166">
+        <v>85</v>
+      </c>
+      <c r="H1166">
+        <v>135</v>
+      </c>
+      <c r="I1166">
+        <v>79</v>
+      </c>
+      <c r="J1166">
+        <v>85</v>
+      </c>
+      <c r="K1166">
+        <v>105</v>
+      </c>
+      <c r="L1166">
+        <v>81</v>
+      </c>
+      <c r="M1166">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167">
+        <v>985</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Roaring Moon</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="F1167">
+        <v>590</v>
+      </c>
+      <c r="G1167">
+        <v>105</v>
+      </c>
+      <c r="H1167">
+        <v>139</v>
+      </c>
+      <c r="I1167">
+        <v>71</v>
+      </c>
+      <c r="J1167">
+        <v>55</v>
+      </c>
+      <c r="K1167">
+        <v>101</v>
+      </c>
+      <c r="L1167">
+        <v>119</v>
+      </c>
+      <c r="M1167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168">
+        <v>986</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Iron Treads</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="F1168">
+        <v>570</v>
+      </c>
+      <c r="G1168">
+        <v>90</v>
+      </c>
+      <c r="H1168">
+        <v>112</v>
+      </c>
+      <c r="I1168">
+        <v>120</v>
+      </c>
+      <c r="J1168">
+        <v>72</v>
+      </c>
+      <c r="K1168">
+        <v>70</v>
+      </c>
+      <c r="L1168">
+        <v>106</v>
+      </c>
+      <c r="M1168">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169">
+        <v>988</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Iron Moth</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="F1169">
+        <v>570</v>
+      </c>
+      <c r="G1169">
+        <v>80</v>
+      </c>
+      <c r="H1169">
+        <v>70</v>
+      </c>
+      <c r="I1169">
+        <v>60</v>
+      </c>
+      <c r="J1169">
+        <v>140</v>
+      </c>
+      <c r="K1169">
+        <v>110</v>
+      </c>
+      <c r="L1169">
+        <v>110</v>
+      </c>
+      <c r="M1169">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170">
+        <v>989</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Iron Hands</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="F1170">
+        <v>570</v>
+      </c>
+      <c r="G1170">
+        <v>154</v>
+      </c>
+      <c r="H1170">
+        <v>140</v>
+      </c>
+      <c r="I1170">
+        <v>108</v>
+      </c>
+      <c r="J1170">
+        <v>50</v>
+      </c>
+      <c r="K1170">
+        <v>68</v>
+      </c>
+      <c r="L1170">
+        <v>50</v>
+      </c>
+      <c r="M1170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171">
+        <v>990</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Iron Jugulis</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>Flying</t>
+        </is>
+      </c>
+      <c r="F1171">
+        <v>570</v>
+      </c>
+      <c r="G1171">
+        <v>94</v>
+      </c>
+      <c r="H1171">
+        <v>80</v>
+      </c>
+      <c r="I1171">
+        <v>86</v>
+      </c>
+      <c r="J1171">
+        <v>122</v>
+      </c>
+      <c r="K1171">
+        <v>80</v>
+      </c>
+      <c r="L1171">
+        <v>108</v>
+      </c>
+      <c r="M1171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172">
+        <v>991</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Iron Thorns</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="F1172">
+        <v>570</v>
+      </c>
+      <c r="G1172">
+        <v>100</v>
+      </c>
+      <c r="H1172">
+        <v>134</v>
+      </c>
+      <c r="I1172">
+        <v>110</v>
+      </c>
+      <c r="J1172">
+        <v>70</v>
+      </c>
+      <c r="K1172">
+        <v>84</v>
+      </c>
+      <c r="L1172">
+        <v>72</v>
+      </c>
+      <c r="M1172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173">
+        <v>992</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Iron Bundle</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F1173">
+        <v>570</v>
+      </c>
+      <c r="G1173">
+        <v>56</v>
+      </c>
+      <c r="H1173">
+        <v>80</v>
+      </c>
+      <c r="I1173">
+        <v>114</v>
+      </c>
+      <c r="J1173">
+        <v>124</v>
+      </c>
+      <c r="K1173">
+        <v>60</v>
+      </c>
+      <c r="L1173">
+        <v>136</v>
+      </c>
+      <c r="M1173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174">
+        <v>993</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Iron Valiant</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1174">
+        <v>590</v>
+      </c>
+      <c r="G1174">
+        <v>74</v>
+      </c>
+      <c r="H1174">
+        <v>130</v>
+      </c>
+      <c r="I1174">
+        <v>90</v>
+      </c>
+      <c r="J1174">
+        <v>120</v>
+      </c>
+      <c r="K1174">
+        <v>60</v>
+      </c>
+      <c r="L1174">
+        <v>116</v>
+      </c>
+      <c r="M1174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175">
+        <v>994</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Ting-Lu</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="F1175">
+        <v>570</v>
+      </c>
+      <c r="G1175">
+        <v>155</v>
+      </c>
+      <c r="H1175">
+        <v>110</v>
+      </c>
+      <c r="I1175">
+        <v>125</v>
+      </c>
+      <c r="J1175">
+        <v>55</v>
+      </c>
+      <c r="K1175">
+        <v>80</v>
+      </c>
+      <c r="L1175">
+        <v>45</v>
+      </c>
+      <c r="M1175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176">
+        <v>995</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Chien-Pao</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>Ice</t>
+        </is>
+      </c>
+      <c r="F1176">
+        <v>570</v>
+      </c>
+      <c r="G1176">
+        <v>80</v>
+      </c>
+      <c r="H1176">
+        <v>120</v>
+      </c>
+      <c r="I1176">
+        <v>80</v>
+      </c>
+      <c r="J1176">
+        <v>90</v>
+      </c>
+      <c r="K1176">
+        <v>65</v>
+      </c>
+      <c r="L1176">
+        <v>135</v>
+      </c>
+      <c r="M1176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177">
+        <v>996</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Wo-Chien</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="F1177">
+        <v>570</v>
+      </c>
+      <c r="G1177">
+        <v>85</v>
+      </c>
+      <c r="H1177">
+        <v>85</v>
+      </c>
+      <c r="I1177">
+        <v>100</v>
+      </c>
+      <c r="J1177">
+        <v>95</v>
+      </c>
+      <c r="K1177">
+        <v>135</v>
+      </c>
+      <c r="L1177">
+        <v>70</v>
+      </c>
+      <c r="M1177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178">
+        <v>997</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Chi-Yu</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="F1178">
+        <v>570</v>
+      </c>
+      <c r="G1178">
+        <v>55</v>
+      </c>
+      <c r="H1178">
+        <v>80</v>
+      </c>
+      <c r="I1178">
+        <v>80</v>
+      </c>
+      <c r="J1178">
+        <v>135</v>
+      </c>
+      <c r="K1178">
+        <v>120</v>
+      </c>
+      <c r="L1178">
+        <v>100</v>
+      </c>
+      <c r="M1178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179">
+        <v>998</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Koraidon</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1179">
+        <v>670</v>
+      </c>
+      <c r="G1179">
+        <v>100</v>
+      </c>
+      <c r="H1179">
+        <v>135</v>
+      </c>
+      <c r="I1179">
+        <v>115</v>
+      </c>
+      <c r="J1179">
+        <v>85</v>
+      </c>
+      <c r="K1179">
+        <v>100</v>
+      </c>
+      <c r="L1179">
+        <v>135</v>
+      </c>
+      <c r="M1179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180">
+        <v>999</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Miraidon</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1180">
+        <v>670</v>
+      </c>
+      <c r="G1180">
+        <v>100</v>
+      </c>
+      <c r="H1180">
+        <v>85</v>
+      </c>
+      <c r="I1180">
+        <v>100</v>
+      </c>
+      <c r="J1180">
+        <v>135</v>
+      </c>
+      <c r="K1180">
+        <v>115</v>
+      </c>
+      <c r="L1180">
+        <v>135</v>
+      </c>
+      <c r="M1180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181">
+        <v>1000</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>Tinkatink</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="F1181">
+        <v>297</v>
+      </c>
+      <c r="G1181">
+        <v>50</v>
+      </c>
+      <c r="H1181">
+        <v>45</v>
+      </c>
+      <c r="I1181">
+        <v>45</v>
+      </c>
+      <c r="J1181">
+        <v>35</v>
+      </c>
+      <c r="K1181">
+        <v>64</v>
+      </c>
+      <c r="L1181">
+        <v>58</v>
+      </c>
+      <c r="M1181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182">
+        <v>1001</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>Tinkatuff</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="F1182">
+        <v>380</v>
+      </c>
+      <c r="G1182">
+        <v>65</v>
+      </c>
+      <c r="H1182">
+        <v>55</v>
+      </c>
+      <c r="I1182">
+        <v>55</v>
+      </c>
+      <c r="J1182">
+        <v>45</v>
+      </c>
+      <c r="K1182">
+        <v>82</v>
+      </c>
+      <c r="L1182">
+        <v>78</v>
+      </c>
+      <c r="M1182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183">
+        <v>1002</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>Tinkaton</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="F1183">
+        <v>506</v>
+      </c>
+      <c r="G1183">
+        <v>85</v>
+      </c>
+      <c r="H1183">
+        <v>75</v>
+      </c>
+      <c r="I1183">
+        <v>77</v>
+      </c>
+      <c r="J1183">
+        <v>70</v>
+      </c>
+      <c r="K1183">
+        <v>105</v>
+      </c>
+      <c r="L1183">
+        <v>94</v>
+      </c>
+      <c r="M1183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184">
+        <v>1003</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Charcadet</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1184">
+        <v>255</v>
+      </c>
+      <c r="G1184">
+        <v>40</v>
+      </c>
+      <c r="H1184">
+        <v>50</v>
+      </c>
+      <c r="I1184">
+        <v>40</v>
+      </c>
+      <c r="J1184">
+        <v>50</v>
+      </c>
+      <c r="K1184">
+        <v>40</v>
+      </c>
+      <c r="L1184">
+        <v>35</v>
+      </c>
+      <c r="M1184">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185">
+        <v>1004</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Armarouge</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1185">
+        <v>525</v>
+      </c>
+      <c r="G1185">
+        <v>85</v>
+      </c>
+      <c r="H1185">
+        <v>60</v>
+      </c>
+      <c r="I1185">
+        <v>100</v>
+      </c>
+      <c r="J1185">
+        <v>125</v>
+      </c>
+      <c r="K1185">
+        <v>80</v>
+      </c>
+      <c r="L1185">
+        <v>75</v>
+      </c>
+      <c r="M1185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186">
+        <v>1005</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Ceruledge</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1186">
+        <v>525</v>
+      </c>
+      <c r="G1186">
+        <v>75</v>
+      </c>
+      <c r="H1186">
+        <v>125</v>
+      </c>
+      <c r="I1186">
+        <v>80</v>
+      </c>
+      <c r="J1186">
+        <v>60</v>
+      </c>
+      <c r="K1186">
+        <v>100</v>
+      </c>
+      <c r="L1186">
+        <v>85</v>
+      </c>
+      <c r="M1186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187">
+        <v>1006</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Toedscool</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="F1187">
+        <v>335</v>
+      </c>
+      <c r="G1187">
+        <v>40</v>
+      </c>
+      <c r="H1187">
+        <v>40</v>
+      </c>
+      <c r="I1187">
+        <v>35</v>
+      </c>
+      <c r="J1187">
+        <v>50</v>
+      </c>
+      <c r="K1187">
+        <v>100</v>
+      </c>
+      <c r="L1187">
+        <v>70</v>
+      </c>
+      <c r="M1187">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188">
+        <v>1007</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Toedscruel</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="F1188">
+        <v>515</v>
+      </c>
+      <c r="G1188">
+        <v>80</v>
+      </c>
+      <c r="H1188">
+        <v>70</v>
+      </c>
+      <c r="I1188">
+        <v>65</v>
+      </c>
+      <c r="J1188">
+        <v>80</v>
+      </c>
+      <c r="K1188">
+        <v>120</v>
+      </c>
+      <c r="L1188">
+        <v>100</v>
+      </c>
+      <c r="M1188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189">
+        <v>1008</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Kingambit</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="F1189">
+        <v>550</v>
+      </c>
+      <c r="G1189">
+        <v>100</v>
+      </c>
+      <c r="H1189">
+        <v>135</v>
+      </c>
+      <c r="I1189">
+        <v>120</v>
+      </c>
+      <c r="J1189">
+        <v>60</v>
+      </c>
+      <c r="K1189">
+        <v>85</v>
+      </c>
+      <c r="L1189">
+        <v>50</v>
+      </c>
+      <c r="M1189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190">
+        <v>1009</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Clodsire</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="F1190">
+        <v>430</v>
+      </c>
+      <c r="G1190">
+        <v>130</v>
+      </c>
+      <c r="H1190">
+        <v>75</v>
+      </c>
+      <c r="I1190">
+        <v>60</v>
+      </c>
+      <c r="J1190">
+        <v>45</v>
+      </c>
+      <c r="K1190">
+        <v>100</v>
+      </c>
+      <c r="L1190">
+        <v>20</v>
+      </c>
+      <c r="M1190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191">
+        <v>1010</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Annihilape</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1191">
+        <v>535</v>
+      </c>
+      <c r="G1191">
+        <v>110</v>
+      </c>
+      <c r="H1191">
+        <v>115</v>
+      </c>
+      <c r="I1191">
+        <v>80</v>
+      </c>
+      <c r="J1191">
+        <v>50</v>
+      </c>
+      <c r="K1191">
+        <v>90</v>
+      </c>
+      <c r="L1191">
+        <v>90</v>
+      </c>
+      <c r="M1191">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1191"/>
+  <dimension ref="A1:M1195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="F505">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="G505">
         <v>120</v>
@@ -25105,13 +25105,13 @@
         <v>70</v>
       </c>
       <c r="I505">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J505">
         <v>75</v>
       </c>
       <c r="K505">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L505">
         <v>85</v>
@@ -46794,12 +46794,12 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
           <t>Poison</t>
-        </is>
-      </c>
-      <c r="E948" t="inlineStr">
-        <is>
-          <t>Fighting</t>
         </is>
       </c>
       <c r="F948">
@@ -47492,22 +47492,22 @@
         <v>510</v>
       </c>
       <c r="G962">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H962">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I962">
         <v>60</v>
       </c>
       <c r="J962">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K962">
         <v>60</v>
       </c>
       <c r="L962">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M962">
         <v>8</v>
@@ -51850,13 +51850,13 @@
         </is>
       </c>
       <c r="F1051">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G1051">
         <v>92</v>
       </c>
       <c r="H1051">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I1051">
         <v>115</v>
@@ -51899,13 +51899,13 @@
         </is>
       </c>
       <c r="F1052">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G1052">
         <v>92</v>
       </c>
       <c r="H1052">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I1052">
         <v>115</v>
@@ -51948,13 +51948,13 @@
         </is>
       </c>
       <c r="F1053">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G1053">
         <v>92</v>
       </c>
       <c r="H1053">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I1053">
         <v>115</v>
@@ -51997,22 +51997,22 @@
         </is>
       </c>
       <c r="F1054">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G1054">
         <v>92</v>
       </c>
       <c r="H1054">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I1054">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J1054">
         <v>80</v>
       </c>
       <c r="K1054">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L1054">
         <v>128</v>
@@ -52738,7 +52738,7 @@
         <v>70</v>
       </c>
       <c r="H1069">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I1069">
         <v>95</v>
@@ -52747,7 +52747,7 @@
         <v>45</v>
       </c>
       <c r="K1069">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L1069">
         <v>85</v>
@@ -52919,12 +52919,12 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
           <t>Poison</t>
-        </is>
-      </c>
-      <c r="E1073" t="inlineStr">
-        <is>
-          <t>Fighting</t>
         </is>
       </c>
       <c r="F1073">
@@ -53110,7 +53110,7 @@
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Paldean Tauros</t>
+          <t>Combat Breed</t>
         </is>
       </c>
       <c r="D1077" t="inlineStr">
@@ -53159,7 +53159,7 @@
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>Paldean Fire Tauros</t>
+          <t>Blaze Breed</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr">
@@ -53208,7 +53208,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>Paldean Water Tauros</t>
+          <t>Aqua Breed</t>
         </is>
       </c>
       <c r="D1079" t="inlineStr">
@@ -53889,17 +53889,17 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Dudunsparce</t>
+          <t>Tarountula</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Two-Segment Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="E1093" t="inlineStr">
@@ -53908,25 +53908,25 @@
         </is>
       </c>
       <c r="F1093">
-        <v>520</v>
+        <v>210</v>
       </c>
       <c r="G1093">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="H1093">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="I1093">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="J1093">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K1093">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="L1093">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M1093">
         <v>9</v>
@@ -53934,21 +53934,21 @@
     </row>
     <row r="1094">
       <c r="A1094">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Dudunsparce</t>
+          <t>Spidops</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Three-Segment Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="E1094" t="inlineStr">
@@ -53957,25 +53957,25 @@
         </is>
       </c>
       <c r="F1094">
-        <v>520</v>
+        <v>404</v>
       </c>
       <c r="G1094">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="H1094">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I1094">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J1094">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="K1094">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="L1094">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M1094">
         <v>9</v>
@@ -53983,11 +53983,11 @@
     </row>
     <row r="1095">
       <c r="A1095">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Tarountula</t>
+          <t>Nymble</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -54009,22 +54009,22 @@
         <v>210</v>
       </c>
       <c r="G1095">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1095">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I1095">
+        <v>40</v>
+      </c>
+      <c r="J1095">
+        <v>21</v>
+      </c>
+      <c r="K1095">
+        <v>25</v>
+      </c>
+      <c r="L1095">
         <v>45</v>
-      </c>
-      <c r="J1095">
-        <v>29</v>
-      </c>
-      <c r="K1095">
-        <v>40</v>
-      </c>
-      <c r="L1095">
-        <v>20</v>
       </c>
       <c r="M1095">
         <v>9</v>
@@ -54032,11 +54032,11 @@
     </row>
     <row r="1096">
       <c r="A1096">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Spidops</t>
+          <t>Lokix</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -54051,29 +54051,29 @@
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1096">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G1096">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H1096">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="I1096">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J1096">
         <v>52</v>
       </c>
       <c r="K1096">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L1096">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M1096">
         <v>9</v>
@@ -54081,11 +54081,11 @@
     </row>
     <row r="1097">
       <c r="A1097">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Nymble</t>
+          <t>Pawmi</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -54095,7 +54095,7 @@
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr">
@@ -54104,25 +54104,25 @@
         </is>
       </c>
       <c r="F1097">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G1097">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H1097">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I1097">
+        <v>20</v>
+      </c>
+      <c r="J1097">
         <v>40</v>
-      </c>
-      <c r="J1097">
-        <v>21</v>
       </c>
       <c r="K1097">
         <v>25</v>
       </c>
       <c r="L1097">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M1097">
         <v>9</v>
@@ -54130,11 +54130,11 @@
     </row>
     <row r="1098">
       <c r="A1098">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Lokix</t>
+          <t>Pawmo</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -54144,34 +54144,34 @@
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1098">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G1098">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H1098">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I1098">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J1098">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1098">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L1098">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M1098">
         <v>9</v>
@@ -54179,11 +54179,11 @@
     </row>
     <row r="1099">
       <c r="A1099">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Rellor</t>
+          <t>Pawmot</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -54193,34 +54193,34 @@
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1099">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="G1099">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="H1099">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I1099">
+        <v>70</v>
+      </c>
+      <c r="J1099">
+        <v>70</v>
+      </c>
+      <c r="K1099">
         <v>60</v>
       </c>
-      <c r="J1099">
-        <v>31</v>
-      </c>
-      <c r="K1099">
-        <v>58</v>
-      </c>
       <c r="L1099">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M1099">
         <v>9</v>
@@ -54228,11 +54228,11 @@
     </row>
     <row r="1100">
       <c r="A1100">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Rabsca</t>
+          <t>Tandemaus</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -54242,34 +54242,34 @@
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1100">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="G1100">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H1100">
         <v>50</v>
       </c>
       <c r="I1100">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J1100">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="K1100">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="L1100">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M1100">
         <v>9</v>
@@ -54277,21 +54277,21 @@
     </row>
     <row r="1101">
       <c r="A1101">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Greavard</t>
+          <t>Maushold</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Family of Four</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1101" t="inlineStr">
@@ -54300,25 +54300,25 @@
         </is>
       </c>
       <c r="F1101">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="G1101">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H1101">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I1101">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J1101">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K1101">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L1101">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M1101">
         <v>9</v>
@@ -54330,17 +54330,17 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Houndstone</t>
+          <t>Maushold</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Family of Three</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr">
@@ -54349,25 +54349,25 @@
         </is>
       </c>
       <c r="F1102">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="G1102">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1102">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="I1102">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J1102">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K1102">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="L1102">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="M1102">
         <v>9</v>
@@ -54379,7 +54379,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Flittle</t>
+          <t>Fidough</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -54389,7 +54389,7 @@
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr">
@@ -54398,25 +54398,25 @@
         </is>
       </c>
       <c r="F1103">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="G1103">
+        <v>37</v>
+      </c>
+      <c r="H1103">
+        <v>55</v>
+      </c>
+      <c r="I1103">
+        <v>70</v>
+      </c>
+      <c r="J1103">
         <v>30</v>
       </c>
-      <c r="H1103">
-        <v>35</v>
-      </c>
-      <c r="I1103">
-        <v>30</v>
-      </c>
-      <c r="J1103">
+      <c r="K1103">
         <v>55</v>
       </c>
-      <c r="K1103">
-        <v>30</v>
-      </c>
       <c r="L1103">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M1103">
         <v>9</v>
@@ -54428,7 +54428,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Espathra</t>
+          <t>Dachsbun</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -54438,7 +54438,7 @@
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1104" t="inlineStr">
@@ -54447,25 +54447,25 @@
         </is>
       </c>
       <c r="F1104">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G1104">
+        <v>57</v>
+      </c>
+      <c r="H1104">
+        <v>80</v>
+      </c>
+      <c r="I1104">
+        <v>115</v>
+      </c>
+      <c r="J1104">
+        <v>50</v>
+      </c>
+      <c r="K1104">
+        <v>80</v>
+      </c>
+      <c r="L1104">
         <v>95</v>
-      </c>
-      <c r="H1104">
-        <v>60</v>
-      </c>
-      <c r="I1104">
-        <v>60</v>
-      </c>
-      <c r="J1104">
-        <v>101</v>
-      </c>
-      <c r="K1104">
-        <v>60</v>
-      </c>
-      <c r="L1104">
-        <v>105</v>
       </c>
       <c r="M1104">
         <v>9</v>
@@ -54477,7 +54477,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Farigiraf</t>
+          <t>Smoliv</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -54487,34 +54487,34 @@
       </c>
       <c r="D1105" t="inlineStr">
         <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="E1105" t="inlineStr">
-        <is>
-          <t>Psychic</t>
-        </is>
-      </c>
       <c r="F1105">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="G1105">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="H1105">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I1105">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="J1105">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="K1105">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L1105">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M1105">
         <v>9</v>
@@ -54526,7 +54526,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Wiglett</t>
+          <t>Dolliv</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -54536,34 +54536,34 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F1106">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="G1106">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H1106">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I1106">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J1106">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K1106">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L1106">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="M1106">
         <v>9</v>
@@ -54575,7 +54575,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Wugtrio</t>
+          <t>Arboliva</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -54585,34 +54585,34 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F1107">
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="G1107">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H1107">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="I1107">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J1107">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K1107">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="L1107">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="M1107">
         <v>9</v>
@@ -54624,44 +54624,44 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Dondozo</t>
+          <t>Squawkabilly</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Green Plumage</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1108">
-        <v>530</v>
+        <v>417</v>
       </c>
       <c r="G1108">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="H1108">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I1108">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="J1108">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K1108">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L1108">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M1108">
         <v>9</v>
@@ -54669,48 +54669,48 @@
     </row>
     <row r="1109">
       <c r="A1109">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Veluza</t>
+          <t>Squawkabilly</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Blue Plumage</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1109">
-        <v>478</v>
+        <v>417</v>
       </c>
       <c r="G1109">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H1109">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I1109">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J1109">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K1109">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L1109">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="M1109">
         <v>9</v>
@@ -54718,48 +54718,48 @@
     </row>
     <row r="1110">
       <c r="A1110">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Finizen</t>
+          <t>Squawkabilly</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Yellow Plumage</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1110">
-        <v>315</v>
+        <v>417</v>
       </c>
       <c r="G1110">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H1110">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="I1110">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J1110">
         <v>45</v>
       </c>
       <c r="K1110">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L1110">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M1110">
         <v>9</v>
@@ -54767,48 +54767,48 @@
     </row>
     <row r="1111">
       <c r="A1111">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Palafin</t>
+          <t>Squawkabilly</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Zero Form</t>
+          <t>White Plumage</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1111">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="G1111">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H1111">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I1111">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="J1111">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K1111">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L1111">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M1111">
         <v>9</v>
@@ -54816,21 +54816,21 @@
     </row>
     <row r="1112">
       <c r="A1112">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Palafin</t>
+          <t>Nacli</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Hero Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1112" t="inlineStr">
@@ -54839,25 +54839,25 @@
         </is>
       </c>
       <c r="F1112">
-        <v>650</v>
+        <v>280</v>
       </c>
       <c r="G1112">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H1112">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I1112">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="J1112">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="K1112">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="L1112">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M1112">
         <v>9</v>
@@ -54865,11 +54865,11 @@
     </row>
     <row r="1113">
       <c r="A1113">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Smoliv</t>
+          <t>Naclstack</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -54879,34 +54879,34 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1113">
-        <v>260</v>
+        <v>355</v>
       </c>
       <c r="G1113">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H1113">
+        <v>60</v>
+      </c>
+      <c r="I1113">
+        <v>100</v>
+      </c>
+      <c r="J1113">
         <v>35</v>
       </c>
-      <c r="I1113">
-        <v>45</v>
-      </c>
-      <c r="J1113">
-        <v>58</v>
-      </c>
       <c r="K1113">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="L1113">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M1113">
         <v>9</v>
@@ -54914,11 +54914,11 @@
     </row>
     <row r="1114">
       <c r="A1114">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Dolliv</t>
+          <t>Garganacl</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -54928,34 +54928,34 @@
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1114">
-        <v>354</v>
+        <v>500</v>
       </c>
       <c r="G1114">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H1114">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I1114">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="J1114">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K1114">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L1114">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M1114">
         <v>9</v>
@@ -54963,11 +54963,11 @@
     </row>
     <row r="1115">
       <c r="A1115">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Arboliva</t>
+          <t>Charcadet</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -54977,34 +54977,34 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1115">
-        <v>510</v>
+        <v>255</v>
       </c>
       <c r="G1115">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H1115">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I1115">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J1115">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K1115">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="L1115">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M1115">
         <v>9</v>
@@ -55012,11 +55012,11 @@
     </row>
     <row r="1116">
       <c r="A1116">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Capsakid</t>
+          <t>Armarouge</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -55026,34 +55026,34 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1116">
-        <v>304</v>
+        <v>525</v>
       </c>
       <c r="G1116">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H1116">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I1116">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J1116">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K1116">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L1116">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M1116">
         <v>9</v>
@@ -55061,11 +55061,11 @@
     </row>
     <row r="1117">
       <c r="A1117">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Scovillain</t>
+          <t>Ceruledge</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -55075,34 +55075,34 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1117">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="G1117">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H1117">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I1117">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J1117">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="K1117">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="L1117">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M1117">
         <v>9</v>
@@ -55110,7 +55110,7 @@
     </row>
     <row r="1118">
       <c r="A1118">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
@@ -55159,7 +55159,7 @@
     </row>
     <row r="1119">
       <c r="A1119">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
@@ -55208,11 +55208,11 @@
     </row>
     <row r="1120">
       <c r="A1120">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Varoom</t>
+          <t>Wattrel</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -55222,34 +55222,34 @@
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1120">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="G1120">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H1120">
+        <v>40</v>
+      </c>
+      <c r="I1120">
+        <v>35</v>
+      </c>
+      <c r="J1120">
+        <v>55</v>
+      </c>
+      <c r="K1120">
+        <v>40</v>
+      </c>
+      <c r="L1120">
         <v>70</v>
-      </c>
-      <c r="I1120">
-        <v>63</v>
-      </c>
-      <c r="J1120">
-        <v>30</v>
-      </c>
-      <c r="K1120">
-        <v>45</v>
-      </c>
-      <c r="L1120">
-        <v>47</v>
       </c>
       <c r="M1120">
         <v>9</v>
@@ -55257,11 +55257,11 @@
     </row>
     <row r="1121">
       <c r="A1121">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Revavroom</t>
+          <t>Kilowattrel</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -55271,34 +55271,34 @@
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1121">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G1121">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H1121">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="I1121">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J1121">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="K1121">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L1121">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M1121">
         <v>9</v>
@@ -55306,11 +55306,11 @@
     </row>
     <row r="1122">
       <c r="A1122">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Orthworm</t>
+          <t>Maschiff</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -55320,7 +55320,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -55329,25 +55329,25 @@
         </is>
       </c>
       <c r="F1122">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="G1122">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H1122">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I1122">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="J1122">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K1122">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L1122">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M1122">
         <v>9</v>
@@ -55355,11 +55355,11 @@
     </row>
     <row r="1123">
       <c r="A1123">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Tandemaus</t>
+          <t>Mabosstiff</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -55369,7 +55369,7 @@
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
@@ -55378,25 +55378,25 @@
         </is>
       </c>
       <c r="F1123">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="G1123">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H1123">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I1123">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J1123">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K1123">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L1123">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M1123">
         <v>9</v>
@@ -55404,48 +55404,48 @@
     </row>
     <row r="1124">
       <c r="A1124">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Maushold</t>
+          <t>Shroodle</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Family of Three</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="E1124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="F1124">
-        <v>470</v>
+        <v>290</v>
       </c>
       <c r="G1124">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H1124">
+        <v>65</v>
+      </c>
+      <c r="I1124">
+        <v>35</v>
+      </c>
+      <c r="J1124">
+        <v>40</v>
+      </c>
+      <c r="K1124">
+        <v>35</v>
+      </c>
+      <c r="L1124">
         <v>75</v>
-      </c>
-      <c r="I1124">
-        <v>70</v>
-      </c>
-      <c r="J1124">
-        <v>65</v>
-      </c>
-      <c r="K1124">
-        <v>75</v>
-      </c>
-      <c r="L1124">
-        <v>111</v>
       </c>
       <c r="M1124">
         <v>9</v>
@@ -55453,48 +55453,48 @@
     </row>
     <row r="1125">
       <c r="A1125">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Maushold</t>
+          <t>Grafaiai</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Family of Four</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="E1125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="F1125">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="G1125">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H1125">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I1125">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J1125">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K1125">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L1125">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M1125">
         <v>9</v>
@@ -55502,11 +55502,11 @@
     </row>
     <row r="1126">
       <c r="A1126">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Cetoddle</t>
+          <t>Bramblin</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -55516,34 +55516,34 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1126">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="G1126">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="H1126">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I1126">
+        <v>30</v>
+      </c>
+      <c r="J1126">
         <v>45</v>
       </c>
-      <c r="J1126">
-        <v>30</v>
-      </c>
       <c r="K1126">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L1126">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M1126">
         <v>9</v>
@@ -55551,11 +55551,11 @@
     </row>
     <row r="1127">
       <c r="A1127">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Cetitan</t>
+          <t>Brambleghast</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -55565,34 +55565,34 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1127">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="G1127">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="H1127">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I1127">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J1127">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K1127">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="L1127">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="M1127">
         <v>9</v>
@@ -55600,11 +55600,11 @@
     </row>
     <row r="1128">
       <c r="A1128">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Frigibax</t>
+          <t>Toedscool</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -55614,34 +55614,34 @@
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="F1128">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="G1128">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H1128">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I1128">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J1128">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K1128">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="L1128">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M1128">
         <v>9</v>
@@ -55649,11 +55649,11 @@
     </row>
     <row r="1129">
       <c r="A1129">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Arctibax</t>
+          <t>Toedscruel</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -55663,34 +55663,34 @@
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="F1129">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="G1129">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H1129">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I1129">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1129">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K1129">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="L1129">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M1129">
         <v>9</v>
@@ -55698,11 +55698,11 @@
     </row>
     <row r="1130">
       <c r="A1130">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Baxcalibur</t>
+          <t>Klawf</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -55712,34 +55712,34 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1130">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="G1130">
+        <v>70</v>
+      </c>
+      <c r="H1130">
+        <v>100</v>
+      </c>
+      <c r="I1130">
         <v>115</v>
       </c>
-      <c r="H1130">
-        <v>145</v>
-      </c>
-      <c r="I1130">
-        <v>92</v>
-      </c>
       <c r="J1130">
+        <v>35</v>
+      </c>
+      <c r="K1130">
+        <v>55</v>
+      </c>
+      <c r="L1130">
         <v>75</v>
-      </c>
-      <c r="K1130">
-        <v>86</v>
-      </c>
-      <c r="L1130">
-        <v>87</v>
       </c>
       <c r="M1130">
         <v>9</v>
@@ -55747,11 +55747,11 @@
     </row>
     <row r="1131">
       <c r="A1131">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Tatsugiri</t>
+          <t>Capsakid</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -55761,34 +55761,34 @@
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1131">
-        <v>475</v>
+        <v>304</v>
       </c>
       <c r="G1131">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H1131">
+        <v>62</v>
+      </c>
+      <c r="I1131">
+        <v>40</v>
+      </c>
+      <c r="J1131">
+        <v>62</v>
+      </c>
+      <c r="K1131">
+        <v>40</v>
+      </c>
+      <c r="L1131">
         <v>50</v>
-      </c>
-      <c r="I1131">
-        <v>60</v>
-      </c>
-      <c r="J1131">
-        <v>120</v>
-      </c>
-      <c r="K1131">
-        <v>95</v>
-      </c>
-      <c r="L1131">
-        <v>82</v>
       </c>
       <c r="M1131">
         <v>9</v>
@@ -55796,11 +55796,11 @@
     </row>
     <row r="1132">
       <c r="A1132">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Cyclizar</t>
+          <t>Scovillain</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -55810,34 +55810,34 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F1132">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="G1132">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H1132">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="I1132">
         <v>65</v>
       </c>
       <c r="J1132">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="K1132">
         <v>65</v>
       </c>
       <c r="L1132">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="M1132">
         <v>9</v>
@@ -55845,11 +55845,11 @@
     </row>
     <row r="1133">
       <c r="A1133">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Pawmi</t>
+          <t>Rellor</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -55859,7 +55859,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -55868,25 +55868,25 @@
         </is>
       </c>
       <c r="F1133">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G1133">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H1133">
         <v>50</v>
       </c>
       <c r="I1133">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J1133">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K1133">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="L1133">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M1133">
         <v>9</v>
@@ -55894,11 +55894,11 @@
     </row>
     <row r="1134">
       <c r="A1134">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Pawmo</t>
+          <t>Rabsca</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -55908,34 +55908,34 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1134">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="G1134">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H1134">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I1134">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J1134">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K1134">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L1134">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M1134">
         <v>9</v>
@@ -55943,11 +55943,11 @@
     </row>
     <row r="1135">
       <c r="A1135">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Pawmot</t>
+          <t>Flittle</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -55957,34 +55957,34 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1135">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="G1135">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H1135">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="I1135">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J1135">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K1135">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L1135">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="M1135">
         <v>9</v>
@@ -55992,11 +55992,11 @@
     </row>
     <row r="1136">
       <c r="A1136">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Wattrel</t>
+          <t>Espathra</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -56006,34 +56006,34 @@
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1136">
-        <v>280</v>
+        <v>481</v>
       </c>
       <c r="G1136">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="H1136">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I1136">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J1136">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="K1136">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L1136">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="M1136">
         <v>9</v>
@@ -56041,11 +56041,11 @@
     </row>
     <row r="1137">
       <c r="A1137">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Kilowattrel</t>
+          <t>Tinkatink</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -56055,34 +56055,34 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1137">
-        <v>490</v>
+        <v>297</v>
       </c>
       <c r="G1137">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H1137">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I1137">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J1137">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="K1137">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L1137">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="M1137">
         <v>9</v>
@@ -56090,11 +56090,11 @@
     </row>
     <row r="1138">
       <c r="A1138">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Bombirdier</t>
+          <t>Tinkatuff</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -56104,34 +56104,34 @@
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1138">
-        <v>485</v>
+        <v>380</v>
       </c>
       <c r="G1138">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H1138">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="I1138">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="J1138">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K1138">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L1138">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M1138">
         <v>9</v>
@@ -56139,48 +56139,48 @@
     </row>
     <row r="1139">
       <c r="A1139">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Squawkabilly</t>
+          <t>Tinkaton</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>White Plumage</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1139">
-        <v>417</v>
+        <v>506</v>
       </c>
       <c r="G1139">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H1139">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I1139">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="J1139">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K1139">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="L1139">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M1139">
         <v>9</v>
@@ -56192,44 +56192,44 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Squawkabilly</t>
+          <t>Wiglett</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Yellow Plumage</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1140">
-        <v>417</v>
+        <v>245</v>
       </c>
       <c r="G1140">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="H1140">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="I1140">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="J1140">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1140">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L1140">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M1140">
         <v>9</v>
@@ -56237,48 +56237,48 @@
     </row>
     <row r="1141">
       <c r="A1141">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Squawkabilly</t>
+          <t>Wugtrio</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Green Plumage</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1141">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G1141">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H1141">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I1141">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1141">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K1141">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="L1141">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="M1141">
         <v>9</v>
@@ -56286,48 +56286,48 @@
     </row>
     <row r="1142">
       <c r="A1142">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Squawkabilly</t>
+          <t>Bombirdier</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Blue Plumage</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1142">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="G1142">
+        <v>70</v>
+      </c>
+      <c r="H1142">
+        <v>103</v>
+      </c>
+      <c r="I1142">
+        <v>85</v>
+      </c>
+      <c r="J1142">
+        <v>60</v>
+      </c>
+      <c r="K1142">
+        <v>85</v>
+      </c>
+      <c r="L1142">
         <v>82</v>
-      </c>
-      <c r="H1142">
-        <v>96</v>
-      </c>
-      <c r="I1142">
-        <v>51</v>
-      </c>
-      <c r="J1142">
-        <v>45</v>
-      </c>
-      <c r="K1142">
-        <v>51</v>
-      </c>
-      <c r="L1142">
-        <v>92</v>
       </c>
       <c r="M1142">
         <v>9</v>
@@ -56335,11 +56335,11 @@
     </row>
     <row r="1143">
       <c r="A1143">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Flamigo</t>
+          <t>Finizen</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -56349,34 +56349,34 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1143">
-        <v>500</v>
+        <v>315</v>
       </c>
       <c r="G1143">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H1143">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="I1143">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="J1143">
+        <v>45</v>
+      </c>
+      <c r="K1143">
+        <v>40</v>
+      </c>
+      <c r="L1143">
         <v>75</v>
-      </c>
-      <c r="K1143">
-        <v>64</v>
-      </c>
-      <c r="L1143">
-        <v>90</v>
       </c>
       <c r="M1143">
         <v>9</v>
@@ -56384,21 +56384,21 @@
     </row>
     <row r="1144">
       <c r="A1144">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Klawf</t>
+          <t>Palafin</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Zero Form</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr">
@@ -56407,25 +56407,25 @@
         </is>
       </c>
       <c r="F1144">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G1144">
+        <v>100</v>
+      </c>
+      <c r="H1144">
         <v>70</v>
       </c>
-      <c r="H1144">
+      <c r="I1144">
+        <v>72</v>
+      </c>
+      <c r="J1144">
+        <v>53</v>
+      </c>
+      <c r="K1144">
+        <v>62</v>
+      </c>
+      <c r="L1144">
         <v>100</v>
-      </c>
-      <c r="I1144">
-        <v>115</v>
-      </c>
-      <c r="J1144">
-        <v>35</v>
-      </c>
-      <c r="K1144">
-        <v>55</v>
-      </c>
-      <c r="L1144">
-        <v>75</v>
       </c>
       <c r="M1144">
         <v>9</v>
@@ -56433,21 +56433,21 @@
     </row>
     <row r="1145">
       <c r="A1145">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Nacli</t>
+          <t>Palafin</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hero Form</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr">
@@ -56456,25 +56456,25 @@
         </is>
       </c>
       <c r="F1145">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="G1145">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H1145">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="I1145">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J1145">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="K1145">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="L1145">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M1145">
         <v>9</v>
@@ -56482,11 +56482,11 @@
     </row>
     <row r="1146">
       <c r="A1146">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Naclstack</t>
+          <t>Varoom</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -56496,34 +56496,34 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="F1146">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="G1146">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H1146">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I1146">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J1146">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K1146">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L1146">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M1146">
         <v>9</v>
@@ -56531,11 +56531,11 @@
     </row>
     <row r="1147">
       <c r="A1147">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Garganacl</t>
+          <t>Revavroom</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -56545,34 +56545,34 @@
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E1147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="F1147">
         <v>500</v>
       </c>
       <c r="G1147">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H1147">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I1147">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J1147">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K1147">
+        <v>67</v>
+      </c>
+      <c r="L1147">
         <v>90</v>
-      </c>
-      <c r="L1147">
-        <v>35</v>
       </c>
       <c r="M1147">
         <v>9</v>
@@ -56580,11 +56580,11 @@
     </row>
     <row r="1148">
       <c r="A1148">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Glimmet</t>
+          <t>Cyclizar</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -56594,34 +56594,34 @@
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F1148">
-        <v>350</v>
+        <v>501</v>
       </c>
       <c r="G1148">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H1148">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I1148">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J1148">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K1148">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L1148">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="M1148">
         <v>9</v>
@@ -56629,11 +56629,11 @@
     </row>
     <row r="1149">
       <c r="A1149">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Glimmora</t>
+          <t>Orthworm</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -56643,34 +56643,34 @@
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E1149" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1149">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="G1149">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H1149">
+        <v>85</v>
+      </c>
+      <c r="I1149">
+        <v>145</v>
+      </c>
+      <c r="J1149">
+        <v>60</v>
+      </c>
+      <c r="K1149">
         <v>55</v>
       </c>
-      <c r="I1149">
-        <v>90</v>
-      </c>
-      <c r="J1149">
-        <v>130</v>
-      </c>
-      <c r="K1149">
-        <v>81</v>
-      </c>
       <c r="L1149">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M1149">
         <v>9</v>
@@ -56678,11 +56678,11 @@
     </row>
     <row r="1150">
       <c r="A1150">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Shroodle</t>
+          <t>Glimmet</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -56692,34 +56692,34 @@
       </c>
       <c r="D1150" t="inlineStr">
         <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
           <t>Poison</t>
         </is>
       </c>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
       <c r="F1150">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G1150">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H1150">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I1150">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J1150">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="K1150">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L1150">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M1150">
         <v>9</v>
@@ -56727,11 +56727,11 @@
     </row>
     <row r="1151">
       <c r="A1151">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Grafaiai</t>
+          <t>Glimmora</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -56741,34 +56741,34 @@
       </c>
       <c r="D1151" t="inlineStr">
         <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
           <t>Poison</t>
         </is>
       </c>
-      <c r="E1151" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
       <c r="F1151">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="G1151">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H1151">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="I1151">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J1151">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K1151">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L1151">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="M1151">
         <v>9</v>
@@ -56776,11 +56776,11 @@
     </row>
     <row r="1152">
       <c r="A1152">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Fidough</t>
+          <t>Greavard</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -56790,7 +56790,7 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1152" t="inlineStr">
@@ -56799,16 +56799,16 @@
         </is>
       </c>
       <c r="F1152">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="G1152">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H1152">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I1152">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J1152">
         <v>30</v>
@@ -56817,7 +56817,7 @@
         <v>55</v>
       </c>
       <c r="L1152">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M1152">
         <v>9</v>
@@ -56825,11 +56825,11 @@
     </row>
     <row r="1153">
       <c r="A1153">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Dachsbun</t>
+          <t>Houndstone</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -56839,7 +56839,7 @@
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1153" t="inlineStr">
@@ -56848,25 +56848,25 @@
         </is>
       </c>
       <c r="F1153">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="G1153">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H1153">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I1153">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="J1153">
         <v>50</v>
       </c>
       <c r="K1153">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="L1153">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M1153">
         <v>9</v>
@@ -56874,11 +56874,11 @@
     </row>
     <row r="1154">
       <c r="A1154">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Maschiff</t>
+          <t>Flamigo</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -56888,34 +56888,34 @@
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1154">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="G1154">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H1154">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="I1154">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J1154">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K1154">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L1154">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="M1154">
         <v>9</v>
@@ -56923,11 +56923,11 @@
     </row>
     <row r="1155">
       <c r="A1155">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Mabosstiff</t>
+          <t>Cetoddle</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -56937,7 +56937,7 @@
       </c>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="E1155" t="inlineStr">
@@ -56946,25 +56946,25 @@
         </is>
       </c>
       <c r="F1155">
-        <v>505</v>
+        <v>334</v>
       </c>
       <c r="G1155">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H1155">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I1155">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J1155">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K1155">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L1155">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="M1155">
         <v>9</v>
@@ -56972,11 +56972,11 @@
     </row>
     <row r="1156">
       <c r="A1156">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Bramblin</t>
+          <t>Cetitan</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -56986,34 +56986,34 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="E1156" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1156">
-        <v>275</v>
+        <v>521</v>
       </c>
       <c r="G1156">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="H1156">
+        <v>113</v>
+      </c>
+      <c r="I1156">
         <v>65</v>
-      </c>
-      <c r="I1156">
-        <v>30</v>
       </c>
       <c r="J1156">
         <v>45</v>
       </c>
       <c r="K1156">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L1156">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M1156">
         <v>9</v>
@@ -57021,11 +57021,11 @@
     </row>
     <row r="1157">
       <c r="A1157">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Brambleghast</t>
+          <t>Veluza</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -57035,34 +57035,34 @@
       </c>
       <c r="D1157" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1157">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G1157">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H1157">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I1157">
+        <v>73</v>
+      </c>
+      <c r="J1157">
+        <v>78</v>
+      </c>
+      <c r="K1157">
+        <v>65</v>
+      </c>
+      <c r="L1157">
         <v>70</v>
-      </c>
-      <c r="J1157">
-        <v>80</v>
-      </c>
-      <c r="K1157">
-        <v>70</v>
-      </c>
-      <c r="L1157">
-        <v>90</v>
       </c>
       <c r="M1157">
         <v>9</v>
@@ -57070,21 +57070,21 @@
     </row>
     <row r="1158">
       <c r="A1158">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Gimmighoul</t>
+          <t>Dondozo</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Chest Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1158" t="inlineStr">
@@ -57093,25 +57093,25 @@
         </is>
       </c>
       <c r="F1158">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="G1158">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="H1158">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I1158">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="J1158">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K1158">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L1158">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M1158">
         <v>9</v>
@@ -57119,48 +57119,48 @@
     </row>
     <row r="1159">
       <c r="A1159">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Gimmighoul</t>
+          <t>Tatsugiri</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Roaming Form</t>
+          <t>Curly Form</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Water</t>
         </is>
       </c>
       <c r="F1159">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="G1159">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H1159">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I1159">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J1159">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K1159">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="L1159">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M1159">
         <v>9</v>
@@ -57168,48 +57168,48 @@
     </row>
     <row r="1160">
       <c r="A1160">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Gholdengo</t>
+          <t>Tatsugiri</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Droopy Form</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1160" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="F1160">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="G1160">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H1160">
+        <v>50</v>
+      </c>
+      <c r="I1160">
         <v>60</v>
       </c>
-      <c r="I1160">
+      <c r="J1160">
+        <v>120</v>
+      </c>
+      <c r="K1160">
         <v>95</v>
       </c>
-      <c r="J1160">
-        <v>133</v>
-      </c>
-      <c r="K1160">
-        <v>91</v>
-      </c>
       <c r="L1160">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M1160">
         <v>9</v>
@@ -57221,44 +57221,44 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Great Tusk</t>
+          <t>Tatsugiri</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Stretchy Form</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1161" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="F1161">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="G1161">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="H1161">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="I1161">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="J1161">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K1161">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="L1161">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M1161">
         <v>9</v>
@@ -57270,7 +57270,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Brute Bonnet</t>
+          <t>Annihilape</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -57280,34 +57280,34 @@
       </c>
       <c r="D1162" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1162">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="G1162">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1162">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I1162">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="J1162">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K1162">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L1162">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="M1162">
         <v>9</v>
@@ -57315,11 +57315,11 @@
     </row>
     <row r="1163">
       <c r="A1163">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Sandy Shocks</t>
+          <t>Clodsire</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -57329,7 +57329,7 @@
       </c>
       <c r="D1163" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="E1163" t="inlineStr">
@@ -57338,25 +57338,25 @@
         </is>
       </c>
       <c r="F1163">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="G1163">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H1163">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I1163">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="J1163">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="K1163">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L1163">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M1163">
         <v>9</v>
@@ -57364,11 +57364,11 @@
     </row>
     <row r="1164">
       <c r="A1164">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Scream Tail</t>
+          <t>Farigiraf</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -57378,7 +57378,7 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr">
@@ -57387,25 +57387,25 @@
         </is>
       </c>
       <c r="F1164">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="G1164">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H1164">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I1164">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J1164">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K1164">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="L1164">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="M1164">
         <v>9</v>
@@ -57413,48 +57413,48 @@
     </row>
     <row r="1165">
       <c r="A1165">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Flutter Mane</t>
+          <t>Dudunsparce</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Two-Segment Form</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1165">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="G1165">
+        <v>125</v>
+      </c>
+      <c r="H1165">
+        <v>100</v>
+      </c>
+      <c r="I1165">
+        <v>80</v>
+      </c>
+      <c r="J1165">
+        <v>85</v>
+      </c>
+      <c r="K1165">
+        <v>75</v>
+      </c>
+      <c r="L1165">
         <v>55</v>
-      </c>
-      <c r="H1165">
-        <v>55</v>
-      </c>
-      <c r="I1165">
-        <v>55</v>
-      </c>
-      <c r="J1165">
-        <v>135</v>
-      </c>
-      <c r="K1165">
-        <v>135</v>
-      </c>
-      <c r="L1165">
-        <v>135</v>
       </c>
       <c r="M1165">
         <v>9</v>
@@ -57462,48 +57462,48 @@
     </row>
     <row r="1166">
       <c r="A1166">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Slither Wing</t>
+          <t>Dudunsparce</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Three-Segment Form</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1166">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="G1166">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H1166">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="I1166">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J1166">
         <v>85</v>
       </c>
       <c r="K1166">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="L1166">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="M1166">
         <v>9</v>
@@ -57511,11 +57511,11 @@
     </row>
     <row r="1167">
       <c r="A1167">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Roaring Moon</t>
+          <t>Kingambit</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -57525,34 +57525,34 @@
       </c>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1167">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G1167">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H1167">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I1167">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="J1167">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K1167">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L1167">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M1167">
         <v>9</v>
@@ -57560,11 +57560,11 @@
     </row>
     <row r="1168">
       <c r="A1168">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Iron Treads</t>
+          <t>Great Tusk</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -57579,29 +57579,29 @@
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1168">
         <v>570</v>
       </c>
       <c r="G1168">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H1168">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I1168">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J1168">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K1168">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L1168">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="M1168">
         <v>9</v>
@@ -57609,11 +57609,11 @@
     </row>
     <row r="1169">
       <c r="A1169">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Iron Moth</t>
+          <t>Scream Tail</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -57623,34 +57623,34 @@
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1169">
         <v>570</v>
       </c>
       <c r="G1169">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H1169">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I1169">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="J1169">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="K1169">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L1169">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1169">
         <v>9</v>
@@ -57658,11 +57658,11 @@
     </row>
     <row r="1170">
       <c r="A1170">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Iron Hands</t>
+          <t>Brute Bonnet</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -57672,34 +57672,34 @@
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1170">
         <v>570</v>
       </c>
       <c r="G1170">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="H1170">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I1170">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J1170">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K1170">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="L1170">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M1170">
         <v>9</v>
@@ -57707,11 +57707,11 @@
     </row>
     <row r="1171">
       <c r="A1171">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Iron Jugulis</t>
+          <t>Flutter Mane</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -57721,34 +57721,34 @@
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="F1171">
         <v>570</v>
       </c>
       <c r="G1171">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="H1171">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I1171">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J1171">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K1171">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="L1171">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M1171">
         <v>9</v>
@@ -57756,11 +57756,11 @@
     </row>
     <row r="1172">
       <c r="A1172">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Iron Thorns</t>
+          <t>Slither Wing</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -57770,34 +57770,34 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1172">
         <v>570</v>
       </c>
       <c r="G1172">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H1172">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I1172">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="J1172">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K1172">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="L1172">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M1172">
         <v>9</v>
@@ -57805,11 +57805,11 @@
     </row>
     <row r="1173">
       <c r="A1173">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Iron Bundle</t>
+          <t>Sandy Shocks</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -57819,34 +57819,34 @@
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="F1173">
         <v>570</v>
       </c>
       <c r="G1173">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H1173">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1173">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J1173">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K1173">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="L1173">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="M1173">
         <v>9</v>
@@ -57854,11 +57854,11 @@
     </row>
     <row r="1174">
       <c r="A1174">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Iron Valiant</t>
+          <t>Iron Treads</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -57868,34 +57868,34 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1174">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="G1174">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H1174">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="I1174">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J1174">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="K1174">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L1174">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M1174">
         <v>9</v>
@@ -57903,11 +57903,11 @@
     </row>
     <row r="1175">
       <c r="A1175">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Ting-Lu</t>
+          <t>Iron Bundle</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -57917,34 +57917,34 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="F1175">
         <v>570</v>
       </c>
       <c r="G1175">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="H1175">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I1175">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="J1175">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="K1175">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L1175">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="M1175">
         <v>9</v>
@@ -57952,11 +57952,11 @@
     </row>
     <row r="1176">
       <c r="A1176">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Chien-Pao</t>
+          <t>Iron Hands</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -57966,34 +57966,34 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="F1176">
         <v>570</v>
       </c>
       <c r="G1176">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="H1176">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I1176">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="J1176">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K1176">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L1176">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="M1176">
         <v>9</v>
@@ -58001,11 +58001,11 @@
     </row>
     <row r="1177">
       <c r="A1177">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Wo-Chien</t>
+          <t>Iron Jugulis</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -58020,29 +58020,29 @@
       </c>
       <c r="E1177" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1177">
         <v>570</v>
       </c>
       <c r="G1177">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H1177">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I1177">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J1177">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="K1177">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="L1177">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="M1177">
         <v>9</v>
@@ -58050,11 +58050,11 @@
     </row>
     <row r="1178">
       <c r="A1178">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Chi-Yu</t>
+          <t>Iron Moth</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -58064,34 +58064,34 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="F1178">
         <v>570</v>
       </c>
       <c r="G1178">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H1178">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I1178">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J1178">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K1178">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L1178">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M1178">
         <v>9</v>
@@ -58099,11 +58099,11 @@
     </row>
     <row r="1179">
       <c r="A1179">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Koraidon</t>
+          <t>Iron Thorns</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -58113,34 +58113,34 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="F1179">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="G1179">
         <v>100</v>
       </c>
       <c r="H1179">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1179">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J1179">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K1179">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L1179">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="M1179">
         <v>9</v>
@@ -58148,11 +58148,11 @@
     </row>
     <row r="1180">
       <c r="A1180">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Miraidon</t>
+          <t>Frigibax</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -58162,34 +58162,34 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="F1180">
-        <v>670</v>
+        <v>320</v>
       </c>
       <c r="G1180">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H1180">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I1180">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J1180">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="K1180">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="L1180">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="M1180">
         <v>9</v>
@@ -58197,11 +58197,11 @@
     </row>
     <row r="1181">
       <c r="A1181">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Tinkatink</t>
+          <t>Arctibax</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -58211,34 +58211,34 @@
       </c>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1181" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="F1181">
-        <v>297</v>
+        <v>423</v>
       </c>
       <c r="G1181">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H1181">
+        <v>95</v>
+      </c>
+      <c r="I1181">
+        <v>66</v>
+      </c>
+      <c r="J1181">
         <v>45</v>
       </c>
-      <c r="I1181">
-        <v>45</v>
-      </c>
-      <c r="J1181">
-        <v>35</v>
-      </c>
       <c r="K1181">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L1181">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M1181">
         <v>9</v>
@@ -58246,11 +58246,11 @@
     </row>
     <row r="1182">
       <c r="A1182">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Tinkatuff</t>
+          <t>Baxcalibur</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -58260,34 +58260,34 @@
       </c>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1182" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="F1182">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="G1182">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="H1182">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="I1182">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="J1182">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K1182">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L1182">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M1182">
         <v>9</v>
@@ -58295,48 +58295,48 @@
     </row>
     <row r="1183">
       <c r="A1183">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Tinkaton</t>
+          <t>Gimmighoul</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Chest Form</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1183">
-        <v>506</v>
+        <v>300</v>
       </c>
       <c r="G1183">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="H1183">
+        <v>30</v>
+      </c>
+      <c r="I1183">
+        <v>70</v>
+      </c>
+      <c r="J1183">
         <v>75</v>
       </c>
-      <c r="I1183">
-        <v>77</v>
-      </c>
-      <c r="J1183">
+      <c r="K1183">
         <v>70</v>
       </c>
-      <c r="K1183">
-        <v>105</v>
-      </c>
       <c r="L1183">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="M1183">
         <v>9</v>
@@ -58344,21 +58344,21 @@
     </row>
     <row r="1184">
       <c r="A1184">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Charcadet</t>
+          <t>Gimmighoul</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Roaming Form</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1184" t="inlineStr">
@@ -58367,25 +58367,25 @@
         </is>
       </c>
       <c r="F1184">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="G1184">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1184">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I1184">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J1184">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K1184">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L1184">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M1184">
         <v>9</v>
@@ -58393,11 +58393,11 @@
     </row>
     <row r="1185">
       <c r="A1185">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Armarouge</t>
+          <t>Gholdengo</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -58407,34 +58407,34 @@
       </c>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1185">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="G1185">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1185">
         <v>60</v>
       </c>
       <c r="I1185">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J1185">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K1185">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L1185">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M1185">
         <v>9</v>
@@ -58442,11 +58442,11 @@
     </row>
     <row r="1186">
       <c r="A1186">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Ceruledge</t>
+          <t>Wo-Chien</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -58456,34 +58456,34 @@
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="F1186">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="G1186">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H1186">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="I1186">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J1186">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K1186">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="L1186">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M1186">
         <v>9</v>
@@ -58491,11 +58491,11 @@
     </row>
     <row r="1187">
       <c r="A1187">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Toedscool</t>
+          <t>Chien-Pao</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -58505,34 +58505,34 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="F1187">
-        <v>335</v>
+        <v>570</v>
       </c>
       <c r="G1187">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H1187">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I1187">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J1187">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K1187">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L1187">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="M1187">
         <v>9</v>
@@ -58540,11 +58540,11 @@
     </row>
     <row r="1188">
       <c r="A1188">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Toedscruel</t>
+          <t>Ting-Lu</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -58554,34 +58554,34 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
+          <t>Dark</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>Grass</t>
-        </is>
-      </c>
       <c r="F1188">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="G1188">
+        <v>155</v>
+      </c>
+      <c r="H1188">
+        <v>110</v>
+      </c>
+      <c r="I1188">
+        <v>125</v>
+      </c>
+      <c r="J1188">
+        <v>55</v>
+      </c>
+      <c r="K1188">
         <v>80</v>
       </c>
-      <c r="H1188">
-        <v>70</v>
-      </c>
-      <c r="I1188">
-        <v>65</v>
-      </c>
-      <c r="J1188">
-        <v>80</v>
-      </c>
-      <c r="K1188">
-        <v>120</v>
-      </c>
       <c r="L1188">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M1188">
         <v>9</v>
@@ -58589,11 +58589,11 @@
     </row>
     <row r="1189">
       <c r="A1189">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Kingambit</t>
+          <t>Chi-Yu</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -58608,29 +58608,29 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F1189">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="G1189">
+        <v>55</v>
+      </c>
+      <c r="H1189">
+        <v>80</v>
+      </c>
+      <c r="I1189">
+        <v>80</v>
+      </c>
+      <c r="J1189">
+        <v>135</v>
+      </c>
+      <c r="K1189">
+        <v>120</v>
+      </c>
+      <c r="L1189">
         <v>100</v>
-      </c>
-      <c r="H1189">
-        <v>135</v>
-      </c>
-      <c r="I1189">
-        <v>120</v>
-      </c>
-      <c r="J1189">
-        <v>60</v>
-      </c>
-      <c r="K1189">
-        <v>85</v>
-      </c>
-      <c r="L1189">
-        <v>50</v>
       </c>
       <c r="M1189">
         <v>9</v>
@@ -58638,11 +58638,11 @@
     </row>
     <row r="1190">
       <c r="A1190">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Clodsire</t>
+          <t>Roaring Moon</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -58652,34 +58652,34 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1190">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="G1190">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H1190">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="I1190">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J1190">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K1190">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L1190">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="M1190">
         <v>9</v>
@@ -58687,50 +58687,246 @@
     </row>
     <row r="1191">
       <c r="A1191">
+        <v>1006</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Iron Valiant</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1191">
+        <v>590</v>
+      </c>
+      <c r="G1191">
+        <v>74</v>
+      </c>
+      <c r="H1191">
+        <v>130</v>
+      </c>
+      <c r="I1191">
+        <v>90</v>
+      </c>
+      <c r="J1191">
+        <v>120</v>
+      </c>
+      <c r="K1191">
+        <v>60</v>
+      </c>
+      <c r="L1191">
+        <v>116</v>
+      </c>
+      <c r="M1191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192">
+        <v>1007</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Koraidon</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1192">
+        <v>670</v>
+      </c>
+      <c r="G1192">
+        <v>100</v>
+      </c>
+      <c r="H1192">
+        <v>135</v>
+      </c>
+      <c r="I1192">
+        <v>115</v>
+      </c>
+      <c r="J1192">
+        <v>85</v>
+      </c>
+      <c r="K1192">
+        <v>100</v>
+      </c>
+      <c r="L1192">
+        <v>135</v>
+      </c>
+      <c r="M1192">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193">
+        <v>1008</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Miraidon</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1193">
+        <v>670</v>
+      </c>
+      <c r="G1193">
+        <v>100</v>
+      </c>
+      <c r="H1193">
+        <v>85</v>
+      </c>
+      <c r="I1193">
+        <v>100</v>
+      </c>
+      <c r="J1193">
+        <v>135</v>
+      </c>
+      <c r="K1193">
+        <v>115</v>
+      </c>
+      <c r="L1193">
+        <v>135</v>
+      </c>
+      <c r="M1193">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194">
+        <v>1009</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Walking Wake</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1194">
+        <v>590</v>
+      </c>
+      <c r="G1194">
+        <v>99</v>
+      </c>
+      <c r="H1194">
+        <v>83</v>
+      </c>
+      <c r="I1194">
+        <v>91</v>
+      </c>
+      <c r="J1194">
+        <v>125</v>
+      </c>
+      <c r="K1194">
+        <v>83</v>
+      </c>
+      <c r="L1194">
+        <v>109</v>
+      </c>
+      <c r="M1194">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195">
         <v>1010</v>
       </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>Annihilape</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>Fighting</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr">
-        <is>
-          <t>Ghost</t>
-        </is>
-      </c>
-      <c r="F1191">
-        <v>535</v>
-      </c>
-      <c r="G1191">
-        <v>110</v>
-      </c>
-      <c r="H1191">
-        <v>115</v>
-      </c>
-      <c r="I1191">
-        <v>80</v>
-      </c>
-      <c r="J1191">
-        <v>50</v>
-      </c>
-      <c r="K1191">
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Iron Leaves</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1195">
+        <v>590</v>
+      </c>
+      <c r="G1195">
         <v>90</v>
       </c>
-      <c r="L1191">
-        <v>90</v>
-      </c>
-      <c r="M1191">
+      <c r="H1195">
+        <v>130</v>
+      </c>
+      <c r="I1195">
+        <v>88</v>
+      </c>
+      <c r="J1195">
+        <v>70</v>
+      </c>
+      <c r="K1195">
+        <v>108</v>
+      </c>
+      <c r="L1195">
+        <v>104</v>
+      </c>
+      <c r="M1195">
         <v>9</v>
       </c>
     </row>

--- a/Pokemon.xlsx
+++ b/Pokemon.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1195"/>
+  <dimension ref="A1:M1216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47492,22 +47492,22 @@
         <v>510</v>
       </c>
       <c r="G962">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H962">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I962">
         <v>60</v>
       </c>
       <c r="J962">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K962">
         <v>60</v>
       </c>
       <c r="L962">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M962">
         <v>8</v>
@@ -52738,7 +52738,7 @@
         <v>70</v>
       </c>
       <c r="H1069">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I1069">
         <v>95</v>
@@ -52747,7 +52747,7 @@
         <v>45</v>
       </c>
       <c r="K1069">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L1069">
         <v>85</v>
@@ -53297,48 +53297,48 @@
     </row>
     <row r="1081">
       <c r="A1081">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Sprigatito</t>
+          <t>Ursaluna</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Bloodmoon</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="E1081" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F1081">
-        <v>310</v>
+        <v>555</v>
       </c>
       <c r="G1081">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="H1081">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I1081">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="J1081">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K1081">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="L1081">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M1081">
         <v>9</v>
@@ -53346,11 +53346,11 @@
     </row>
     <row r="1082">
       <c r="A1082">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Floragato</t>
+          <t>Sprigatito</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -53369,25 +53369,25 @@
         </is>
       </c>
       <c r="F1082">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="G1082">
+        <v>40</v>
+      </c>
+      <c r="H1082">
         <v>61</v>
       </c>
-      <c r="H1082">
-        <v>80</v>
-      </c>
       <c r="I1082">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J1082">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K1082">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L1082">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M1082">
         <v>9</v>
@@ -53395,11 +53395,11 @@
     </row>
     <row r="1083">
       <c r="A1083">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Meowscarada</t>
+          <t>Floragato</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -53414,29 +53414,29 @@
       </c>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1083">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G1083">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H1083">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I1083">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J1083">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K1083">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L1083">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="M1083">
         <v>9</v>
@@ -53444,11 +53444,11 @@
     </row>
     <row r="1084">
       <c r="A1084">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Fuecoco</t>
+          <t>Meowscarada</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -53458,34 +53458,34 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1084">
-        <v>310</v>
+        <v>530</v>
       </c>
       <c r="G1084">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1084">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="I1084">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J1084">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K1084">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L1084">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="M1084">
         <v>9</v>
@@ -53493,11 +53493,11 @@
     </row>
     <row r="1085">
       <c r="A1085">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Crocalor</t>
+          <t>Fuecoco</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -53516,25 +53516,25 @@
         </is>
       </c>
       <c r="F1085">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="G1085">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H1085">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I1085">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J1085">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="K1085">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="L1085">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M1085">
         <v>9</v>
@@ -53542,11 +53542,11 @@
     </row>
     <row r="1086">
       <c r="A1086">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Skeledirge</t>
+          <t>Crocalor</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -53561,29 +53561,29 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1086">
-        <v>530</v>
+        <v>411</v>
       </c>
       <c r="G1086">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H1086">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I1086">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J1086">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K1086">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L1086">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M1086">
         <v>9</v>
@@ -53591,11 +53591,11 @@
     </row>
     <row r="1087">
       <c r="A1087">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Quaxly</t>
+          <t>Skeledirge</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -53605,34 +53605,34 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1087">
-        <v>310</v>
+        <v>530</v>
       </c>
       <c r="G1087">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="H1087">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I1087">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J1087">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K1087">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L1087">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M1087">
         <v>9</v>
@@ -53640,11 +53640,11 @@
     </row>
     <row r="1088">
       <c r="A1088">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Quaxwell</t>
+          <t>Quaxly</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -53663,25 +53663,25 @@
         </is>
       </c>
       <c r="F1088">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="G1088">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H1088">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I1088">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J1088">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K1088">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L1088">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M1088">
         <v>9</v>
@@ -53689,11 +53689,11 @@
     </row>
     <row r="1089">
       <c r="A1089">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Quaquaval</t>
+          <t>Quaxwell</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -53708,29 +53708,29 @@
       </c>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1089">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G1089">
+        <v>70</v>
+      </c>
+      <c r="H1089">
         <v>85</v>
       </c>
-      <c r="H1089">
-        <v>120</v>
-      </c>
       <c r="I1089">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J1089">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K1089">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L1089">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M1089">
         <v>9</v>
@@ -53738,11 +53738,11 @@
     </row>
     <row r="1090">
       <c r="A1090">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Lechonk</t>
+          <t>Quaquaval</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -53752,34 +53752,34 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1090" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1090">
-        <v>254</v>
+        <v>530</v>
       </c>
       <c r="G1090">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H1090">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="I1090">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J1090">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="K1090">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L1090">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="M1090">
         <v>9</v>
@@ -53787,16 +53787,16 @@
     </row>
     <row r="1091">
       <c r="A1091">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Oinkologne</t>
+          <t>Lechonk</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
@@ -53810,25 +53810,25 @@
         </is>
       </c>
       <c r="F1091">
-        <v>489</v>
+        <v>254</v>
       </c>
       <c r="G1091">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="H1091">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="I1091">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="J1091">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="K1091">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L1091">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M1091">
         <v>9</v>
@@ -53845,7 +53845,7 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr">
@@ -53862,19 +53862,19 @@
         <v>489</v>
       </c>
       <c r="G1092">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H1092">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I1092">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J1092">
         <v>59</v>
       </c>
       <c r="K1092">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L1092">
         <v>65</v>
@@ -53885,21 +53885,21 @@
     </row>
     <row r="1093">
       <c r="A1093">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Tarountula</t>
+          <t>Oinkologne</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1093" t="inlineStr">
@@ -53908,25 +53908,25 @@
         </is>
       </c>
       <c r="F1093">
-        <v>210</v>
+        <v>489</v>
       </c>
       <c r="G1093">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="H1093">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I1093">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J1093">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="K1093">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="L1093">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M1093">
         <v>9</v>
@@ -53934,11 +53934,11 @@
     </row>
     <row r="1094">
       <c r="A1094">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Spidops</t>
+          <t>Tarountula</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -53957,25 +53957,25 @@
         </is>
       </c>
       <c r="F1094">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="G1094">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H1094">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I1094">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="J1094">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="K1094">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L1094">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M1094">
         <v>9</v>
@@ -53983,11 +53983,11 @@
     </row>
     <row r="1095">
       <c r="A1095">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Nymble</t>
+          <t>Spidops</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -54006,25 +54006,25 @@
         </is>
       </c>
       <c r="F1095">
-        <v>210</v>
+        <v>404</v>
       </c>
       <c r="G1095">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H1095">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I1095">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J1095">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="K1095">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="L1095">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M1095">
         <v>9</v>
@@ -54032,11 +54032,11 @@
     </row>
     <row r="1096">
       <c r="A1096">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Lokix</t>
+          <t>Nymble</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -54051,29 +54051,29 @@
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1096">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="G1096">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H1096">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="I1096">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J1096">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="K1096">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="L1096">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="M1096">
         <v>9</v>
@@ -54081,11 +54081,11 @@
     </row>
     <row r="1097">
       <c r="A1097">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Pawmi</t>
+          <t>Lokix</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -54095,34 +54095,34 @@
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1097">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="G1097">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H1097">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I1097">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="J1097">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K1097">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="L1097">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M1097">
         <v>9</v>
@@ -54130,11 +54130,11 @@
     </row>
     <row r="1098">
       <c r="A1098">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Pawmo</t>
+          <t>Pawmi</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -54149,29 +54149,29 @@
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1098">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="G1098">
+        <v>45</v>
+      </c>
+      <c r="H1098">
+        <v>50</v>
+      </c>
+      <c r="I1098">
+        <v>20</v>
+      </c>
+      <c r="J1098">
+        <v>40</v>
+      </c>
+      <c r="K1098">
+        <v>25</v>
+      </c>
+      <c r="L1098">
         <v>60</v>
-      </c>
-      <c r="H1098">
-        <v>75</v>
-      </c>
-      <c r="I1098">
-        <v>40</v>
-      </c>
-      <c r="J1098">
-        <v>50</v>
-      </c>
-      <c r="K1098">
-        <v>40</v>
-      </c>
-      <c r="L1098">
-        <v>85</v>
       </c>
       <c r="M1098">
         <v>9</v>
@@ -54179,11 +54179,11 @@
     </row>
     <row r="1099">
       <c r="A1099">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Pawmot</t>
+          <t>Pawmo</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -54202,25 +54202,25 @@
         </is>
       </c>
       <c r="F1099">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="G1099">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H1099">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="I1099">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J1099">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1099">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L1099">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="M1099">
         <v>9</v>
@@ -54228,11 +54228,11 @@
     </row>
     <row r="1100">
       <c r="A1100">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Tandemaus</t>
+          <t>Pawmot</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -54242,34 +54242,34 @@
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1100">
-        <v>305</v>
+        <v>490</v>
       </c>
       <c r="G1100">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H1100">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I1100">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="J1100">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K1100">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L1100">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="M1100">
         <v>9</v>
@@ -54277,16 +54277,16 @@
     </row>
     <row r="1101">
       <c r="A1101">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Maushold</t>
+          <t>Tandemaus</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Family of Four</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1101" t="inlineStr">
@@ -54300,25 +54300,25 @@
         </is>
       </c>
       <c r="F1101">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="G1101">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H1101">
+        <v>50</v>
+      </c>
+      <c r="I1101">
+        <v>45</v>
+      </c>
+      <c r="J1101">
+        <v>40</v>
+      </c>
+      <c r="K1101">
+        <v>45</v>
+      </c>
+      <c r="L1101">
         <v>75</v>
-      </c>
-      <c r="I1101">
-        <v>70</v>
-      </c>
-      <c r="J1101">
-        <v>65</v>
-      </c>
-      <c r="K1101">
-        <v>75</v>
-      </c>
-      <c r="L1101">
-        <v>111</v>
       </c>
       <c r="M1101">
         <v>9</v>
@@ -54335,7 +54335,7 @@
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Family of Three</t>
+          <t>Family of Four</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr">
@@ -54375,21 +54375,21 @@
     </row>
     <row r="1103">
       <c r="A1103">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Fidough</t>
+          <t>Maushold</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Family of Three</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr">
@@ -54398,25 +54398,25 @@
         </is>
       </c>
       <c r="F1103">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="G1103">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H1103">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I1103">
         <v>70</v>
       </c>
       <c r="J1103">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K1103">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L1103">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="M1103">
         <v>9</v>
@@ -54424,11 +54424,11 @@
     </row>
     <row r="1104">
       <c r="A1104">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Dachsbun</t>
+          <t>Fidough</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -54447,25 +54447,25 @@
         </is>
       </c>
       <c r="F1104">
-        <v>477</v>
+        <v>312</v>
       </c>
       <c r="G1104">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H1104">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I1104">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="J1104">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1104">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L1104">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="M1104">
         <v>9</v>
@@ -54473,11 +54473,11 @@
     </row>
     <row r="1105">
       <c r="A1105">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Smoliv</t>
+          <t>Dachsbun</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -54487,34 +54487,34 @@
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1105">
-        <v>260</v>
+        <v>477</v>
       </c>
       <c r="G1105">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H1105">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I1105">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="J1105">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K1105">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="L1105">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="M1105">
         <v>9</v>
@@ -54522,11 +54522,11 @@
     </row>
     <row r="1106">
       <c r="A1106">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Dolliv</t>
+          <t>Smoliv</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -54545,25 +54545,25 @@
         </is>
       </c>
       <c r="F1106">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="G1106">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H1106">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I1106">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J1106">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K1106">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="L1106">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1106">
         <v>9</v>
@@ -54571,11 +54571,11 @@
     </row>
     <row r="1107">
       <c r="A1107">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Arboliva</t>
+          <t>Dolliv</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -54594,25 +54594,25 @@
         </is>
       </c>
       <c r="F1107">
-        <v>510</v>
+        <v>354</v>
       </c>
       <c r="G1107">
+        <v>52</v>
+      </c>
+      <c r="H1107">
+        <v>53</v>
+      </c>
+      <c r="I1107">
+        <v>60</v>
+      </c>
+      <c r="J1107">
         <v>78</v>
       </c>
-      <c r="H1107">
-        <v>69</v>
-      </c>
-      <c r="I1107">
-        <v>90</v>
-      </c>
-      <c r="J1107">
-        <v>125</v>
-      </c>
       <c r="K1107">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="L1107">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M1107">
         <v>9</v>
@@ -54620,48 +54620,48 @@
     </row>
     <row r="1108">
       <c r="A1108">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Squawkabilly</t>
+          <t>Arboliva</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Green Plumage</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="E1108" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
       <c r="F1108">
-        <v>417</v>
+        <v>510</v>
       </c>
       <c r="G1108">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H1108">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I1108">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="J1108">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="K1108">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="L1108">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="M1108">
         <v>9</v>
@@ -54678,7 +54678,7 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Blue Plumage</t>
+          <t>Green Plumage</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr">
@@ -54727,7 +54727,7 @@
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Yellow Plumage</t>
+          <t>Blue Plumage</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr">
@@ -54776,7 +54776,7 @@
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>White Plumage</t>
+          <t>Yellow Plumage</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr">
@@ -54816,48 +54816,48 @@
     </row>
     <row r="1112">
       <c r="A1112">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Nacli</t>
+          <t>Squawkabilly</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>White Plumage</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1112">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="G1112">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H1112">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="I1112">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="J1112">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K1112">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L1112">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="M1112">
         <v>9</v>
@@ -54865,11 +54865,11 @@
     </row>
     <row r="1113">
       <c r="A1113">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Naclstack</t>
+          <t>Nacli</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -54888,25 +54888,25 @@
         </is>
       </c>
       <c r="F1113">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="G1113">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H1113">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I1113">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J1113">
         <v>35</v>
       </c>
       <c r="K1113">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="L1113">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M1113">
         <v>9</v>
@@ -54914,11 +54914,11 @@
     </row>
     <row r="1114">
       <c r="A1114">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Garganacl</t>
+          <t>Naclstack</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -54937,22 +54937,22 @@
         </is>
       </c>
       <c r="F1114">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="G1114">
+        <v>60</v>
+      </c>
+      <c r="H1114">
+        <v>60</v>
+      </c>
+      <c r="I1114">
         <v>100</v>
       </c>
-      <c r="H1114">
-        <v>100</v>
-      </c>
-      <c r="I1114">
-        <v>130</v>
-      </c>
       <c r="J1114">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1114">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="L1114">
         <v>35</v>
@@ -54963,11 +54963,11 @@
     </row>
     <row r="1115">
       <c r="A1115">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Charcadet</t>
+          <t>Garganacl</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -54977,7 +54977,7 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr">
@@ -54986,22 +54986,22 @@
         </is>
       </c>
       <c r="F1115">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="G1115">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H1115">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I1115">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="J1115">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K1115">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="L1115">
         <v>35</v>
@@ -55012,11 +55012,11 @@
     </row>
     <row r="1116">
       <c r="A1116">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Armarouge</t>
+          <t>Charcadet</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -55031,29 +55031,29 @@
       </c>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1116">
-        <v>525</v>
+        <v>255</v>
       </c>
       <c r="G1116">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H1116">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I1116">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J1116">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K1116">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L1116">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M1116">
         <v>9</v>
@@ -55061,11 +55061,11 @@
     </row>
     <row r="1117">
       <c r="A1117">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Ceruledge</t>
+          <t>Armarouge</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -55080,29 +55080,29 @@
       </c>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1117">
         <v>525</v>
       </c>
       <c r="G1117">
+        <v>85</v>
+      </c>
+      <c r="H1117">
+        <v>60</v>
+      </c>
+      <c r="I1117">
+        <v>100</v>
+      </c>
+      <c r="J1117">
+        <v>125</v>
+      </c>
+      <c r="K1117">
+        <v>80</v>
+      </c>
+      <c r="L1117">
         <v>75</v>
-      </c>
-      <c r="H1117">
-        <v>125</v>
-      </c>
-      <c r="I1117">
-        <v>80</v>
-      </c>
-      <c r="J1117">
-        <v>60</v>
-      </c>
-      <c r="K1117">
-        <v>100</v>
-      </c>
-      <c r="L1117">
-        <v>85</v>
       </c>
       <c r="M1117">
         <v>9</v>
@@ -55110,11 +55110,11 @@
     </row>
     <row r="1118">
       <c r="A1118">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Tadbulb</t>
+          <t>Ceruledge</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -55124,34 +55124,34 @@
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1118">
-        <v>272</v>
+        <v>525</v>
       </c>
       <c r="G1118">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H1118">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="I1118">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="J1118">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1118">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L1118">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M1118">
         <v>9</v>
@@ -55159,11 +55159,11 @@
     </row>
     <row r="1119">
       <c r="A1119">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Bellibolt</t>
+          <t>Tadbulb</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -55182,22 +55182,22 @@
         </is>
       </c>
       <c r="F1119">
-        <v>495</v>
+        <v>272</v>
       </c>
       <c r="G1119">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="H1119">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I1119">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J1119">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="K1119">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="L1119">
         <v>45</v>
@@ -55208,11 +55208,11 @@
     </row>
     <row r="1120">
       <c r="A1120">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Wattrel</t>
+          <t>Bellibolt</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -55227,29 +55227,29 @@
       </c>
       <c r="E1120" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1120">
-        <v>280</v>
+        <v>495</v>
       </c>
       <c r="G1120">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H1120">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I1120">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="J1120">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="K1120">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="L1120">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M1120">
         <v>9</v>
@@ -55257,11 +55257,11 @@
     </row>
     <row r="1121">
       <c r="A1121">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Kilowattrel</t>
+          <t>Wattrel</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -55280,25 +55280,25 @@
         </is>
       </c>
       <c r="F1121">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="G1121">
+        <v>40</v>
+      </c>
+      <c r="H1121">
+        <v>40</v>
+      </c>
+      <c r="I1121">
+        <v>35</v>
+      </c>
+      <c r="J1121">
+        <v>55</v>
+      </c>
+      <c r="K1121">
+        <v>40</v>
+      </c>
+      <c r="L1121">
         <v>70</v>
-      </c>
-      <c r="H1121">
-        <v>70</v>
-      </c>
-      <c r="I1121">
-        <v>60</v>
-      </c>
-      <c r="J1121">
-        <v>105</v>
-      </c>
-      <c r="K1121">
-        <v>60</v>
-      </c>
-      <c r="L1121">
-        <v>125</v>
       </c>
       <c r="M1121">
         <v>9</v>
@@ -55306,11 +55306,11 @@
     </row>
     <row r="1122">
       <c r="A1122">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Maschiff</t>
+          <t>Kilowattrel</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -55320,34 +55320,34 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1122">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="G1122">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H1122">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I1122">
         <v>60</v>
       </c>
       <c r="J1122">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="K1122">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L1122">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="M1122">
         <v>9</v>
@@ -55355,11 +55355,11 @@
     </row>
     <row r="1123">
       <c r="A1123">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Mabosstiff</t>
+          <t>Maschiff</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -55378,25 +55378,25 @@
         </is>
       </c>
       <c r="F1123">
-        <v>505</v>
+        <v>340</v>
       </c>
       <c r="G1123">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H1123">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="I1123">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J1123">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K1123">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L1123">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M1123">
         <v>9</v>
@@ -55404,11 +55404,11 @@
     </row>
     <row r="1124">
       <c r="A1124">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Shroodle</t>
+          <t>Mabosstiff</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -55418,34 +55418,34 @@
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1124">
-        <v>290</v>
+        <v>505</v>
       </c>
       <c r="G1124">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H1124">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="I1124">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="J1124">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K1124">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L1124">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M1124">
         <v>9</v>
@@ -55453,11 +55453,11 @@
     </row>
     <row r="1125">
       <c r="A1125">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Grafaiai</t>
+          <t>Shroodle</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -55476,25 +55476,25 @@
         </is>
       </c>
       <c r="F1125">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="G1125">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H1125">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I1125">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="J1125">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K1125">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="L1125">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="M1125">
         <v>9</v>
@@ -55502,11 +55502,11 @@
     </row>
     <row r="1126">
       <c r="A1126">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Bramblin</t>
+          <t>Grafaiai</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -55516,34 +55516,34 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F1126">
-        <v>275</v>
+        <v>485</v>
       </c>
       <c r="G1126">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H1126">
+        <v>95</v>
+      </c>
+      <c r="I1126">
         <v>65</v>
       </c>
-      <c r="I1126">
-        <v>30</v>
-      </c>
       <c r="J1126">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K1126">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="L1126">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="M1126">
         <v>9</v>
@@ -55551,11 +55551,11 @@
     </row>
     <row r="1127">
       <c r="A1127">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Brambleghast</t>
+          <t>Bramblin</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -55574,25 +55574,25 @@
         </is>
       </c>
       <c r="F1127">
-        <v>480</v>
+        <v>275</v>
       </c>
       <c r="G1127">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H1127">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="I1127">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J1127">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="K1127">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L1127">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M1127">
         <v>9</v>
@@ -55600,11 +55600,11 @@
     </row>
     <row r="1128">
       <c r="A1128">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Toedscool</t>
+          <t>Brambleghast</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -55614,34 +55614,34 @@
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1128">
-        <v>335</v>
+        <v>480</v>
       </c>
       <c r="G1128">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H1128">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I1128">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J1128">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K1128">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L1128">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M1128">
         <v>9</v>
@@ -55649,11 +55649,11 @@
     </row>
     <row r="1129">
       <c r="A1129">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Toedscruel</t>
+          <t>Toedscool</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -55672,25 +55672,25 @@
         </is>
       </c>
       <c r="F1129">
-        <v>515</v>
+        <v>335</v>
       </c>
       <c r="G1129">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H1129">
+        <v>40</v>
+      </c>
+      <c r="I1129">
+        <v>35</v>
+      </c>
+      <c r="J1129">
+        <v>50</v>
+      </c>
+      <c r="K1129">
+        <v>100</v>
+      </c>
+      <c r="L1129">
         <v>70</v>
-      </c>
-      <c r="I1129">
-        <v>65</v>
-      </c>
-      <c r="J1129">
-        <v>80</v>
-      </c>
-      <c r="K1129">
-        <v>120</v>
-      </c>
-      <c r="L1129">
-        <v>100</v>
       </c>
       <c r="M1129">
         <v>9</v>
@@ -55698,11 +55698,11 @@
     </row>
     <row r="1130">
       <c r="A1130">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Klawf</t>
+          <t>Toedscruel</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -55712,34 +55712,34 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="F1130">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="G1130">
+        <v>80</v>
+      </c>
+      <c r="H1130">
         <v>70</v>
       </c>
-      <c r="H1130">
+      <c r="I1130">
+        <v>65</v>
+      </c>
+      <c r="J1130">
+        <v>80</v>
+      </c>
+      <c r="K1130">
+        <v>120</v>
+      </c>
+      <c r="L1130">
         <v>100</v>
-      </c>
-      <c r="I1130">
-        <v>115</v>
-      </c>
-      <c r="J1130">
-        <v>35</v>
-      </c>
-      <c r="K1130">
-        <v>55</v>
-      </c>
-      <c r="L1130">
-        <v>75</v>
       </c>
       <c r="M1130">
         <v>9</v>
@@ -55747,11 +55747,11 @@
     </row>
     <row r="1131">
       <c r="A1131">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Capsakid</t>
+          <t>Klawf</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -55761,7 +55761,7 @@
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
@@ -55770,25 +55770,25 @@
         </is>
       </c>
       <c r="F1131">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="G1131">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H1131">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I1131">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="J1131">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K1131">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="L1131">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M1131">
         <v>9</v>
@@ -55796,11 +55796,11 @@
     </row>
     <row r="1132">
       <c r="A1132">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Scovillain</t>
+          <t>Capsakid</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -55815,29 +55815,29 @@
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1132">
-        <v>486</v>
+        <v>304</v>
       </c>
       <c r="G1132">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H1132">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I1132">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="J1132">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="K1132">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L1132">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M1132">
         <v>9</v>
@@ -55845,11 +55845,11 @@
     </row>
     <row r="1133">
       <c r="A1133">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Rellor</t>
+          <t>Scovillain</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -55859,34 +55859,34 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F1133">
-        <v>270</v>
+        <v>486</v>
       </c>
       <c r="G1133">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H1133">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I1133">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J1133">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="K1133">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L1133">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M1133">
         <v>9</v>
@@ -55894,11 +55894,11 @@
     </row>
     <row r="1134">
       <c r="A1134">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Rabsca</t>
+          <t>Rellor</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -55913,29 +55913,29 @@
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1134">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="G1134">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H1134">
         <v>50</v>
       </c>
       <c r="I1134">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J1134">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="K1134">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="L1134">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M1134">
         <v>9</v>
@@ -55943,11 +55943,11 @@
     </row>
     <row r="1135">
       <c r="A1135">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Flittle</t>
+          <t>Rabsca</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -55957,34 +55957,34 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
           <t>Psychic</t>
         </is>
       </c>
-      <c r="E1135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="F1135">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="G1135">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H1135">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I1135">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="J1135">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="K1135">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L1135">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M1135">
         <v>9</v>
@@ -55992,11 +55992,11 @@
     </row>
     <row r="1136">
       <c r="A1136">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Espathra</t>
+          <t>Flittle</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -56015,25 +56015,25 @@
         </is>
       </c>
       <c r="F1136">
-        <v>481</v>
+        <v>255</v>
       </c>
       <c r="G1136">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="H1136">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I1136">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J1136">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="K1136">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L1136">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="M1136">
         <v>9</v>
@@ -56041,11 +56041,11 @@
     </row>
     <row r="1137">
       <c r="A1137">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Tinkatink</t>
+          <t>Espathra</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -56055,34 +56055,34 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1137">
-        <v>297</v>
+        <v>481</v>
       </c>
       <c r="G1137">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="H1137">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I1137">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J1137">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="K1137">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L1137">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="M1137">
         <v>9</v>
@@ -56090,11 +56090,11 @@
     </row>
     <row r="1138">
       <c r="A1138">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Tinkatuff</t>
+          <t>Tinkatink</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -56113,25 +56113,25 @@
         </is>
       </c>
       <c r="F1138">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="G1138">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H1138">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I1138">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J1138">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K1138">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="L1138">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M1138">
         <v>9</v>
@@ -56139,11 +56139,11 @@
     </row>
     <row r="1139">
       <c r="A1139">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Tinkaton</t>
+          <t>Tinkatuff</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -56162,25 +56162,25 @@
         </is>
       </c>
       <c r="F1139">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="G1139">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H1139">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I1139">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="J1139">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K1139">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="L1139">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M1139">
         <v>9</v>
@@ -56188,11 +56188,11 @@
     </row>
     <row r="1140">
       <c r="A1140">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Wiglett</t>
+          <t>Tinkaton</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -56202,34 +56202,34 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1140">
-        <v>245</v>
+        <v>506</v>
       </c>
       <c r="G1140">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H1140">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I1140">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J1140">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K1140">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="L1140">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M1140">
         <v>9</v>
@@ -56237,11 +56237,11 @@
     </row>
     <row r="1141">
       <c r="A1141">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Wugtrio</t>
+          <t>Wiglett</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -56260,25 +56260,25 @@
         </is>
       </c>
       <c r="F1141">
-        <v>425</v>
+        <v>245</v>
       </c>
       <c r="G1141">
+        <v>10</v>
+      </c>
+      <c r="H1141">
+        <v>55</v>
+      </c>
+      <c r="I1141">
+        <v>25</v>
+      </c>
+      <c r="J1141">
         <v>35</v>
       </c>
-      <c r="H1141">
-        <v>100</v>
-      </c>
-      <c r="I1141">
-        <v>50</v>
-      </c>
-      <c r="J1141">
-        <v>50</v>
-      </c>
       <c r="K1141">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="L1141">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M1141">
         <v>9</v>
@@ -56286,11 +56286,11 @@
     </row>
     <row r="1142">
       <c r="A1142">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Bombirdier</t>
+          <t>Wugtrio</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -56300,34 +56300,34 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1142">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="G1142">
+        <v>35</v>
+      </c>
+      <c r="H1142">
+        <v>100</v>
+      </c>
+      <c r="I1142">
+        <v>50</v>
+      </c>
+      <c r="J1142">
+        <v>50</v>
+      </c>
+      <c r="K1142">
         <v>70</v>
       </c>
-      <c r="H1142">
-        <v>103</v>
-      </c>
-      <c r="I1142">
-        <v>85</v>
-      </c>
-      <c r="J1142">
-        <v>60</v>
-      </c>
-      <c r="K1142">
-        <v>85</v>
-      </c>
       <c r="L1142">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="M1142">
         <v>9</v>
@@ -56335,11 +56335,11 @@
     </row>
     <row r="1143">
       <c r="A1143">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Finizen</t>
+          <t>Bombirdier</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -56349,34 +56349,34 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1143">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="G1143">
         <v>70</v>
       </c>
       <c r="H1143">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="I1143">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J1143">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K1143">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="L1143">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M1143">
         <v>9</v>
@@ -56384,16 +56384,16 @@
     </row>
     <row r="1144">
       <c r="A1144">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Palafin</t>
+          <t>Finizen</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Zero Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1144" t="inlineStr">
@@ -56407,25 +56407,25 @@
         </is>
       </c>
       <c r="F1144">
-        <v>457</v>
+        <v>315</v>
       </c>
       <c r="G1144">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H1144">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I1144">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="J1144">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K1144">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="L1144">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M1144">
         <v>9</v>
@@ -56442,7 +56442,7 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Hero Form</t>
+          <t>Zero Form</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
@@ -56456,22 +56456,22 @@
         </is>
       </c>
       <c r="F1145">
-        <v>650</v>
+        <v>457</v>
       </c>
       <c r="G1145">
         <v>100</v>
       </c>
       <c r="H1145">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="I1145">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="J1145">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="K1145">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="L1145">
         <v>100</v>
@@ -56482,48 +56482,48 @@
     </row>
     <row r="1146">
       <c r="A1146">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Varoom</t>
+          <t>Palafin</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Hero Form</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1146">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="G1146">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H1146">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="I1146">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="J1146">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="K1146">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="L1146">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="M1146">
         <v>9</v>
@@ -56531,11 +56531,11 @@
     </row>
     <row r="1147">
       <c r="A1147">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Revavroom</t>
+          <t>Varoom</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -56554,25 +56554,25 @@
         </is>
       </c>
       <c r="F1147">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G1147">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H1147">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="I1147">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="J1147">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K1147">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L1147">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="M1147">
         <v>9</v>
@@ -56580,11 +56580,11 @@
     </row>
     <row r="1148">
       <c r="A1148">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Cyclizar</t>
+          <t>Revavroom</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -56594,34 +56594,34 @@
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E1148" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="F1148">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G1148">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H1148">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I1148">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J1148">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="K1148">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L1148">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="M1148">
         <v>9</v>
@@ -56629,11 +56629,11 @@
     </row>
     <row r="1149">
       <c r="A1149">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Orthworm</t>
+          <t>Cyclizar</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -56643,34 +56643,34 @@
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="F1149">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="G1149">
         <v>70</v>
       </c>
       <c r="H1149">
+        <v>95</v>
+      </c>
+      <c r="I1149">
+        <v>65</v>
+      </c>
+      <c r="J1149">
         <v>85</v>
       </c>
-      <c r="I1149">
-        <v>145</v>
-      </c>
-      <c r="J1149">
-        <v>60</v>
-      </c>
       <c r="K1149">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L1149">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="M1149">
         <v>9</v>
@@ -56678,11 +56678,11 @@
     </row>
     <row r="1150">
       <c r="A1150">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Glimmet</t>
+          <t>Orthworm</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -56692,34 +56692,34 @@
       </c>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1150">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="G1150">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H1150">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I1150">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="J1150">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1150">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L1150">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M1150">
         <v>9</v>
@@ -56727,11 +56727,11 @@
     </row>
     <row r="1151">
       <c r="A1151">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Glimmora</t>
+          <t>Glimmet</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -56750,25 +56750,25 @@
         </is>
       </c>
       <c r="F1151">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="G1151">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="H1151">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I1151">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="J1151">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1151">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="L1151">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="M1151">
         <v>9</v>
@@ -56776,11 +56776,11 @@
     </row>
     <row r="1152">
       <c r="A1152">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Greavard</t>
+          <t>Glimmora</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -56790,34 +56790,34 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="F1152">
-        <v>290</v>
+        <v>525</v>
       </c>
       <c r="G1152">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H1152">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I1152">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J1152">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="K1152">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="L1152">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="M1152">
         <v>9</v>
@@ -56825,11 +56825,11 @@
     </row>
     <row r="1153">
       <c r="A1153">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Houndstone</t>
+          <t>Greavard</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -56848,25 +56848,25 @@
         </is>
       </c>
       <c r="F1153">
-        <v>488</v>
+        <v>290</v>
       </c>
       <c r="G1153">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H1153">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="I1153">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J1153">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1153">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="L1153">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="M1153">
         <v>9</v>
@@ -56874,11 +56874,11 @@
     </row>
     <row r="1154">
       <c r="A1154">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Flamigo</t>
+          <t>Houndstone</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -56888,34 +56888,34 @@
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1154" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1154">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G1154">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H1154">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I1154">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J1154">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K1154">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="L1154">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="M1154">
         <v>9</v>
@@ -56923,11 +56923,11 @@
     </row>
     <row r="1155">
       <c r="A1155">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Cetoddle</t>
+          <t>Flamigo</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -56937,34 +56937,34 @@
       </c>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1155">
-        <v>334</v>
+        <v>500</v>
       </c>
       <c r="G1155">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H1155">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="I1155">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J1155">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K1155">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="L1155">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="M1155">
         <v>9</v>
@@ -56972,11 +56972,11 @@
     </row>
     <row r="1156">
       <c r="A1156">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Cetitan</t>
+          <t>Cetoddle</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -56995,25 +56995,25 @@
         </is>
       </c>
       <c r="F1156">
-        <v>521</v>
+        <v>334</v>
       </c>
       <c r="G1156">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="H1156">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="I1156">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J1156">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K1156">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L1156">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="M1156">
         <v>9</v>
@@ -57021,11 +57021,11 @@
     </row>
     <row r="1157">
       <c r="A1157">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Veluza</t>
+          <t>Cetitan</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -57035,34 +57035,34 @@
       </c>
       <c r="D1157" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="E1157" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1157">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="G1157">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="H1157">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I1157">
+        <v>65</v>
+      </c>
+      <c r="J1157">
+        <v>45</v>
+      </c>
+      <c r="K1157">
+        <v>55</v>
+      </c>
+      <c r="L1157">
         <v>73</v>
-      </c>
-      <c r="J1157">
-        <v>78</v>
-      </c>
-      <c r="K1157">
-        <v>65</v>
-      </c>
-      <c r="L1157">
-        <v>70</v>
       </c>
       <c r="M1157">
         <v>9</v>
@@ -57070,11 +57070,11 @@
     </row>
     <row r="1158">
       <c r="A1158">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Dondozo</t>
+          <t>Veluza</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -57089,29 +57089,29 @@
       </c>
       <c r="E1158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1158">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="G1158">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="H1158">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1158">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="J1158">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="K1158">
         <v>65</v>
       </c>
       <c r="L1158">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M1158">
         <v>9</v>
@@ -57119,48 +57119,48 @@
     </row>
     <row r="1159">
       <c r="A1159">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Tatsugiri</t>
+          <t>Dondozo</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Curly Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1159" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1159">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="G1159">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="H1159">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I1159">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="J1159">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K1159">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L1159">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="M1159">
         <v>9</v>
@@ -57177,7 +57177,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Droopy Form</t>
+          <t>Curly Form</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr">
@@ -57226,7 +57226,7 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Stretchy Form</t>
+          <t>Droopy Form</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr">
@@ -57266,48 +57266,48 @@
     </row>
     <row r="1162">
       <c r="A1162">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Annihilape</t>
+          <t>Tatsugiri</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Stretchy Form</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1162" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="F1162">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="G1162">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="H1162">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="I1162">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J1162">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K1162">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L1162">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M1162">
         <v>9</v>
@@ -57315,11 +57315,11 @@
     </row>
     <row r="1163">
       <c r="A1163">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Clodsire</t>
+          <t>Annihilape</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -57329,34 +57329,34 @@
       </c>
       <c r="D1163" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="E1163" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1163">
-        <v>430</v>
+        <v>535</v>
       </c>
       <c r="G1163">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H1163">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="I1163">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J1163">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K1163">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L1163">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M1163">
         <v>9</v>
@@ -57364,11 +57364,11 @@
     </row>
     <row r="1164">
       <c r="A1164">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Farigiraf</t>
+          <t>Clodsire</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -57378,34 +57378,34 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="F1164">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="G1164">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H1164">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I1164">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J1164">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K1164">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L1164">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M1164">
         <v>9</v>
@@ -57413,16 +57413,16 @@
     </row>
     <row r="1165">
       <c r="A1165">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Dudunsparce</t>
+          <t>Farigiraf</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Two-Segment Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1165" t="inlineStr">
@@ -57432,29 +57432,29 @@
       </c>
       <c r="E1165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1165">
         <v>520</v>
       </c>
       <c r="G1165">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H1165">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I1165">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J1165">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K1165">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L1165">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M1165">
         <v>9</v>
@@ -57471,7 +57471,7 @@
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Three-Segment Form</t>
+          <t>Two-Segment Form</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr">
@@ -57511,48 +57511,48 @@
     </row>
     <row r="1167">
       <c r="A1167">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Kingambit</t>
+          <t>Dudunsparce</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Three-Segment Form</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1167">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="G1167">
+        <v>125</v>
+      </c>
+      <c r="H1167">
         <v>100</v>
       </c>
-      <c r="H1167">
-        <v>135</v>
-      </c>
       <c r="I1167">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J1167">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="K1167">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L1167">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M1167">
         <v>9</v>
@@ -57560,11 +57560,11 @@
     </row>
     <row r="1168">
       <c r="A1168">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Great Tusk</t>
+          <t>Kingambit</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -57574,34 +57574,34 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1168">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="G1168">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H1168">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I1168">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J1168">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K1168">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L1168">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="M1168">
         <v>9</v>
@@ -57609,11 +57609,11 @@
     </row>
     <row r="1169">
       <c r="A1169">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Scream Tail</t>
+          <t>Great Tusk</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -57623,12 +57623,12 @@
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="E1169" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1169">
@@ -57638,19 +57638,19 @@
         <v>115</v>
       </c>
       <c r="H1169">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I1169">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="J1169">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K1169">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="L1169">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="M1169">
         <v>9</v>
@@ -57658,11 +57658,11 @@
     </row>
     <row r="1170">
       <c r="A1170">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Brute Bonnet</t>
+          <t>Scream Tail</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -57672,34 +57672,34 @@
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="E1170" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Psychic</t>
         </is>
       </c>
       <c r="F1170">
         <v>570</v>
       </c>
       <c r="G1170">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H1170">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="I1170">
         <v>99</v>
       </c>
       <c r="J1170">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="K1170">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="L1170">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M1170">
         <v>9</v>
@@ -57707,11 +57707,11 @@
     </row>
     <row r="1171">
       <c r="A1171">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Flutter Mane</t>
+          <t>Brute Bonnet</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -57721,34 +57721,34 @@
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1171">
         <v>570</v>
       </c>
       <c r="G1171">
+        <v>111</v>
+      </c>
+      <c r="H1171">
+        <v>127</v>
+      </c>
+      <c r="I1171">
+        <v>99</v>
+      </c>
+      <c r="J1171">
+        <v>79</v>
+      </c>
+      <c r="K1171">
+        <v>99</v>
+      </c>
+      <c r="L1171">
         <v>55</v>
-      </c>
-      <c r="H1171">
-        <v>55</v>
-      </c>
-      <c r="I1171">
-        <v>55</v>
-      </c>
-      <c r="J1171">
-        <v>135</v>
-      </c>
-      <c r="K1171">
-        <v>135</v>
-      </c>
-      <c r="L1171">
-        <v>135</v>
       </c>
       <c r="M1171">
         <v>9</v>
@@ -57756,11 +57756,11 @@
     </row>
     <row r="1172">
       <c r="A1172">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Slither Wing</t>
+          <t>Flutter Mane</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -57770,34 +57770,34 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Fairy</t>
         </is>
       </c>
       <c r="F1172">
         <v>570</v>
       </c>
       <c r="G1172">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H1172">
+        <v>55</v>
+      </c>
+      <c r="I1172">
+        <v>55</v>
+      </c>
+      <c r="J1172">
         <v>135</v>
       </c>
-      <c r="I1172">
-        <v>79</v>
-      </c>
-      <c r="J1172">
-        <v>85</v>
-      </c>
       <c r="K1172">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="L1172">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="M1172">
         <v>9</v>
@@ -57805,11 +57805,11 @@
     </row>
     <row r="1173">
       <c r="A1173">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Sandy Shocks</t>
+          <t>Slither Wing</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -57819,12 +57819,12 @@
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="E1173" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="F1173">
@@ -57834,19 +57834,19 @@
         <v>85</v>
       </c>
       <c r="H1173">
+        <v>135</v>
+      </c>
+      <c r="I1173">
+        <v>79</v>
+      </c>
+      <c r="J1173">
+        <v>85</v>
+      </c>
+      <c r="K1173">
+        <v>105</v>
+      </c>
+      <c r="L1173">
         <v>81</v>
-      </c>
-      <c r="I1173">
-        <v>97</v>
-      </c>
-      <c r="J1173">
-        <v>121</v>
-      </c>
-      <c r="K1173">
-        <v>85</v>
-      </c>
-      <c r="L1173">
-        <v>101</v>
       </c>
       <c r="M1173">
         <v>9</v>
@@ -57854,11 +57854,11 @@
     </row>
     <row r="1174">
       <c r="A1174">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Iron Treads</t>
+          <t>Sandy Shocks</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -57868,34 +57868,34 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
           <t>Ground</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr">
-        <is>
-          <t>Steel</t>
         </is>
       </c>
       <c r="F1174">
         <v>570</v>
       </c>
       <c r="G1174">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H1174">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="I1174">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="J1174">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="K1174">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L1174">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M1174">
         <v>9</v>
@@ -57903,11 +57903,11 @@
     </row>
     <row r="1175">
       <c r="A1175">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Iron Bundle</t>
+          <t>Iron Treads</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -57917,34 +57917,34 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="F1175">
         <v>570</v>
       </c>
       <c r="G1175">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H1175">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I1175">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J1175">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="K1175">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L1175">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="M1175">
         <v>9</v>
@@ -57952,11 +57952,11 @@
     </row>
     <row r="1176">
       <c r="A1176">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Iron Hands</t>
+          <t>Iron Bundle</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -57966,34 +57966,34 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="F1176">
         <v>570</v>
       </c>
       <c r="G1176">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="H1176">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="I1176">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J1176">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K1176">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L1176">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="M1176">
         <v>9</v>
@@ -58001,11 +58001,11 @@
     </row>
     <row r="1177">
       <c r="A1177">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Iron Jugulis</t>
+          <t>Iron Hands</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -58015,34 +58015,34 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="E1177" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="F1177">
         <v>570</v>
       </c>
       <c r="G1177">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="H1177">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I1177">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="J1177">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="K1177">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L1177">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="M1177">
         <v>9</v>
@@ -58050,11 +58050,11 @@
     </row>
     <row r="1178">
       <c r="A1178">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Iron Moth</t>
+          <t>Iron Jugulis</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -58064,34 +58064,34 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Flying</t>
         </is>
       </c>
       <c r="F1178">
         <v>570</v>
       </c>
       <c r="G1178">
+        <v>94</v>
+      </c>
+      <c r="H1178">
         <v>80</v>
       </c>
-      <c r="H1178">
-        <v>70</v>
-      </c>
       <c r="I1178">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="J1178">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="K1178">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="L1178">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M1178">
         <v>9</v>
@@ -58099,11 +58099,11 @@
     </row>
     <row r="1179">
       <c r="A1179">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Iron Thorns</t>
+          <t>Iron Moth</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -58113,34 +58113,34 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>Rock</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="E1179" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="F1179">
         <v>570</v>
       </c>
       <c r="G1179">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H1179">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="I1179">
+        <v>60</v>
+      </c>
+      <c r="J1179">
+        <v>140</v>
+      </c>
+      <c r="K1179">
         <v>110</v>
       </c>
-      <c r="J1179">
-        <v>70</v>
-      </c>
-      <c r="K1179">
-        <v>84</v>
-      </c>
       <c r="L1179">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="M1179">
         <v>9</v>
@@ -58148,11 +58148,11 @@
     </row>
     <row r="1180">
       <c r="A1180">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Frigibax</t>
+          <t>Iron Thorns</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -58162,34 +58162,34 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Rock</t>
         </is>
       </c>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="F1180">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="G1180">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H1180">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="I1180">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="J1180">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K1180">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="L1180">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="M1180">
         <v>9</v>
@@ -58197,11 +58197,11 @@
     </row>
     <row r="1181">
       <c r="A1181">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Arctibax</t>
+          <t>Frigibax</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -58220,25 +58220,25 @@
         </is>
       </c>
       <c r="F1181">
-        <v>423</v>
+        <v>320</v>
       </c>
       <c r="G1181">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H1181">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I1181">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J1181">
+        <v>35</v>
+      </c>
+      <c r="K1181">
         <v>45</v>
       </c>
-      <c r="K1181">
-        <v>65</v>
-      </c>
       <c r="L1181">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M1181">
         <v>9</v>
@@ -58246,11 +58246,11 @@
     </row>
     <row r="1182">
       <c r="A1182">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Baxcalibur</t>
+          <t>Arctibax</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -58269,25 +58269,25 @@
         </is>
       </c>
       <c r="F1182">
-        <v>600</v>
+        <v>423</v>
       </c>
       <c r="G1182">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H1182">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="I1182">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="J1182">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K1182">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="L1182">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="M1182">
         <v>9</v>
@@ -58295,48 +58295,48 @@
     </row>
     <row r="1183">
       <c r="A1183">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Gimmighoul</t>
+          <t>Baxcalibur</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Chest Form</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="F1183">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G1183">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="H1183">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="I1183">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J1183">
         <v>75</v>
       </c>
       <c r="K1183">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L1183">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="M1183">
         <v>9</v>
@@ -58353,7 +58353,7 @@
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Roaming Form</t>
+          <t>Chest Form</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr">
@@ -58376,16 +58376,16 @@
         <v>30</v>
       </c>
       <c r="I1184">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="J1184">
         <v>75</v>
       </c>
       <c r="K1184">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L1184">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M1184">
         <v>9</v>
@@ -58393,48 +58393,48 @@
     </row>
     <row r="1185">
       <c r="A1185">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Gholdengo</t>
+          <t>Gimmighoul</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Roaming Form</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="E1185" t="inlineStr">
         <is>
-          <t>Ghost</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1185">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="G1185">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H1185">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I1185">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="J1185">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="K1185">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="L1185">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M1185">
         <v>9</v>
@@ -58442,11 +58442,11 @@
     </row>
     <row r="1186">
       <c r="A1186">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Wo-Chien</t>
+          <t>Gholdengo</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -58456,34 +58456,34 @@
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E1186" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Ghost</t>
         </is>
       </c>
       <c r="F1186">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="G1186">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1186">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I1186">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J1186">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="K1186">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="L1186">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="M1186">
         <v>9</v>
@@ -58491,11 +58491,11 @@
     </row>
     <row r="1187">
       <c r="A1187">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Chien-Pao</t>
+          <t>Wo-Chien</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -58510,29 +58510,29 @@
       </c>
       <c r="E1187" t="inlineStr">
         <is>
-          <t>Ice</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="F1187">
         <v>570</v>
       </c>
       <c r="G1187">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H1187">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="I1187">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J1187">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K1187">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="L1187">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="M1187">
         <v>9</v>
@@ -58540,11 +58540,11 @@
     </row>
     <row r="1188">
       <c r="A1188">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Ting-Lu</t>
+          <t>Chien-Pao</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -58559,29 +58559,29 @@
       </c>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>Ground</t>
+          <t>Ice</t>
         </is>
       </c>
       <c r="F1188">
         <v>570</v>
       </c>
       <c r="G1188">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="H1188">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I1188">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="J1188">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="K1188">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L1188">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="M1188">
         <v>9</v>
@@ -58589,11 +58589,11 @@
     </row>
     <row r="1189">
       <c r="A1189">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Chi-Yu</t>
+          <t>Ting-Lu</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -58608,29 +58608,29 @@
       </c>
       <c r="E1189" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Ground</t>
         </is>
       </c>
       <c r="F1189">
         <v>570</v>
       </c>
       <c r="G1189">
+        <v>155</v>
+      </c>
+      <c r="H1189">
+        <v>110</v>
+      </c>
+      <c r="I1189">
+        <v>125</v>
+      </c>
+      <c r="J1189">
         <v>55</v>
       </c>
-      <c r="H1189">
+      <c r="K1189">
         <v>80</v>
       </c>
-      <c r="I1189">
-        <v>80</v>
-      </c>
-      <c r="J1189">
-        <v>135</v>
-      </c>
-      <c r="K1189">
-        <v>120</v>
-      </c>
       <c r="L1189">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M1189">
         <v>9</v>
@@ -58638,11 +58638,11 @@
     </row>
     <row r="1190">
       <c r="A1190">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Roaring Moon</t>
+          <t>Chi-Yu</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -58652,34 +58652,34 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr">
         <is>
-          <t>Dark</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F1190">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="G1190">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="H1190">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I1190">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J1190">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="K1190">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L1190">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M1190">
         <v>9</v>
@@ -58687,11 +58687,11 @@
     </row>
     <row r="1191">
       <c r="A1191">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Iron Valiant</t>
+          <t>Roaring Moon</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -58701,34 +58701,34 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>Fairy</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>Fighting</t>
+          <t>Dark</t>
         </is>
       </c>
       <c r="F1191">
         <v>590</v>
       </c>
       <c r="G1191">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="H1191">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I1191">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J1191">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="K1191">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="L1191">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M1191">
         <v>9</v>
@@ -58736,11 +58736,11 @@
     </row>
     <row r="1192">
       <c r="A1192">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Koraidon</t>
+          <t>Iron Valiant</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -58750,34 +58750,34 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="E1192" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
       <c r="F1192">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="G1192">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H1192">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I1192">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="J1192">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K1192">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L1192">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M1192">
         <v>9</v>
@@ -58785,11 +58785,11 @@
     </row>
     <row r="1193">
       <c r="A1193">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Miraidon</t>
+          <t>Koraidon</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -58799,7 +58799,7 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>Electric</t>
+          <t>Fighting</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr">
@@ -58814,16 +58814,16 @@
         <v>100</v>
       </c>
       <c r="H1193">
+        <v>135</v>
+      </c>
+      <c r="I1193">
+        <v>115</v>
+      </c>
+      <c r="J1193">
         <v>85</v>
       </c>
-      <c r="I1193">
+      <c r="K1193">
         <v>100</v>
-      </c>
-      <c r="J1193">
-        <v>135</v>
-      </c>
-      <c r="K1193">
-        <v>115</v>
       </c>
       <c r="L1193">
         <v>135</v>
@@ -58834,11 +58834,11 @@
     </row>
     <row r="1194">
       <c r="A1194">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Walking Wake</t>
+          <t>Miraidon</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -58848,7 +58848,7 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Electric</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr">
@@ -58857,25 +58857,25 @@
         </is>
       </c>
       <c r="F1194">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="G1194">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1194">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1194">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J1194">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K1194">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="L1194">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="M1194">
         <v>9</v>
@@ -58883,11 +58883,11 @@
     </row>
     <row r="1195">
       <c r="A1195">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Iron Leaves</t>
+          <t>Walking Wake</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -58897,36 +58897,1065 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Dragon</t>
         </is>
       </c>
       <c r="F1195">
         <v>590</v>
       </c>
       <c r="G1195">
+        <v>99</v>
+      </c>
+      <c r="H1195">
+        <v>83</v>
+      </c>
+      <c r="I1195">
+        <v>91</v>
+      </c>
+      <c r="J1195">
+        <v>125</v>
+      </c>
+      <c r="K1195">
+        <v>83</v>
+      </c>
+      <c r="L1195">
+        <v>109</v>
+      </c>
+      <c r="M1195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196">
+        <v>1010</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Iron Leaves</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1196">
+        <v>590</v>
+      </c>
+      <c r="G1196">
         <v>90</v>
       </c>
-      <c r="H1195">
+      <c r="H1196">
         <v>130</v>
       </c>
-      <c r="I1195">
+      <c r="I1196">
         <v>88</v>
       </c>
-      <c r="J1195">
+      <c r="J1196">
         <v>70</v>
       </c>
-      <c r="K1195">
+      <c r="K1196">
         <v>108</v>
       </c>
-      <c r="L1195">
+      <c r="L1196">
         <v>104</v>
       </c>
-      <c r="M1195">
+      <c r="M1196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197">
+        <v>1011</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Dipplin</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1197">
+        <v>485</v>
+      </c>
+      <c r="G1197">
+        <v>80</v>
+      </c>
+      <c r="H1197">
+        <v>80</v>
+      </c>
+      <c r="I1197">
+        <v>110</v>
+      </c>
+      <c r="J1197">
+        <v>95</v>
+      </c>
+      <c r="K1197">
+        <v>80</v>
+      </c>
+      <c r="L1197">
+        <v>40</v>
+      </c>
+      <c r="M1197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198">
+        <v>1012</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Poltchageist</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1198">
+        <v>308</v>
+      </c>
+      <c r="G1198">
+        <v>40</v>
+      </c>
+      <c r="H1198">
+        <v>45</v>
+      </c>
+      <c r="I1198">
+        <v>45</v>
+      </c>
+      <c r="J1198">
+        <v>74</v>
+      </c>
+      <c r="K1198">
+        <v>54</v>
+      </c>
+      <c r="L1198">
+        <v>50</v>
+      </c>
+      <c r="M1198">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199">
+        <v>1013</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Sinistcha</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1199">
+        <v>508</v>
+      </c>
+      <c r="G1199">
+        <v>71</v>
+      </c>
+      <c r="H1199">
+        <v>60</v>
+      </c>
+      <c r="I1199">
+        <v>106</v>
+      </c>
+      <c r="J1199">
+        <v>121</v>
+      </c>
+      <c r="K1199">
+        <v>80</v>
+      </c>
+      <c r="L1199">
+        <v>70</v>
+      </c>
+      <c r="M1199">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200">
+        <v>1014</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Okidogi</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>Fighting</t>
+        </is>
+      </c>
+      <c r="F1200">
+        <v>555</v>
+      </c>
+      <c r="G1200">
+        <v>88</v>
+      </c>
+      <c r="H1200">
+        <v>128</v>
+      </c>
+      <c r="I1200">
+        <v>115</v>
+      </c>
+      <c r="J1200">
+        <v>58</v>
+      </c>
+      <c r="K1200">
+        <v>86</v>
+      </c>
+      <c r="L1200">
+        <v>80</v>
+      </c>
+      <c r="M1200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201">
+        <v>1015</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Munkidori</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1201">
+        <v>555</v>
+      </c>
+      <c r="G1201">
+        <v>88</v>
+      </c>
+      <c r="H1201">
+        <v>75</v>
+      </c>
+      <c r="I1201">
+        <v>66</v>
+      </c>
+      <c r="J1201">
+        <v>130</v>
+      </c>
+      <c r="K1201">
+        <v>90</v>
+      </c>
+      <c r="L1201">
+        <v>106</v>
+      </c>
+      <c r="M1201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202">
+        <v>1016</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Fezandipiti</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>Fairy</t>
+        </is>
+      </c>
+      <c r="F1202">
+        <v>555</v>
+      </c>
+      <c r="G1202">
+        <v>88</v>
+      </c>
+      <c r="H1202">
+        <v>91</v>
+      </c>
+      <c r="I1202">
+        <v>82</v>
+      </c>
+      <c r="J1202">
+        <v>70</v>
+      </c>
+      <c r="K1202">
+        <v>125</v>
+      </c>
+      <c r="L1202">
+        <v>99</v>
+      </c>
+      <c r="M1202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203">
+        <v>1017</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Ogerpon</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Teal Mask</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1203">
+        <v>550</v>
+      </c>
+      <c r="G1203">
+        <v>80</v>
+      </c>
+      <c r="H1203">
+        <v>120</v>
+      </c>
+      <c r="I1203">
+        <v>84</v>
+      </c>
+      <c r="J1203">
+        <v>60</v>
+      </c>
+      <c r="K1203">
+        <v>96</v>
+      </c>
+      <c r="L1203">
+        <v>110</v>
+      </c>
+      <c r="M1203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204">
+        <v>1017</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Ogerpon</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Wellspring Mask</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="F1204">
+        <v>550</v>
+      </c>
+      <c r="G1204">
+        <v>80</v>
+      </c>
+      <c r="H1204">
+        <v>120</v>
+      </c>
+      <c r="I1204">
+        <v>84</v>
+      </c>
+      <c r="J1204">
+        <v>60</v>
+      </c>
+      <c r="K1204">
+        <v>96</v>
+      </c>
+      <c r="L1204">
+        <v>110</v>
+      </c>
+      <c r="M1204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205">
+        <v>1017</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Ogerpon</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>Hearthflame Mask</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="F1205">
+        <v>550</v>
+      </c>
+      <c r="G1205">
+        <v>80</v>
+      </c>
+      <c r="H1205">
+        <v>120</v>
+      </c>
+      <c r="I1205">
+        <v>84</v>
+      </c>
+      <c r="J1205">
+        <v>60</v>
+      </c>
+      <c r="K1205">
+        <v>96</v>
+      </c>
+      <c r="L1205">
+        <v>110</v>
+      </c>
+      <c r="M1205">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206">
+        <v>1017</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>Ogerpon</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>Cornerstone Mask</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="F1206">
+        <v>550</v>
+      </c>
+      <c r="G1206">
+        <v>80</v>
+      </c>
+      <c r="H1206">
+        <v>120</v>
+      </c>
+      <c r="I1206">
+        <v>84</v>
+      </c>
+      <c r="J1206">
+        <v>60</v>
+      </c>
+      <c r="K1206">
+        <v>96</v>
+      </c>
+      <c r="L1206">
+        <v>110</v>
+      </c>
+      <c r="M1206">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207">
+        <v>1018</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Archaludon</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1207">
+        <v>600</v>
+      </c>
+      <c r="G1207">
+        <v>90</v>
+      </c>
+      <c r="H1207">
+        <v>105</v>
+      </c>
+      <c r="I1207">
+        <v>130</v>
+      </c>
+      <c r="J1207">
+        <v>125</v>
+      </c>
+      <c r="K1207">
+        <v>65</v>
+      </c>
+      <c r="L1207">
+        <v>85</v>
+      </c>
+      <c r="M1207">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208">
+        <v>1019</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Hydrapple</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="E1208" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1208">
+        <v>540</v>
+      </c>
+      <c r="G1208">
+        <v>106</v>
+      </c>
+      <c r="H1208">
+        <v>80</v>
+      </c>
+      <c r="I1208">
+        <v>110</v>
+      </c>
+      <c r="J1208">
+        <v>120</v>
+      </c>
+      <c r="K1208">
+        <v>80</v>
+      </c>
+      <c r="L1208">
+        <v>44</v>
+      </c>
+      <c r="M1208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209">
+        <v>1020</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Gouging Fire</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1209">
+        <v>590</v>
+      </c>
+      <c r="G1209">
+        <v>105</v>
+      </c>
+      <c r="H1209">
+        <v>115</v>
+      </c>
+      <c r="I1209">
+        <v>121</v>
+      </c>
+      <c r="J1209">
+        <v>65</v>
+      </c>
+      <c r="K1209">
+        <v>93</v>
+      </c>
+      <c r="L1209">
+        <v>91</v>
+      </c>
+      <c r="M1209">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210">
+        <v>1021</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Raging Bolt</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>Dragon</t>
+        </is>
+      </c>
+      <c r="F1210">
+        <v>590</v>
+      </c>
+      <c r="G1210">
+        <v>125</v>
+      </c>
+      <c r="H1210">
+        <v>73</v>
+      </c>
+      <c r="I1210">
+        <v>91</v>
+      </c>
+      <c r="J1210">
+        <v>137</v>
+      </c>
+      <c r="K1210">
+        <v>89</v>
+      </c>
+      <c r="L1210">
+        <v>75</v>
+      </c>
+      <c r="M1210">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211">
+        <v>1022</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Iron Boulder</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1211">
+        <v>590</v>
+      </c>
+      <c r="G1211">
+        <v>90</v>
+      </c>
+      <c r="H1211">
+        <v>120</v>
+      </c>
+      <c r="I1211">
+        <v>80</v>
+      </c>
+      <c r="J1211">
+        <v>68</v>
+      </c>
+      <c r="K1211">
+        <v>108</v>
+      </c>
+      <c r="L1211">
+        <v>124</v>
+      </c>
+      <c r="M1211">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212">
+        <v>1023</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Iron Crown</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>Psychic</t>
+        </is>
+      </c>
+      <c r="F1212">
+        <v>590</v>
+      </c>
+      <c r="G1212">
+        <v>90</v>
+      </c>
+      <c r="H1212">
+        <v>72</v>
+      </c>
+      <c r="I1212">
+        <v>100</v>
+      </c>
+      <c r="J1212">
+        <v>122</v>
+      </c>
+      <c r="K1212">
+        <v>108</v>
+      </c>
+      <c r="L1212">
+        <v>98</v>
+      </c>
+      <c r="M1212">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213">
+        <v>1024</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Terapagos</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Normal Form</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1213">
+        <v>450</v>
+      </c>
+      <c r="G1213">
+        <v>90</v>
+      </c>
+      <c r="H1213">
+        <v>65</v>
+      </c>
+      <c r="I1213">
+        <v>85</v>
+      </c>
+      <c r="J1213">
+        <v>65</v>
+      </c>
+      <c r="K1213">
+        <v>85</v>
+      </c>
+      <c r="L1213">
+        <v>60</v>
+      </c>
+      <c r="M1213">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214">
+        <v>1024</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Terapagos</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Terastal Form</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1214">
+        <v>600</v>
+      </c>
+      <c r="G1214">
+        <v>95</v>
+      </c>
+      <c r="H1214">
+        <v>95</v>
+      </c>
+      <c r="I1214">
+        <v>110</v>
+      </c>
+      <c r="J1214">
+        <v>105</v>
+      </c>
+      <c r="K1214">
+        <v>110</v>
+      </c>
+      <c r="L1214">
+        <v>85</v>
+      </c>
+      <c r="M1214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215">
+        <v>1024</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>Terapagos</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>Stellar Form</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F1215">
+        <v>700</v>
+      </c>
+      <c r="G1215">
+        <v>160</v>
+      </c>
+      <c r="H1215">
+        <v>105</v>
+      </c>
+      <c r="I1215">
+        <v>110</v>
+      </c>
+      <c r="J1215">
+        <v>130</v>
+      </c>
+      <c r="K1215">
+        <v>110</v>
+      </c>
+      <c r="L1215">
+        <v>85</v>
+      </c>
+      <c r="M1215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216">
+        <v>1025</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Pecharunt</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>Poison</t>
+        </is>
+      </c>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>Ghost</t>
+        </is>
+      </c>
+      <c r="F1216">
+        <v>600</v>
+      </c>
+      <c r="G1216">
+        <v>88</v>
+      </c>
+      <c r="H1216">
+        <v>88</v>
+      </c>
+      <c r="I1216">
+        <v>160</v>
+      </c>
+      <c r="J1216">
+        <v>88</v>
+      </c>
+      <c r="K1216">
+        <v>88</v>
+      </c>
+      <c r="L1216">
+        <v>88</v>
+      </c>
+      <c r="M1216">
         <v>9</v>
       </c>
     </row>
